--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485BA9C4-62E5-4BC9-B42C-9ACA9E0EA1B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A991FF9-EA00-4ABB-8426-9FE35C77F079}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="1" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -1227,9 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D0ECD8-2CAD-49B7-B2DF-5D7100C10246}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1283,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF1CF46-BDBD-415B-8CA7-3A5C33EB6352}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1329,19 +1327,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
@@ -1352,6 +1347,8 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
@@ -1359,11 +1356,11 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -1375,11 +1372,11 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
@@ -1391,11 +1388,11 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
@@ -1415,9 +1412,13 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1427,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923E4C24-3B05-4188-877B-21A1660FB07B}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1473,19 +1474,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
@@ -1496,6 +1494,8 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
@@ -1503,11 +1503,11 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -1519,11 +1519,11 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
@@ -1535,11 +1535,11 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
@@ -1559,9 +1559,13 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1571,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D74EA5C-7B08-4867-A177-C840850BD429}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1617,19 +1621,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
@@ -1640,6 +1641,8 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
@@ -1647,11 +1650,11 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -1663,11 +1666,11 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
@@ -1679,11 +1682,11 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
@@ -1703,9 +1706,13 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1715,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E9B584-E692-492C-9839-3FDF3D30AC5F}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1761,35 +1768,34 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
+      <c r="B7" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1"/>
-      <c r="B11" s="11"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1"/>
@@ -1809,9 +1815,13 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1822,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C9D162-AE1E-4BB2-8338-0F4343F26286}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1866,47 +1876,50 @@
     <row r="5" spans="1:2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:2" ht="67.5">
+    <row r="6" spans="1:2">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="67.5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="10" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1"/>
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1917,9 +1930,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1974,119 +1989,119 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40.5">
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="40.5">
+      <c r="B8" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27">
-      <c r="B8" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="B9" s="11" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27">
+      <c r="B9" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="54">
-      <c r="B11" s="12" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="B11" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="54">
+      <c r="B12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75">
-      <c r="B12" s="12" t="s">
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="B13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" ht="18.75">
+    <row r="15" spans="1:4">
       <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="8"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.75">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="8"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
     </row>
@@ -2103,12 +2118,15 @@
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="B23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" ht="18.75">
-      <c r="D24" s="5"/>
+    <row r="24" spans="1:4">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="18.75">
       <c r="D25" s="5"/>
@@ -2116,19 +2134,22 @@
     <row r="26" spans="1:4" ht="18.75">
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="53.25" customHeight="1">
-      <c r="B27" s="10"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" ht="18.75">
-      <c r="D28" s="5"/>
+    <row r="27" spans="1:4" ht="18.75">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="53.25" customHeight="1">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="18.75">
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" ht="18.75">
       <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75">
+      <c r="D31" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2139,10 +2160,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7222B16B-225E-40F6-B25E-FF1AF04CA1BC}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2185,47 +2206,46 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="94.5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="27">
+    <row r="8" spans="1:4" ht="94.5">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="40.5">
+    <row r="9" spans="1:4" ht="27">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="94.5">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="94.5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -2237,9 +2257,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2250,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCC51EA-F7EF-4B13-8E46-8FB3FD467ED9}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2296,15 +2320,18 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
+      <c r="B7" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2315,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F89477-4C4E-4C63-80A9-01FAEFED0D86}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2361,15 +2388,18 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2380,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFAE51F-FED0-4874-AF7D-55D82F0F534B}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2426,19 +2456,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
@@ -2449,6 +2476,8 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
@@ -2456,11 +2485,11 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -2472,11 +2501,11 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
@@ -2488,11 +2517,11 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
@@ -2512,9 +2541,13 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2525,10 +2558,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF158CDD-1C37-4D6B-B010-BB7EF83F2F8E}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2571,19 +2604,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
@@ -2594,6 +2624,8 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
@@ -2601,11 +2633,11 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -2617,11 +2649,11 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
@@ -2633,11 +2665,11 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
@@ -2657,9 +2689,13 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2670,10 +2706,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8111656-CDEF-4100-95C0-BB00970C3293}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2716,15 +2752,18 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2735,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F341564-8B67-45AF-A172-BC5E94ADC7AB}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2781,15 +2820,18 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3048,15 +3090,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -3072,6 +3105,15 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3094,14 +3136,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3110,4 +3144,12 @@
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A991FF9-EA00-4ABB-8426-9FE35C77F079}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798852C0-8757-4D44-91D9-3547340693B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>header1</t>
   </si>
@@ -756,6 +756,22 @@
     <t xml:space="preserve">&lt;h3&gt;問題バンク&lt;/h3&gt;
 小テストに登録した問題は「問題バンク」に登録されます。また「問題バンク」内でも問題を作成することができます。「問題バンク」の問題は、他の小テストに再利用できるだけでなく、コース内の他の教員も利用することができます。
 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test6.png</t>
+  </si>
+  <si>
+    <t>test7.png</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2"&gt;マニュアルの目次へ戻る&lt;/a&gt;</t>
+    <rPh sb="71" eb="73">
+      <t>モクジ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1225,9 +1241,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D0ECD8-2CAD-49B7-B2DF-5D7100C10246}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1263,19 +1281,24 @@
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="54">
+    <row r="5" spans="1:2">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="54">
+      <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="2"/>
+    <row r="7" spans="1:2" ht="27">
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1930,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2012,10 +2035,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="27">
-      <c r="B9" s="12" t="s">
-        <v>31</v>
-      </c>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="12"/>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
@@ -2023,9 +2044,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="11" t="s">
-        <v>7</v>
+    <row r="10" spans="1:4" ht="27">
+      <c r="B10" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
@@ -2036,7 +2057,7 @@
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>6</v>
@@ -2045,9 +2066,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="54">
-      <c r="B12" s="12" t="s">
-        <v>32</v>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="B12" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
@@ -2056,58 +2077,67 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75">
+    <row r="13" spans="1:4" ht="54">
       <c r="B13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="B14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" ht="18.75">
+    <row r="16" spans="1:4">
       <c r="A16" s="8"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75">
       <c r="A17" s="8"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.75">
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75">
       <c r="A19" s="8"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
@@ -2124,12 +2154,15 @@
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="10"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" ht="18.75">
-      <c r="D25" s="5"/>
+    <row r="25" spans="1:4">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="18.75">
       <c r="D26" s="5"/>
@@ -2137,19 +2170,22 @@
     <row r="27" spans="1:4" ht="18.75">
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="53.25" customHeight="1">
-      <c r="B28" s="10"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" ht="18.75">
-      <c r="D29" s="5"/>
+    <row r="28" spans="1:4" ht="18.75">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="53.25" customHeight="1">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" ht="18.75">
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="18.75">
       <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="18.75">
+      <c r="D32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3090,6 +3126,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -3105,15 +3150,6 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3136,6 +3172,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3144,12 +3188,4 @@
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798852C0-8757-4D44-91D9-3547340693B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7608E3B4-A880-450B-B6C8-D039A3271F7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
   <si>
     <t>header1</t>
   </si>
@@ -139,22 +139,6 @@
 受験は制限時間内に提出される必要がありますが、そうでない場合はカウントさ
 れません：小テストは受験したことにはなりません。</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test1.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test2.png</t>
-  </si>
-  <si>
-    <t>test3.png</t>
-  </si>
-  <si>
-    <t>test4.png</t>
-  </si>
-  <si>
-    <t>test5.png</t>
   </si>
   <si>
     <r>
@@ -355,14 +339,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>&lt;h4&gt;小テストとは&lt;/h4&gt;&lt;br&gt;
-moodle では小テストを実施することができます。小テストを作成する時は、最初に小テストの動作設定を行い、そのあとで問題を登録します。</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>小テストを作成する</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -759,18 +735,30 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>test6.png</t>
-  </si>
-  <si>
-    <t>test7.png</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2"&gt;マニュアルの目次へ戻る&lt;/a&gt;</t>
-    <rPh sb="71" eb="73">
-      <t>モクジ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>モド</t>
+    <t>test1.PNG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test2.PNG</t>
+  </si>
+  <si>
+    <t>test3.PNG</t>
+  </si>
+  <si>
+    <t>test4.PNG</t>
+  </si>
+  <si>
+    <t>test5.PNG</t>
+  </si>
+  <si>
+    <t>test6.PNG</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;小テストとは&lt;/h4&gt;&lt;br&gt;
+moodle では小テストを実施することができます。小テストを作成する時は、最初に小テストの動作設定を行い、そのあとで問題を登録します。&lt;br &gt;
+&lt;a href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2"&gt;マニュアルの目次へ戻る&lt;/a&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1243,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D0ECD8-2CAD-49B7-B2DF-5D7100C10246}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1258,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1274,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1285,15 +1273,13 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="54">
+    <row r="6" spans="1:2" ht="81">
       <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27">
-      <c r="B7" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1326,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1342,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1354,7 +1340,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1473,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1489,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1501,7 +1487,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1620,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1636,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1648,7 +1634,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1767,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1877,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1905,7 +1891,7 @@
     <row r="7" spans="1:2" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1955,9 +1941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1979,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -1999,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2019,20 +2003,20 @@
     <row r="7" spans="1:4">
       <c r="A7" s="8"/>
       <c r="B7" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="40.5">
       <c r="B8" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
@@ -2041,18 +2025,18 @@
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27">
       <c r="B10" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -2063,7 +2047,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
@@ -2074,30 +2058,26 @@
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="54">
       <c r="B13" s="12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>73</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8"/>
@@ -2218,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2234,7 +2214,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2246,7 +2226,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="94.5">
@@ -2280,7 +2260,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2332,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2348,7 +2328,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2360,7 +2340,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2400,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2416,7 +2396,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2428,7 +2408,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2468,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2484,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2496,7 +2476,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2616,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2632,7 +2612,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2644,7 +2624,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2764,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2780,7 +2760,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2792,7 +2772,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2832,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2848,7 +2828,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2860,7 +2840,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7608E3B4-A880-450B-B6C8-D039A3271F7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CB4B48-E43E-469B-A9C9-9BB619803BF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="1" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="p08" sheetId="24" r:id="rId9"/>
     <sheet name="p09" sheetId="25" r:id="rId10"/>
     <sheet name="p10" sheetId="26" r:id="rId11"/>
-    <sheet name="p11" sheetId="27" r:id="rId12"/>
+    <sheet name="p11" sheetId="31" r:id="rId12"/>
     <sheet name="p12" sheetId="2" r:id="rId13"/>
     <sheet name="p13" sheetId="30" r:id="rId14"/>
+    <sheet name="p14" sheetId="27" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="228">
   <si>
     <t>header1</t>
   </si>
@@ -66,10 +67,6 @@
   </si>
   <si>
     <t>［名称］と必要であれば［説明］を入力します</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="registration"&gt;&lt;/a&gt;問題の登録&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>テストアイコンをクリックします。［小テストを編集する］をクリックします</t>
@@ -138,72 +135,6 @@
 解くことはできません。提出できる答案は制限時間内に解いたもののみです。
 受験は制限時間内に提出される必要がありますが、そうでない場合はカウントさ
 れません：小テストは受験したことにはなりません。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>set2"&gt;評定：評定を設定する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;&lt;/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -315,10 +246,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>以降は、各設定値を説明します。必要に応じて設定してください。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>小テスト</t>
     <rPh sb="0" eb="1">
       <t>ショウ</t>
@@ -339,21 +266,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>小テストを作成する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;小テストを作成する&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テストに問題を登録する</t>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>広大moodle 教職員向けマニュアル _小テスト2</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
@@ -393,19 +305,465 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>タイミング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>評定</t>
+    <t>広大moodle 教職員向けマニュアル _小テスト4</t>
     <rPh sb="0" eb="2">
-      <t>ヒョウテイ</t>
-    </rPh>
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _小テスト5</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _小テスト6</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;レビューオプション：学生が確認できる情報を設定をする&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;アピアランス：小テストの表示に関する設定をする&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _小テスト7</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>アピアランス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;受験に関する特別制限：パスワードやアドレスなどを設定する&lt;/3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _小テスト8</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>受験に関する特別制限</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;全体のフィードバック：小テストのフィードバックの設定をする&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体のフィードバック</t>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _小テスト9</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;モジュール共通の設定をする&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モジュール共通の設定</t>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _小テスト10</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テストの答案の内容を一覧にする&lt;/h3&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウアン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _小テスト11</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>test1.PNG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test2.PNG</t>
+  </si>
+  <si>
+    <t>test3.PNG</t>
+  </si>
+  <si>
+    <t>test4.PNG</t>
+  </si>
+  <si>
+    <t>test5.PNG</t>
+  </si>
+  <si>
+    <t>test6.PNG</t>
+  </si>
+  <si>
+    <t>問題バンク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題の登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;小テストとは&lt;/h4&gt;&lt;br&gt;
+moodle では小テストを実施することができます。小テストを作成する時は、最初に小テストの動作設定を行い、そのあとで問題を登録します。&lt;br &gt;
+&lt;a href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>答案の一覧表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;問題バンク：小テストの問題を再利用する&lt;/h3&gt;
+小テストに登録した問題は「問題バンク」に登録されます。また「問題バンク」内でも問題を作成することができます。「問題バンク」の問題は、他の小テストに再利用できるだけでなく、コース内の他の教員も利用することができます。
+</t>
+    <rPh sb="10" eb="11">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>サイリヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テストに問題を登録する&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題数が多い場合、1 ページあたりの問題数を制限して複数のページに分けることができます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後から、小テストの編集ページで、手動で改ページの位置を変更することもできます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前のページに戻ったり、先にスキップすることはできません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>するたびに、個々の問題の構成要素がランダムにシャッフルされます。この場合、</t>
+  </si>
+  <si>
+    <t>各問題の設定にあるシャッフルオプションも「Yes」にする必要があります。</t>
+  </si>
+  <si>
+    <t>問題動作：小テスト内の問題の動作を指定します。</t>
+  </si>
+  <si>
+    <t>きます。このモードでは、答えを間違えた場合の動作を次から選べます。</t>
+  </si>
+  <si>
+    <t>・解答が間違っていた場合、メッセージを表示して、同じ問題をもう一度表示し</t>
+  </si>
+  <si>
+    <t>ます。学生は解答し直すことができます。通常は、間違った解答ごとに評点にペ</t>
+  </si>
+  <si>
+    <t>ナルティを課すように設定します。</t>
+  </si>
+  <si>
+    <t>・解答が間違っていた場合、メッセージを表示し、別な問題を表示します。</t>
+  </si>
+  <si>
+    <t>アダプティブモード（ペナルティなし）：アダプティブモードと同じで、誤答の場</t>
+  </si>
+  <si>
+    <t>合でもペナルティがないものです。</t>
+  </si>
+  <si>
+    <t>即時フィードバック：小テスト内のそれぞれの問題に解答する都度、すぐに正解</t>
+  </si>
+  <si>
+    <t>やフィードバックが表示されます。なお、解答内容は変更できません。</t>
+  </si>
+  <si>
+    <t>即時フィードバック（CBM）：CBM（Certainty-based marking）機能を使った</t>
+  </si>
+  <si>
+    <t>即時フィードバックです。このモードの問題では、学生は問題に解答するだけで</t>
+  </si>
+  <si>
+    <t>はなく、その解答に対する確信度(自信)も回答します。評点は正誤と確信度によっ</t>
+  </si>
+  <si>
+    <t>て決まります。自信をもって正解すると最も評点が高く、自信を持って間違える</t>
+  </si>
+  <si>
+    <t>と最も評点が低くなります。</t>
+  </si>
+  <si>
+    <t>遅延フィードバック：小テスト内のすべての問題が解答されてから、正解やフィー</t>
+  </si>
+  <si>
+    <t>ドバックが表示されます。</t>
+  </si>
+  <si>
+    <t>遅延フィードバック（CBM）：CBM（Certainty-based marking）機能を使った</t>
+  </si>
+  <si>
+    <t>遅延フィードバックです。</t>
+  </si>
+  <si>
+    <t>複数受験インタラクティブ：学生は、解答を提出し、間違えた場合はフィードバッ</t>
+  </si>
+  <si>
+    <t>クを読んだ後で再度解答しなければなりません。間違える回数が多いと評点は低</t>
+  </si>
+  <si>
+    <t>くなります。</t>
+  </si>
+  <si>
+    <t>直近の解答内容を反映させる：複数回の受験を許可している場合、ここで「Yes」を</t>
+  </si>
+  <si>
+    <t>選択していると、次回の受験のときには直前に解答した内容が表示されます。</t>
+  </si>
+  <si>
+    <t>学生が小テストの受験結果のうちのどの情報を確認できるか、またいつ確認できる</t>
+  </si>
+  <si>
+    <t>かを指定します。チェックボックスにチェックされている項目が表示されます。</t>
+  </si>
+  <si>
+    <t>受験中：「複数受験インタラクティブ」のような、特定の挙動のみに関連します。</t>
+  </si>
+  <si>
+    <t>受験後すぐに：学生が小テストを終えて「すべてを送信して終了する」ボタンをク</t>
+  </si>
+  <si>
+    <t>リックしてから 2 分以内です。</t>
+  </si>
+  <si>
+    <t>後で、小テスト実施中：受験を終了した後でかつ小テスト終了日時より前です。</t>
+  </si>
+  <si>
+    <t>小テスト終了後：小テスト終了日時を経過した後です。小テストに終了日時が設定</t>
+  </si>
+  <si>
+    <t>されていない場合は無視されます。</t>
+  </si>
+  <si>
+    <t>例えば、「受験後すぐに」の「正解」をチェックしておくと、受験を終わった学生は</t>
+  </si>
+  <si>
+    <t>すぐに正解を知ることができます。この場合、他の学生がその学生から正解を教わ</t>
+  </si>
+  <si>
+    <t>ることができてしまいます。「正解」のチェックを、「小テスト終了後」のみにする</t>
+  </si>
+  <si>
+    <t>と、これを防ぐことができます。</t>
+  </si>
+  <si>
+    <t>アダプティブモード：学生は、1 つの問題に対して複数回の解答を行うことがで</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;問題の挙動：問題のシャッフルや複数回解答などを設定する&lt;/h3&gt;</t>
+    <rPh sb="19" eb="22">
+      <t>フクスウカイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;レイアウト：表示する問題数や問題のスキップ禁止を設定する&lt;/h3&gt;</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>モンダイスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定値（レイアウト）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定値（問題の挙動）</t>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定値（レビューオプション）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以降は、各設定値を説明します。必要に応じて設定してください。
+設定完了後、［保存して表示する］をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test7.PNG</t>
+  </si>
+  <si>
+    <t>test-s1.PNG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+&lt;li&gt;最高評点：すべての回の中で最高（最良）の評点を最終評点とします。&lt;/li&gt;
+&lt;li&gt;平均評点：すべての回の平均評点（単純平均）を最終評点とします。&lt;/li&gt;
+&lt;li&gt;最初の受験：最初の受験で得点した評点を最終評点とします。&lt;/li&gt;
+&lt;li&gt;最近の受験：最後の受験で得点した評点を最終評点とします。&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;ナビゲーションメソッド&lt;/h4&gt;：「順次」を指定すると、学生は小テストを順番に受験する必要があります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;新しいページ&lt;/h4&gt;：１ページあたりに表示する問題数を指定することができます。
+「すべての問題を１ページに表示する｣では、すべての問題は同一ページに表示されます。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
-      <t>&lt;h</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>問題内部をシャッフルする</t>
     </r>
     <r>
       <rPr>
@@ -415,7 +773,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>3</t>
+      <t>&lt;/h4&gt;</t>
     </r>
     <r>
       <rPr>
@@ -425,7 +783,353 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&gt;</t>
+      <t>：「Yes」にした場合、学生がこの小テストの受験を開始</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示に関する設定を行います。</t>
+  </si>
+  <si>
+    <t>ユーザ画像を表示する：、受験中およびレビュー時、画面に学生の氏名および写真</t>
+  </si>
+  <si>
+    <t>が表示されます。例えば、試験監督が、受験者がユーザ本人かどうかを確認するた</t>
+  </si>
+  <si>
+    <t>めに利用できます。</t>
+  </si>
+  <si>
+    <t>評点の小数位：受講者の得点や評点を表示するときに、小数点以下を何桁表示する</t>
+  </si>
+  <si>
+    <t>かを指定します。この設定は、画面表示にのみ有効です。データベースに保存され</t>
+  </si>
+  <si>
+    <t>るデータや内部計算には使用されません。</t>
+  </si>
+  <si>
+    <t>問題評点の小数位：個々の問題の評点を表示する場合、小テスト全体の評点とは異</t>
+  </si>
+  <si>
+    <t>なる精度を選択することができます。例えば、個々の問題では小数点以下を含めた</t>
+  </si>
+  <si>
+    <t>評点を使用するが、小テストの最終評点では最も近い整数に丸めた値を採用すると</t>
+  </si>
+  <si>
+    <t>いうことができます。</t>
+  </si>
+  <si>
+    <t>小テスト受験中にブロックを表示する：有効にした場合、小テストの受験中に通常</t>
+  </si>
+  <si>
+    <t>のブロックを表示します。</t>
+  </si>
+  <si>
+    <t>パスワードやネットワークアドレスなどによる制限を行います。</t>
+  </si>
+  <si>
+    <t>パスワード：ここにパスワードを設定すると、学生は、同じパスワードを入力して</t>
+  </si>
+  <si>
+    <t>から受験する必要があります。</t>
+  </si>
+  <si>
+    <t>ネットワークアドレス：特定の IP アドレスの端末のみ、受験できるようになります。</t>
+  </si>
+  <si>
+    <t>許可する IP アドレスを入力してください。「192.168」とだけ入力すれば「192.168」</t>
+  </si>
+  <si>
+    <t>から始まるすべてのアドレスを許可します。</t>
+  </si>
+  <si>
+    <t>最初と 2 回目の受験の強制待ち時間：学生が 2 回目の受験をする前に、待たなけれ</t>
+  </si>
+  <si>
+    <t>ばいけない時間を設定できます。設定する場合は、［Yes］をチェックしてから時間</t>
+  </si>
+  <si>
+    <t>と単位を入力してください。</t>
+  </si>
+  <si>
+    <t>2 回目以降の受験の強制待ち時間：学生が 3 回目以降の受験をする前に、待たなけ</t>
+  </si>
+  <si>
+    <t>ればいけない時間を設定できます。設定する場合は、［Yes］をチェックしてから時</t>
+  </si>
+  <si>
+    <t>間と単位を入力してください。</t>
+  </si>
+  <si>
+    <t>ブラウザセキュリティ：学生が Web ブラウザを使ってできることを制限して、小テ</t>
+  </si>
+  <si>
+    <t>ストを受験する際のコピーや不正行為の実行を難しくします。学生が Javascript の</t>
+  </si>
+  <si>
+    <t>利用を有効にしているブラウザのみ、小テスト受験を開始することができます。小</t>
+  </si>
+  <si>
+    <t>テストはフルスクリーン画面となり、ブラウザのツールバーなどは非表示になりま</t>
+  </si>
+  <si>
+    <t>す。</t>
+  </si>
+  <si>
+    <t>小テストの受験終了後、受講者に表示されるテキストを指定します。受講者の獲得</t>
+  </si>
+  <si>
+    <t>した評点によって表示内容を変えることができます。</t>
+  </si>
+  <si>
+    <t>評点境界：表示するフィードバックを切り替える評点を入力します。パーセンテー</t>
+  </si>
+  <si>
+    <t>ジまたは数値で入力します。</t>
+  </si>
+  <si>
+    <t>フィードバック：［評点境界］に設定した得点を取った学生に表示する、フィードバッ</t>
+  </si>
+  <si>
+    <t>クの文言を入力します。</t>
+  </si>
+  <si>
+    <t>利用：［学生から隠す］を選択すると、学生は見ることが出来ません。</t>
+  </si>
+  <si>
+    <t>ID ナンバー：評定計算の目的で活動を識別します。評定計算に活動が含まれていな</t>
+  </si>
+  <si>
+    <t>い場合、ID ナンバーフィールドは空白のままにすることができます。</t>
+  </si>
+  <si>
+    <t>グループモード：下記の 3 つのグループモードから選択することができます。</t>
+  </si>
+  <si>
+    <t>グループなし：サブグループはありません。全員が、1 つの大きなコミュニティ</t>
+  </si>
+  <si>
+    <t>の一員です。</t>
+  </si>
+  <si>
+    <t>分離グループ：それぞれのグループメンバーは、そのグループ内のみ閲覧できま</t>
+  </si>
+  <si>
+    <t>す。他のグループを閲覧することはできません。</t>
+  </si>
+  <si>
+    <t>可視グループ：それぞれのグループメンバーは、そのグループ内で作業しますが、</t>
+  </si>
+  <si>
+    <t>他のグループを閲覧することもできます。</t>
+  </si>
+  <si>
+    <t>多肢選択肢問題</t>
+  </si>
+  <si>
+    <t>複数の選択肢の中から、1 つもしくは複数の正解を選択する問題です。</t>
+  </si>
+  <si>
+    <t>(1) ［追加する問題タイプを選択する］ダイアログで、［多肢選択問題］を選択して、［追</t>
+  </si>
+  <si>
+    <t>加］ボタンをクリックします</t>
+  </si>
+  <si>
+    <t>(2) ［多肢選択問題追加］画面で問題の内容を入力します</t>
+  </si>
+  <si>
+    <t>問題名：問題の名称を入力します。</t>
+  </si>
+  <si>
+    <t>問題テキスト：「次のうち、正しいものを選びなさい。」などの問題文を入力します。</t>
+  </si>
+  <si>
+    <t>デフォルト評点：この問題に正解したときに得られる得点を入力します。</t>
+  </si>
+  <si>
+    <t>全体に対するフィードバック：解答後に表示されるフィードバックを入力します。</t>
+  </si>
+  <si>
+    <t>単一または複数解答？：答えを 1 つだけ選べるようにするか、複数の答えを選べる</t>
+  </si>
+  <si>
+    <t>ようにするかを選択します。</t>
+  </si>
+  <si>
+    <t>複数回答を許可する：選択肢はチェックボックスの形式です。複数の選択肢にチェッ</t>
+  </si>
+  <si>
+    <t>クをつけて選択できます。</t>
+  </si>
+  <si>
+    <t>単一の回答のみ：選択肢はオプションボタン（ラジオボタン）の形式です。1 つの</t>
+  </si>
+  <si>
+    <t>選択肢だけを選択できます。</t>
+  </si>
+  <si>
+    <t>選択肢をシャッフルしますか？：チェックすると、受験のたびに選択肢の順番を並</t>
+  </si>
+  <si>
+    <t>べ替えます。</t>
+  </si>
+  <si>
+    <t>※小テスト全体の設定をしたとき、［問題の挙動］の［問題内部をシャッフルする］</t>
+  </si>
+  <si>
+    <t>で「Yes」を選択した場合に、チェックが可能です。</t>
+  </si>
+  <si>
+    <t>選択肢に番号付けしますか？：好みの形式を選択してください。</t>
+  </si>
+  <si>
+    <t>標準インストラクションを表示する：多肢選択解答の前に「1 つを選択する」また</t>
+  </si>
+  <si>
+    <t>は「１つまたはそれ以上を選択する」のインストラクションを表示するか選択でき</t>
+  </si>
+  <si>
+    <t>ます。</t>
+  </si>
+  <si>
+    <t>例）標準インストラクションを表示するを「Yes」にした場合</t>
+  </si>
+  <si>
+    <t>(3) 解答の選択肢を入力します</t>
+  </si>
+  <si>
+    <t>選択肢：選択肢の内容を入力します。</t>
+  </si>
+  <si>
+    <t>評点：この選択肢を選んだときに得られる得点を、［デフォルト評点］に対するパー</t>
+  </si>
+  <si>
+    <t>セントで入力します。</t>
+  </si>
+  <si>
+    <t>例えば、［デフォルト評点］が 1 点の場合、ここを「50％」にしておくと、この選択</t>
+  </si>
+  <si>
+    <t>肢を選んだときには 0.5 点になります。</t>
+  </si>
+  <si>
+    <t>フィードバック：この選択肢を選んだ場合に表示するフィードバックを入力します。</t>
+  </si>
+  <si>
+    <t>※ 選択肢の入力欄が足りない場合は、［さらに 3 件の選択肢入力欄を追加する］ボタンをクリックして</t>
+  </si>
+  <si>
+    <t>ください。</t>
+  </si>
+  <si>
+    <t>(4) 総合フィードバックを入力します</t>
+  </si>
+  <si>
+    <t>すべての正答：正解の場合に表示するフィードバックを入力します。</t>
+  </si>
+  <si>
+    <t>すべての部分的に正しい解答：部分的に正解だった時に表示するフィードバックを</t>
+  </si>
+  <si>
+    <t>入力します。</t>
+  </si>
+  <si>
+    <t>オプション：回答後に正答数を表示する場合はチェックします。</t>
+  </si>
+  <si>
+    <t>すべての不正解：不正解の場合に表示するフィードバックを入力します。</t>
+  </si>
+  <si>
+    <t>(5) 必要に応じて複数受験を設定します</t>
+  </si>
+  <si>
+    <t>それぞれの不正解に対するペナルティ：小テスト全体の設定をしたとき、［問題の挙</t>
+  </si>
+  <si>
+    <t>動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解</t>
+  </si>
+  <si>
+    <t>に対する減点の割合をパーセントで設定します。</t>
+  </si>
+  <si>
+    <t>※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。</t>
+  </si>
+  <si>
+    <t>ヒント：小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受</t>
+  </si>
+  <si>
+    <t>験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力</t>
+  </si>
+  <si>
+    <t>します。学生は入力したヒントの数と同じ回数まで再受験できます。</t>
+  </si>
+  <si>
+    <t>※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。</t>
+  </si>
+  <si>
+    <t>ヒントオプション：</t>
+  </si>
+  <si>
+    <t>正しくない解答をクリアする：再受験のとき、前回の解答を表示させないときは</t>
+  </si>
+  <si>
+    <t>チェックします。</t>
+  </si>
+  <si>
+    <t>正答数を表示する：回答後に、正答数を表示する場合はチェックします。</t>
+  </si>
+  <si>
+    <t>(6) 必要な設定が完了したら、［変更を保存する］をクリックします</t>
+  </si>
+  <si>
+    <t>(7) ［小テストの編集］画面で、問題が追加されていることを確認しま</t>
+  </si>
+  <si>
+    <t>記述問題</t>
+  </si>
+  <si>
+    <t>多肢選択肢問題
+記述問題
+穴埋め問題</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以降、具体的に問題を作成していきます。 この資料では、次項より、多肢選択問題、記述問題、穴埋め問題の作成方法をご紹介します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストに追加できる問題の種類</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;多肢選択肢問題&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>タシ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストを作成する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイミング：日時制限を設定する</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評定カテゴリ&lt;/h3&gt;
+あらかじめ評価カテゴリが登録されている場合は、選択できます。</t>
+  </si>
+  <si>
+    <r>
+      <t>評定：</t>
     </r>
     <r>
       <rPr>
@@ -435,330 +1139,47 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>評定を設定する</t>
+      <t>評定に関する設定をする</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;タイミング：日時制限を設定する&lt;/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
+    <rPh sb="0" eb="2">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;合格点&lt;/h3&gt;このテストの合格点を入力します。</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;受験可能回数&lt;/h3&gt;：小テストを受験可能な回数を指定します。「無制限」または「1～10」の範囲から選択することができます。</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評定方法&lt;/h3&gt;：複数回の受験が許可されている場合、異なる方法で学生の最終評点を計算することができます。</t>
+  </si>
+  <si>
+    <t>小テストの編集項目「評定」の設定できる内容について説明します。</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
     <rPh sb="10" eb="12">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;レイアウト：レイアウトを設定する&lt;/h3&gt;</t>
-    <rPh sb="16" eb="18">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レイアウト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大moodle 教職員向けマニュアル _小テスト4</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キョウショクイン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;問題の挙動：問題の挙動を設定する&lt;/h3&gt;</t>
-    <rPh sb="12" eb="14">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大moodle 教職員向けマニュアル _小テスト5</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キョウショクイン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>問題の挙動</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キョドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大moodle 教職員向けマニュアル _小テスト6</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キョウショクイン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;レビューオプション：学生が確認できる情報を設定をする&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レビューオプション</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;アピアランス：小テストの表示に関する設定をする&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大moodle 教職員向けマニュアル _小テスト7</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キョウショクイン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>アピアランス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;受験に関する特別制限：パスワードやアドレスなどを設定する&lt;/3&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セイゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大moodle 教職員向けマニュアル _小テスト8</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キョウショクイン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>受験に関する特別制限</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;全体のフィードバック：小テストのフィードバックの設定をする&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全体のフィードバック</t>
-  </si>
-  <si>
-    <t>広大moodle 教職員向けマニュアル _小テスト9</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キョウショクイン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;モジュール共通の設定をする&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モジュール共通の設定</t>
-  </si>
-  <si>
-    <t>広大moodle 教職員向けマニュアル _小テスト10</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キョウショクイン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;小テストの答案の内容を一覧にする&lt;/h3&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウアン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="19" eb="21">
       <t>ナイヨウ</t>
     </rPh>
-    <rPh sb="15" eb="17">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>答案の内容一覧</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大moodle 教職員向けマニュアル _小テスト11</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キョウショクイン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;問題バンク&lt;/h3&gt;
-小テストに登録した問題は「問題バンク」に登録されます。また「問題バンク」内でも問題を作成することができます。「問題バンク」の問題は、他の小テストに再利用できるだけでなく、コース内の他の教員も利用することができます。
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test1.PNG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test2.PNG</t>
-  </si>
-  <si>
-    <t>test3.PNG</t>
-  </si>
-  <si>
-    <t>test4.PNG</t>
-  </si>
-  <si>
-    <t>test5.PNG</t>
-  </si>
-  <si>
-    <t>test6.PNG</t>
-  </si>
-  <si>
-    <t>&lt;h4&gt;小テストとは&lt;/h4&gt;&lt;br&gt;
-moodle では小テストを実施することができます。小テストを作成する時は、最初に小テストの動作設定を行い、そのあとで問題を登録します。&lt;br &gt;
-&lt;a href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2"&gt;マニュアルの目次へ戻る&lt;/a&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
+    <rPh sb="25" eb="27">
+      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1231,7 +1652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D0ECD8-2CAD-49B7-B2DF-5D7100C10246}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1246,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1262,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1273,9 +1694,9 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="81">
+    <row r="6" spans="1:2" ht="94.5">
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1293,7 +1714,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1312,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1328,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1340,36 +1761,48 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -1437,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923E4C24-3B05-4188-877B-21A1660FB07B}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1459,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1475,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1487,52 +1920,72 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="10" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
@@ -1544,11 +1997,11 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" s="11"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
@@ -1568,13 +2021,9 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1583,158 +2032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D74EA5C-7B08-4867-A177-C840850BD429}">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C14D5B5-F3EA-4DED-9CCC-03E88187AA16}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E9B584-E692-492C-9839-3FDF3D30AC5F}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1753,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1769,7 +2071,112 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" ht="40.5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E9B584-E692-492C-9839-3FDF3D30AC5F}">
+  <dimension ref="A1:B66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1781,56 +2188,316 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="40.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1"/>
-      <c r="B13" s="11"/>
+      <c r="B13" s="10" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
-      <c r="B14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1"/>
-      <c r="B15" s="11"/>
+      <c r="B15" s="10" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1"/>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
+      <c r="B18" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>215</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1844,7 +2511,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1863,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1879,7 +2546,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1891,37 +2558,37 @@
     <row r="7" spans="1:2" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1937,11 +2604,161 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D74EA5C-7B08-4867-A177-C840850BD429}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1963,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -1983,7 +2800,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2000,124 +2817,126 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40.5">
-      <c r="B8" s="12" t="s">
-        <v>25</v>
-      </c>
+    <row r="7" spans="1:4" ht="40.5">
+      <c r="B7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="B8" s="12"/>
       <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="B9" s="12"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27">
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27">
-      <c r="B10" s="12" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75">
-      <c r="B12" s="11" t="s">
-        <v>8</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="54">
+      <c r="B12" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
       <c r="B13" s="12" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75">
-      <c r="B14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="8"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.75">
+      <c r="B16" s="6"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="8"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.75">
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="8"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
@@ -2134,15 +2953,12 @@
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="6"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4">
-      <c r="B25" s="10"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+    <row r="25" spans="1:4" ht="18.75">
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="18.75">
       <c r="D26" s="5"/>
@@ -2150,22 +2966,19 @@
     <row r="27" spans="1:4" ht="18.75">
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="18.75">
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" ht="53.25" customHeight="1">
-      <c r="B29" s="10"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+    <row r="28" spans="1:4" ht="53.25" customHeight="1">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75">
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" ht="18.75">
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="18.75">
       <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" ht="18.75">
-      <c r="D32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2176,10 +2989,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7222B16B-225E-40F6-B25E-FF1AF04CA1BC}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2198,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2214,7 +3027,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2223,13 +3036,15 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="94.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="94.5">
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="27">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>20</v>
@@ -2237,31 +3052,31 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="27">
+    <row r="9" spans="1:4" ht="40.5">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="40.5">
+      <c r="C9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="94.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="94.5">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -2273,13 +3088,9 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2290,10 +3101,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCC51EA-F7EF-4B13-8E46-8FB3FD467ED9}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2311,8 +3122,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
+      <c r="B2" s="10" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2328,7 +3139,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2336,18 +3147,36 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="37.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
-        <v>39</v>
+      <c r="B7" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="112.5">
+      <c r="B12" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2358,10 +3187,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F89477-4C4E-4C63-80A9-01FAEFED0D86}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2380,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2396,7 +3225,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2408,28 +3237,48 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="37.5">
       <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFAE51F-FED0-4874-AF7D-55D82F0F534B}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2448,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2464,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2476,99 +3325,178 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-      <c r="B18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
-      <c r="B22" s="11"/>
+      <c r="B22" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1"/>
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1"/>
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1"/>
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
+      <c r="B26" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2577,7 +3505,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2596,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2612,7 +3540,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2624,60 +3552,84 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-      <c r="B18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
@@ -2722,10 +3674,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8111656-CDEF-4100-95C0-BB00970C3293}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2744,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2760,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2772,14 +3724,80 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2790,10 +3808,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F341564-8B67-45AF-A172-BC5E94ADC7AB}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2812,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2828,7 +3846,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2840,14 +3858,95 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3106,15 +4205,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -3130,6 +4220,15 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3152,14 +4251,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3168,4 +4259,12 @@
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CB4B48-E43E-469B-A9C9-9BB619803BF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93B9EF1-2778-40F0-B8E5-5A7EDE1CB6A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="1" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="227">
   <si>
     <t>header1</t>
   </si>
@@ -125,16 +125,6 @@
     <t>制限を経過した場合：問題を解き始め、まだ提出していない状態で学生がログアウ
 トし、その間に制限時間を過ぎた場合の対処について選択します。学生がログイン
 中で小テストを開いている場合は、自動的にその時点での回答が提出されます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開いている受験は自動的に提出されます：制限時間になった時点での解答が自動
-的に提出されます。
-開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答で
-きません：送信するためだけの猶予期間が与えられますが、制限時間後に問題を
-解くことはできません。提出できる答案は制限時間内に解いたもののみです。
-受験は制限時間内に提出される必要がありますが、そうでない場合はカウントさ
-れません：小テストは受験したことにはなりません。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -715,24 +705,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>以降は、各設定値を説明します。必要に応じて設定してください。
-設定完了後、［保存して表示する］をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>test7.PNG</t>
   </si>
   <si>
     <t>test-s1.PNG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;
-&lt;li&gt;最高評点：すべての回の中で最高（最良）の評点を最終評点とします。&lt;/li&gt;
-&lt;li&gt;平均評点：すべての回の平均評点（単純平均）を最終評点とします。&lt;/li&gt;
-&lt;li&gt;最初の受験：最初の受験で得点した評点を最終評点とします。&lt;/li&gt;
-&lt;li&gt;最近の受験：最後の受験で得点した評点を最終評点とします。&lt;/li&gt;
-&lt;/ul&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1124,10 +1100,6 @@
     <t>タイミング：日時制限を設定する</t>
   </si>
   <si>
-    <t>&lt;h3&gt;評定カテゴリ&lt;/h3&gt;
-あらかじめ評価カテゴリが登録されている場合は、選択できます。</t>
-  </si>
-  <si>
     <r>
       <t>評定：</t>
     </r>
@@ -1150,15 +1122,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;合格点&lt;/h3&gt;このテストの合格点を入力します。</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;受験可能回数&lt;/h3&gt;：小テストを受験可能な回数を指定します。「無制限」または「1～10」の範囲から選択することができます。</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;評定方法&lt;/h3&gt;：複数回の受験が許可されている場合、異なる方法で学生の最終評点を計算することができます。</t>
-  </si>
-  <si>
     <t>小テストの編集項目「評定」の設定できる内容について説明します。</t>
     <rPh sb="0" eb="1">
       <t>ショウ</t>
@@ -1180,6 +1143,78 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次章からは、各設定値を説明します。必要に応じて設定してください。
+設定完了後、［保存して表示する］をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>ジショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストの編集項目「タイミング」の設定できる内容について説明します。</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開いている受験は自動的に提出されます：制限時間になった時点での解答が自動的に提出されます。
+開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答で
+きません：送信するためだけの猶予期間が与えられますが、制限時間後に問題を
+解くことはできません。提出できる答案は制限時間内に解いたもののみです。
+受験は制限時間内に提出される必要がありますが、そうでない場合はカウントさ
+れません：小テストは受験したことにはなりません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評定カテゴリ&lt;/h3&gt;あらかじめ評価カテゴリが登録されている場合は、選択できます。
+&lt;h3&gt;合格点&lt;/h3&gt;このテストの合格点を入力します。
+&lt;h3&gt;受験可能回数&lt;/h3&gt;小テストを受験可能な回数を指定します。「無制限」または「1～10」の範囲から選択することができます。
+&lt;h3&gt;評定方法&lt;/h3&gt;複数回の受験が許可されている場合、異なる方法で学生の最終評点を計算することができます。
+&lt;ul&gt;
+&lt;li&gt;最高評点：すべての回の中で最高（最良）の評点を最終評点とします。&lt;/li&gt;
+&lt;li&gt;平均評点：すべての回の平均評点（単純平均）を最終評点とします。&lt;/li&gt;
+&lt;li&gt;最初の受験：最初の受験で得点した評点を最終評点とします。&lt;/li&gt;
+&lt;li&gt;最近の受験：最後の受験で得点した評点を最終評点とします。&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test-s2.PNG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「すべてを展開する」をクリックするか、「評定」項目を展開してください。</t>
+    <rPh sb="5" eb="7">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テンカイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1667,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1683,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1696,7 +1731,7 @@
     </row>
     <row r="6" spans="1:2" ht="94.5">
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1733,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1749,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1761,19 +1796,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1781,7 +1816,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1789,19 +1824,19 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1892,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1908,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1920,19 +1955,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1940,7 +1975,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1948,43 +1983,43 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2055,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2083,19 +2118,19 @@
     <row r="7" spans="1:2" ht="40.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2160,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2188,7 +2223,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2212,291 +2247,291 @@
     <row r="11" spans="1:2" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="40.5">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1"/>
       <c r="B16" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2530,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2558,7 +2593,7 @@
     <row r="7" spans="1:2" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2628,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2644,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2656,7 +2691,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2757,7 +2792,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2780,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -2800,7 +2835,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2819,13 +2854,13 @@
     </row>
     <row r="7" spans="1:4" ht="40.5">
       <c r="B7" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -2834,18 +2869,18 @@
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27">
       <c r="B9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -2856,7 +2891,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -2867,29 +2902,29 @@
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="54">
       <c r="B12" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
       <c r="B13" s="12" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2991,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7222B16B-225E-40F6-B25E-FF1AF04CA1BC}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3011,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3027,7 +3062,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3035,6 +3070,9 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="94.5">
       <c r="A7" s="1"/>
@@ -3061,13 +3099,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="94.5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="81">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3095,16 +3133,16 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCC51EA-F7EF-4B13-8E46-8FB3FD467ED9}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3112,21 +3150,21 @@
     <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3134,49 +3172,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="37.5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="206.25">
+      <c r="B8" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="112.5">
-      <c r="B12" s="3" t="s">
-        <v>111</v>
-      </c>
+    <row r="10" spans="1:4">
+      <c r="B10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3209,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3225,7 +3256,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3237,33 +3268,33 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3297,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3313,7 +3344,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3325,19 +3356,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3345,7 +3376,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3353,144 +3384,144 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1"/>
       <c r="B23" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1"/>
       <c r="B24" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1"/>
       <c r="B25" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1"/>
       <c r="B26" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3540,7 +3571,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3552,19 +3583,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3572,7 +3603,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3580,55 +3611,55 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3696,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3712,7 +3743,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3724,64 +3755,64 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -3791,12 +3822,12 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3830,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3846,7 +3877,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3858,94 +3889,94 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4205,6 +4236,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -4220,15 +4260,6 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4251,6 +4282,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4259,12 +4298,4 @@
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93B9EF1-2778-40F0-B8E5-5A7EDE1CB6A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479B860B-D346-49BE-9D08-0AEB3C06B4AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="1" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="1" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="223">
   <si>
     <t>header1</t>
   </si>
@@ -105,27 +105,6 @@
       <t xml:space="preserve">ヒロダイ </t>
     </rPh>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>小テスト公開日時：小テストを受験させる日時を指定します。
-小テスト終了日時：小テストを終了させる日時を指定します。
-※ 公開日時、終了日時は［Yes］のチェックボックスをチェックした場合のみ入力でき、有効になり
-ます。
-※ 公開日時を指定していない場合、学生はすぐに小テストを受験できます。設定した場合は、設定日
-時より前にテストを受験できません。
-※ 終了日時を指定した場合は、設定日時を超えて受験することは出来ません。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>制限時間：解答の制限時間を設けたい場合は、［Yes］のチェックボックスをチェッ
-クして、時間と単位を設定します。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>制限を経過した場合：問題を解き始め、まだ提出していない状態で学生がログアウ
-トし、その間に制限時間を過ぎた場合の対処について選択します。学生がログイン
-中で小テストを開いている場合は、自動的にその時点での回答が提出されます。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">編集モードを開始し、小テストを作成したいセクションのリンクをクリックし表示されたページの［+ 活動またはリソースを追加する］をクリックします
@@ -460,25 +439,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>test1.PNG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test2.PNG</t>
-  </si>
-  <si>
-    <t>test3.PNG</t>
-  </si>
-  <si>
-    <t>test4.PNG</t>
-  </si>
-  <si>
-    <t>test5.PNG</t>
-  </si>
-  <si>
-    <t>test6.PNG</t>
-  </si>
-  <si>
     <t>問題バンク</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -525,18 +485,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>問題数が多い場合、1 ページあたりの問題数を制限して複数のページに分けることができます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>後から、小テストの編集ページで、手動で改ページの位置を変更することもできます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前のページに戻ったり、先にスキップすることはできません。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>するたびに、個々の問題の構成要素がランダムにシャッフルされます。この場合、</t>
   </si>
   <si>
@@ -655,72 +603,353 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;問題の挙動：問題のシャッフルや複数回解答などを設定する&lt;/h3&gt;</t>
-    <rPh sb="19" eb="22">
-      <t>フクスウカイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;レイアウト：表示する問題数や問題のスキップ禁止を設定する&lt;/h3&gt;</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>モンダイスウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キンシ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>設定値（レイアウト）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>設定値（問題の挙動）</t>
-    <rPh sb="4" eb="6">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キョドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>設定値（レビューオプション）</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>test7.PNG</t>
-  </si>
-  <si>
     <t>test-s1.PNG</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h4&gt;ナビゲーションメソッド&lt;/h4&gt;：「順次」を指定すると、学生は小テストを順番に受験する必要があります。</t>
+    <t>表示に関する設定を行います。</t>
+  </si>
+  <si>
+    <t>ユーザ画像を表示する：、受験中およびレビュー時、画面に学生の氏名および写真</t>
+  </si>
+  <si>
+    <t>が表示されます。例えば、試験監督が、受験者がユーザ本人かどうかを確認するた</t>
+  </si>
+  <si>
+    <t>めに利用できます。</t>
+  </si>
+  <si>
+    <t>評点の小数位：受講者の得点や評点を表示するときに、小数点以下を何桁表示する</t>
+  </si>
+  <si>
+    <t>かを指定します。この設定は、画面表示にのみ有効です。データベースに保存され</t>
+  </si>
+  <si>
+    <t>るデータや内部計算には使用されません。</t>
+  </si>
+  <si>
+    <t>問題評点の小数位：個々の問題の評点を表示する場合、小テスト全体の評点とは異</t>
+  </si>
+  <si>
+    <t>なる精度を選択することができます。例えば、個々の問題では小数点以下を含めた</t>
+  </si>
+  <si>
+    <t>評点を使用するが、小テストの最終評点では最も近い整数に丸めた値を採用すると</t>
+  </si>
+  <si>
+    <t>いうことができます。</t>
+  </si>
+  <si>
+    <t>小テスト受験中にブロックを表示する：有効にした場合、小テストの受験中に通常</t>
+  </si>
+  <si>
+    <t>のブロックを表示します。</t>
+  </si>
+  <si>
+    <t>パスワードやネットワークアドレスなどによる制限を行います。</t>
+  </si>
+  <si>
+    <t>パスワード：ここにパスワードを設定すると、学生は、同じパスワードを入力して</t>
+  </si>
+  <si>
+    <t>から受験する必要があります。</t>
+  </si>
+  <si>
+    <t>ネットワークアドレス：特定の IP アドレスの端末のみ、受験できるようになります。</t>
+  </si>
+  <si>
+    <t>許可する IP アドレスを入力してください。「192.168」とだけ入力すれば「192.168」</t>
+  </si>
+  <si>
+    <t>から始まるすべてのアドレスを許可します。</t>
+  </si>
+  <si>
+    <t>最初と 2 回目の受験の強制待ち時間：学生が 2 回目の受験をする前に、待たなけれ</t>
+  </si>
+  <si>
+    <t>ばいけない時間を設定できます。設定する場合は、［Yes］をチェックしてから時間</t>
+  </si>
+  <si>
+    <t>と単位を入力してください。</t>
+  </si>
+  <si>
+    <t>2 回目以降の受験の強制待ち時間：学生が 3 回目以降の受験をする前に、待たなけ</t>
+  </si>
+  <si>
+    <t>ればいけない時間を設定できます。設定する場合は、［Yes］をチェックしてから時</t>
+  </si>
+  <si>
+    <t>間と単位を入力してください。</t>
+  </si>
+  <si>
+    <t>ブラウザセキュリティ：学生が Web ブラウザを使ってできることを制限して、小テ</t>
+  </si>
+  <si>
+    <t>ストを受験する際のコピーや不正行為の実行を難しくします。学生が Javascript の</t>
+  </si>
+  <si>
+    <t>利用を有効にしているブラウザのみ、小テスト受験を開始することができます。小</t>
+  </si>
+  <si>
+    <t>テストはフルスクリーン画面となり、ブラウザのツールバーなどは非表示になりま</t>
+  </si>
+  <si>
+    <t>す。</t>
+  </si>
+  <si>
+    <t>小テストの受験終了後、受講者に表示されるテキストを指定します。受講者の獲得</t>
+  </si>
+  <si>
+    <t>した評点によって表示内容を変えることができます。</t>
+  </si>
+  <si>
+    <t>評点境界：表示するフィードバックを切り替える評点を入力します。パーセンテー</t>
+  </si>
+  <si>
+    <t>ジまたは数値で入力します。</t>
+  </si>
+  <si>
+    <t>フィードバック：［評点境界］に設定した得点を取った学生に表示する、フィードバッ</t>
+  </si>
+  <si>
+    <t>クの文言を入力します。</t>
+  </si>
+  <si>
+    <t>利用：［学生から隠す］を選択すると、学生は見ることが出来ません。</t>
+  </si>
+  <si>
+    <t>ID ナンバー：評定計算の目的で活動を識別します。評定計算に活動が含まれていな</t>
+  </si>
+  <si>
+    <t>い場合、ID ナンバーフィールドは空白のままにすることができます。</t>
+  </si>
+  <si>
+    <t>グループモード：下記の 3 つのグループモードから選択することができます。</t>
+  </si>
+  <si>
+    <t>グループなし：サブグループはありません。全員が、1 つの大きなコミュニティ</t>
+  </si>
+  <si>
+    <t>の一員です。</t>
+  </si>
+  <si>
+    <t>分離グループ：それぞれのグループメンバーは、そのグループ内のみ閲覧できま</t>
+  </si>
+  <si>
+    <t>す。他のグループを閲覧することはできません。</t>
+  </si>
+  <si>
+    <t>可視グループ：それぞれのグループメンバーは、そのグループ内で作業しますが、</t>
+  </si>
+  <si>
+    <t>他のグループを閲覧することもできます。</t>
+  </si>
+  <si>
+    <t>多肢選択肢問題</t>
+  </si>
+  <si>
+    <t>複数の選択肢の中から、1 つもしくは複数の正解を選択する問題です。</t>
+  </si>
+  <si>
+    <t>(1) ［追加する問題タイプを選択する］ダイアログで、［多肢選択問題］を選択して、［追</t>
+  </si>
+  <si>
+    <t>加］ボタンをクリックします</t>
+  </si>
+  <si>
+    <t>(2) ［多肢選択問題追加］画面で問題の内容を入力します</t>
+  </si>
+  <si>
+    <t>問題名：問題の名称を入力します。</t>
+  </si>
+  <si>
+    <t>問題テキスト：「次のうち、正しいものを選びなさい。」などの問題文を入力します。</t>
+  </si>
+  <si>
+    <t>デフォルト評点：この問題に正解したときに得られる得点を入力します。</t>
+  </si>
+  <si>
+    <t>全体に対するフィードバック：解答後に表示されるフィードバックを入力します。</t>
+  </si>
+  <si>
+    <t>単一または複数解答？：答えを 1 つだけ選べるようにするか、複数の答えを選べる</t>
+  </si>
+  <si>
+    <t>ようにするかを選択します。</t>
+  </si>
+  <si>
+    <t>複数回答を許可する：選択肢はチェックボックスの形式です。複数の選択肢にチェッ</t>
+  </si>
+  <si>
+    <t>クをつけて選択できます。</t>
+  </si>
+  <si>
+    <t>単一の回答のみ：選択肢はオプションボタン（ラジオボタン）の形式です。1 つの</t>
+  </si>
+  <si>
+    <t>選択肢だけを選択できます。</t>
+  </si>
+  <si>
+    <t>選択肢をシャッフルしますか？：チェックすると、受験のたびに選択肢の順番を並</t>
+  </si>
+  <si>
+    <t>べ替えます。</t>
+  </si>
+  <si>
+    <t>※小テスト全体の設定をしたとき、［問題の挙動］の［問題内部をシャッフルする］</t>
+  </si>
+  <si>
+    <t>で「Yes」を選択した場合に、チェックが可能です。</t>
+  </si>
+  <si>
+    <t>選択肢に番号付けしますか？：好みの形式を選択してください。</t>
+  </si>
+  <si>
+    <t>標準インストラクションを表示する：多肢選択解答の前に「1 つを選択する」また</t>
+  </si>
+  <si>
+    <t>は「１つまたはそれ以上を選択する」のインストラクションを表示するか選択でき</t>
+  </si>
+  <si>
+    <t>ます。</t>
+  </si>
+  <si>
+    <t>例）標準インストラクションを表示するを「Yes」にした場合</t>
+  </si>
+  <si>
+    <t>(3) 解答の選択肢を入力します</t>
+  </si>
+  <si>
+    <t>選択肢：選択肢の内容を入力します。</t>
+  </si>
+  <si>
+    <t>評点：この選択肢を選んだときに得られる得点を、［デフォルト評点］に対するパー</t>
+  </si>
+  <si>
+    <t>セントで入力します。</t>
+  </si>
+  <si>
+    <t>例えば、［デフォルト評点］が 1 点の場合、ここを「50％」にしておくと、この選択</t>
+  </si>
+  <si>
+    <t>肢を選んだときには 0.5 点になります。</t>
+  </si>
+  <si>
+    <t>フィードバック：この選択肢を選んだ場合に表示するフィードバックを入力します。</t>
+  </si>
+  <si>
+    <t>※ 選択肢の入力欄が足りない場合は、［さらに 3 件の選択肢入力欄を追加する］ボタンをクリックして</t>
+  </si>
+  <si>
+    <t>ください。</t>
+  </si>
+  <si>
+    <t>(4) 総合フィードバックを入力します</t>
+  </si>
+  <si>
+    <t>すべての正答：正解の場合に表示するフィードバックを入力します。</t>
+  </si>
+  <si>
+    <t>すべての部分的に正しい解答：部分的に正解だった時に表示するフィードバックを</t>
+  </si>
+  <si>
+    <t>入力します。</t>
+  </si>
+  <si>
+    <t>オプション：回答後に正答数を表示する場合はチェックします。</t>
+  </si>
+  <si>
+    <t>すべての不正解：不正解の場合に表示するフィードバックを入力します。</t>
+  </si>
+  <si>
+    <t>(5) 必要に応じて複数受験を設定します</t>
+  </si>
+  <si>
+    <t>それぞれの不正解に対するペナルティ：小テスト全体の設定をしたとき、［問題の挙</t>
+  </si>
+  <si>
+    <t>動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解</t>
+  </si>
+  <si>
+    <t>に対する減点の割合をパーセントで設定します。</t>
+  </si>
+  <si>
+    <t>※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。</t>
+  </si>
+  <si>
+    <t>ヒント：小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受</t>
+  </si>
+  <si>
+    <t>験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力</t>
+  </si>
+  <si>
+    <t>します。学生は入力したヒントの数と同じ回数まで再受験できます。</t>
+  </si>
+  <si>
+    <t>※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。</t>
+  </si>
+  <si>
+    <t>ヒントオプション：</t>
+  </si>
+  <si>
+    <t>正しくない解答をクリアする：再受験のとき、前回の解答を表示させないときは</t>
+  </si>
+  <si>
+    <t>チェックします。</t>
+  </si>
+  <si>
+    <t>正答数を表示する：回答後に、正答数を表示する場合はチェックします。</t>
+  </si>
+  <si>
+    <t>(6) 必要な設定が完了したら、［変更を保存する］をクリックします</t>
+  </si>
+  <si>
+    <t>(7) ［小テストの編集］画面で、問題が追加されていることを確認しま</t>
+  </si>
+  <si>
+    <t>記述問題</t>
+  </si>
+  <si>
+    <t>多肢選択肢問題
+記述問題
+穴埋め問題</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h4&gt;新しいページ&lt;/h4&gt;：１ページあたりに表示する問題数を指定することができます。
-「すべての問題を１ページに表示する｣では、すべての問題は同一ページに表示されます。</t>
+    <t>以降、具体的に問題を作成していきます。 この資料では、次項より、多肢選択問題、記述問題、穴埋め問題の作成方法をご紹介します</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>小テストに追加できる問題の種類</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;多肢選択肢問題&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>タシ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストを作成する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイミング：日時制限を設定する</t>
+  </si>
+  <si>
+    <r>
+      <t>評定：合格点や受験回数など</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -729,7 +958,165 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&lt;h4&gt;</t>
+      <t>評定に関する設定をする</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ゴウカクテン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ジュケンカイスウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テスト受験可能期間の開始日時&lt;/h3&gt;小テストを受験させる日時を指定します。
+&lt;h3&gt;小テスト受験可能期間の終了日時&lt;/h3&gt;小テストを終了させる日時を指定します。
+※ 開始日時、終了日時は［有効にする］のチェックボックスをチェックした場合のみ入力でき、有効になり
+ます。
+※ 開始日時を指定していない場合、学生はすぐに小テストを受験できます。設定した場合は、設定日
+時より前にテストを受験できません。
+※ 終了日時を指定した場合は、設定日時を超えて受験することは出来ません。</t>
+    <rPh sb="90" eb="92">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;制限時間&lt;/h3&gt;解答の制限時間を設けたい場合は、［有効にする］のチェックボックスをチェッ
+クして、時間と単位を設定します。</t>
+    <rPh sb="30" eb="32">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストの設定項目「タイミング」で設定できる内容について説明します。</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評定カテゴリ&lt;/h3&gt;あらかじめ評価カテゴリが登録されている場合は、選択できます。
+&lt;h3&gt;合格点&lt;/h3&gt;このテストの合格点を入力します。
+&lt;h3&gt;受験可能回数&lt;/h3&gt;小テストを受験可能な回数を指定します。「無制限」または「1～10」の範囲から選択することができます。
+&lt;h3&gt;評定方法&lt;/h3&gt;複数回の受験が許可されている場合、異なる方法で学生の最終評点を計算することができます。
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;最高評点&lt;/b&gt;：すべての回の中で最高（最良）の評点を最終評点とします。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;平均評点&lt;/b&gt;：すべての回の平均評点（単純平均）を最終評点とします。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;最初の受験&lt;/b&gt;：最初の受験で得点した評点を最終評点とします。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;最近の受験&lt;/b&gt;：最後の受験で得点した評点を最終評点とします。&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;制限を経過した場合&lt;/h3&gt;問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します。学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます。
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;
+&lt;ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイアウト：表示する問題数や問題のスキップ禁止を設定する</t>
+  </si>
+  <si>
+    <t>小テストの設定項目「評定」で設定できる内容について説明します。</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストの設定項目「レイアウト」で設定できる内容について説明します。</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;新しいページ&lt;/h3&gt;１ページあたりに表示する問題数を指定することができます。
+「すべての問題を１ページに表示する｣では、すべての問題は同一ページに表示されます。
+問題数が多い場合、1 ページあたりの問題数を制限して複数のページに分けることができます。
+後から、小テストの編集ページで、手動で改ページの位置を変更することもできます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ナビゲーションメソッド&lt;/h3&gt;「順次」を指定すると、学生は小テストを順番に受験する必要があります。
+前のページに戻ったり、先にスキップすることはできません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h3&gt;</t>
     </r>
     <r>
       <rPr>
@@ -749,7 +1136,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&lt;/h4&gt;</t>
+      <t>&lt;/h3&gt;</t>
     </r>
     <r>
       <rPr>
@@ -764,459 +1151,71 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>表示に関する設定を行います。</t>
-  </si>
-  <si>
-    <t>ユーザ画像を表示する：、受験中およびレビュー時、画面に学生の氏名および写真</t>
-  </si>
-  <si>
-    <t>が表示されます。例えば、試験監督が、受験者がユーザ本人かどうかを確認するた</t>
-  </si>
-  <si>
-    <t>めに利用できます。</t>
-  </si>
-  <si>
-    <t>評点の小数位：受講者の得点や評点を表示するときに、小数点以下を何桁表示する</t>
-  </si>
-  <si>
-    <t>かを指定します。この設定は、画面表示にのみ有効です。データベースに保存され</t>
-  </si>
-  <si>
-    <t>るデータや内部計算には使用されません。</t>
-  </si>
-  <si>
-    <t>問題評点の小数位：個々の問題の評点を表示する場合、小テスト全体の評点とは異</t>
-  </si>
-  <si>
-    <t>なる精度を選択することができます。例えば、個々の問題では小数点以下を含めた</t>
-  </si>
-  <si>
-    <t>評点を使用するが、小テストの最終評点では最も近い整数に丸めた値を採用すると</t>
-  </si>
-  <si>
-    <t>いうことができます。</t>
-  </si>
-  <si>
-    <t>小テスト受験中にブロックを表示する：有効にした場合、小テストの受験中に通常</t>
-  </si>
-  <si>
-    <t>のブロックを表示します。</t>
-  </si>
-  <si>
-    <t>パスワードやネットワークアドレスなどによる制限を行います。</t>
-  </si>
-  <si>
-    <t>パスワード：ここにパスワードを設定すると、学生は、同じパスワードを入力して</t>
-  </si>
-  <si>
-    <t>から受験する必要があります。</t>
-  </si>
-  <si>
-    <t>ネットワークアドレス：特定の IP アドレスの端末のみ、受験できるようになります。</t>
-  </si>
-  <si>
-    <t>許可する IP アドレスを入力してください。「192.168」とだけ入力すれば「192.168」</t>
-  </si>
-  <si>
-    <t>から始まるすべてのアドレスを許可します。</t>
-  </si>
-  <si>
-    <t>最初と 2 回目の受験の強制待ち時間：学生が 2 回目の受験をする前に、待たなけれ</t>
-  </si>
-  <si>
-    <t>ばいけない時間を設定できます。設定する場合は、［Yes］をチェックしてから時間</t>
-  </si>
-  <si>
-    <t>と単位を入力してください。</t>
-  </si>
-  <si>
-    <t>2 回目以降の受験の強制待ち時間：学生が 3 回目以降の受験をする前に、待たなけ</t>
-  </si>
-  <si>
-    <t>ればいけない時間を設定できます。設定する場合は、［Yes］をチェックしてから時</t>
-  </si>
-  <si>
-    <t>間と単位を入力してください。</t>
-  </si>
-  <si>
-    <t>ブラウザセキュリティ：学生が Web ブラウザを使ってできることを制限して、小テ</t>
-  </si>
-  <si>
-    <t>ストを受験する際のコピーや不正行為の実行を難しくします。学生が Javascript の</t>
-  </si>
-  <si>
-    <t>利用を有効にしているブラウザのみ、小テスト受験を開始することができます。小</t>
-  </si>
-  <si>
-    <t>テストはフルスクリーン画面となり、ブラウザのツールバーなどは非表示になりま</t>
-  </si>
-  <si>
-    <t>す。</t>
-  </si>
-  <si>
-    <t>小テストの受験終了後、受講者に表示されるテキストを指定します。受講者の獲得</t>
-  </si>
-  <si>
-    <t>した評点によって表示内容を変えることができます。</t>
-  </si>
-  <si>
-    <t>評点境界：表示するフィードバックを切り替える評点を入力します。パーセンテー</t>
-  </si>
-  <si>
-    <t>ジまたは数値で入力します。</t>
-  </si>
-  <si>
-    <t>フィードバック：［評点境界］に設定した得点を取った学生に表示する、フィードバッ</t>
-  </si>
-  <si>
-    <t>クの文言を入力します。</t>
-  </si>
-  <si>
-    <t>利用：［学生から隠す］を選択すると、学生は見ることが出来ません。</t>
-  </si>
-  <si>
-    <t>ID ナンバー：評定計算の目的で活動を識別します。評定計算に活動が含まれていな</t>
-  </si>
-  <si>
-    <t>い場合、ID ナンバーフィールドは空白のままにすることができます。</t>
-  </si>
-  <si>
-    <t>グループモード：下記の 3 つのグループモードから選択することができます。</t>
-  </si>
-  <si>
-    <t>グループなし：サブグループはありません。全員が、1 つの大きなコミュニティ</t>
-  </si>
-  <si>
-    <t>の一員です。</t>
-  </si>
-  <si>
-    <t>分離グループ：それぞれのグループメンバーは、そのグループ内のみ閲覧できま</t>
-  </si>
-  <si>
-    <t>す。他のグループを閲覧することはできません。</t>
-  </si>
-  <si>
-    <t>可視グループ：それぞれのグループメンバーは、そのグループ内で作業しますが、</t>
-  </si>
-  <si>
-    <t>他のグループを閲覧することもできます。</t>
-  </si>
-  <si>
-    <t>多肢選択肢問題</t>
-  </si>
-  <si>
-    <t>複数の選択肢の中から、1 つもしくは複数の正解を選択する問題です。</t>
-  </si>
-  <si>
-    <t>(1) ［追加する問題タイプを選択する］ダイアログで、［多肢選択問題］を選択して、［追</t>
-  </si>
-  <si>
-    <t>加］ボタンをクリックします</t>
-  </si>
-  <si>
-    <t>(2) ［多肢選択問題追加］画面で問題の内容を入力します</t>
-  </si>
-  <si>
-    <t>問題名：問題の名称を入力します。</t>
-  </si>
-  <si>
-    <t>問題テキスト：「次のうち、正しいものを選びなさい。」などの問題文を入力します。</t>
-  </si>
-  <si>
-    <t>デフォルト評点：この問題に正解したときに得られる得点を入力します。</t>
-  </si>
-  <si>
-    <t>全体に対するフィードバック：解答後に表示されるフィードバックを入力します。</t>
-  </si>
-  <si>
-    <t>単一または複数解答？：答えを 1 つだけ選べるようにするか、複数の答えを選べる</t>
-  </si>
-  <si>
-    <t>ようにするかを選択します。</t>
-  </si>
-  <si>
-    <t>複数回答を許可する：選択肢はチェックボックスの形式です。複数の選択肢にチェッ</t>
-  </si>
-  <si>
-    <t>クをつけて選択できます。</t>
-  </si>
-  <si>
-    <t>単一の回答のみ：選択肢はオプションボタン（ラジオボタン）の形式です。1 つの</t>
-  </si>
-  <si>
-    <t>選択肢だけを選択できます。</t>
-  </si>
-  <si>
-    <t>選択肢をシャッフルしますか？：チェックすると、受験のたびに選択肢の順番を並</t>
-  </si>
-  <si>
-    <t>べ替えます。</t>
-  </si>
-  <si>
-    <t>※小テスト全体の設定をしたとき、［問題の挙動］の［問題内部をシャッフルする］</t>
-  </si>
-  <si>
-    <t>で「Yes」を選択した場合に、チェックが可能です。</t>
-  </si>
-  <si>
-    <t>選択肢に番号付けしますか？：好みの形式を選択してください。</t>
-  </si>
-  <si>
-    <t>標準インストラクションを表示する：多肢選択解答の前に「1 つを選択する」また</t>
-  </si>
-  <si>
-    <t>は「１つまたはそれ以上を選択する」のインストラクションを表示するか選択でき</t>
-  </si>
-  <si>
-    <t>ます。</t>
-  </si>
-  <si>
-    <t>例）標準インストラクションを表示するを「Yes」にした場合</t>
-  </si>
-  <si>
-    <t>(3) 解答の選択肢を入力します</t>
-  </si>
-  <si>
-    <t>選択肢：選択肢の内容を入力します。</t>
-  </si>
-  <si>
-    <t>評点：この選択肢を選んだときに得られる得点を、［デフォルト評点］に対するパー</t>
-  </si>
-  <si>
-    <t>セントで入力します。</t>
-  </si>
-  <si>
-    <t>例えば、［デフォルト評点］が 1 点の場合、ここを「50％」にしておくと、この選択</t>
-  </si>
-  <si>
-    <t>肢を選んだときには 0.5 点になります。</t>
-  </si>
-  <si>
-    <t>フィードバック：この選択肢を選んだ場合に表示するフィードバックを入力します。</t>
-  </si>
-  <si>
-    <t>※ 選択肢の入力欄が足りない場合は、［さらに 3 件の選択肢入力欄を追加する］ボタンをクリックして</t>
-  </si>
-  <si>
-    <t>ください。</t>
-  </si>
-  <si>
-    <t>(4) 総合フィードバックを入力します</t>
-  </si>
-  <si>
-    <t>すべての正答：正解の場合に表示するフィードバックを入力します。</t>
-  </si>
-  <si>
-    <t>すべての部分的に正しい解答：部分的に正解だった時に表示するフィードバックを</t>
-  </si>
-  <si>
-    <t>入力します。</t>
-  </si>
-  <si>
-    <t>オプション：回答後に正答数を表示する場合はチェックします。</t>
-  </si>
-  <si>
-    <t>すべての不正解：不正解の場合に表示するフィードバックを入力します。</t>
-  </si>
-  <si>
-    <t>(5) 必要に応じて複数受験を設定します</t>
-  </si>
-  <si>
-    <t>それぞれの不正解に対するペナルティ：小テスト全体の設定をしたとき、［問題の挙</t>
-  </si>
-  <si>
-    <t>動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解</t>
-  </si>
-  <si>
-    <t>に対する減点の割合をパーセントで設定します。</t>
-  </si>
-  <si>
-    <t>※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。</t>
-  </si>
-  <si>
-    <t>ヒント：小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受</t>
-  </si>
-  <si>
-    <t>験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力</t>
-  </si>
-  <si>
-    <t>します。学生は入力したヒントの数と同じ回数まで再受験できます。</t>
-  </si>
-  <si>
-    <t>※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。</t>
-  </si>
-  <si>
-    <t>ヒントオプション：</t>
-  </si>
-  <si>
-    <t>正しくない解答をクリアする：再受験のとき、前回の解答を表示させないときは</t>
-  </si>
-  <si>
-    <t>チェックします。</t>
-  </si>
-  <si>
-    <t>正答数を表示する：回答後に、正答数を表示する場合はチェックします。</t>
-  </si>
-  <si>
-    <t>(6) 必要な設定が完了したら、［変更を保存する］をクリックします</t>
-  </si>
-  <si>
-    <t>(7) ［小テストの編集］画面で、問題が追加されていることを確認しま</t>
-  </si>
-  <si>
-    <t>記述問題</t>
-  </si>
-  <si>
-    <t>多肢選択肢問題
-記述問題
-穴埋め問題</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以降、具体的に問題を作成していきます。 この資料では、次項より、多肢選択問題、記述問題、穴埋め問題の作成方法をご紹介します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テストに追加できる問題の種類</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;多肢選択肢問題&lt;/h3&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>タシ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テストを作成する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイミング：日時制限を設定する</t>
-  </si>
-  <si>
-    <r>
-      <t>評定：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>評定に関する設定をする</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テストの編集項目「評定」の設定できる内容について説明します。</t>
+    <t>問題の挙動：問題のシャッフルや複数回解答などを設定する</t>
+  </si>
+  <si>
+    <t>小テストの設定項目「問題の挙動」で設定できる内容について説明します。</t>
     <rPh sb="0" eb="1">
       <t>ショウ</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>ヘンシュウ</t>
+      <t>セッテイ</t>
     </rPh>
     <rPh sb="7" eb="9">
       <t>コウモク</t>
     </rPh>
     <rPh sb="10" eb="12">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="22" eb="24">
       <t>ナイヨウ</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="28" eb="30">
       <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>次章からは、各設定値を説明します。必要に応じて設定してください。
-設定完了後、［保存して表示する］をクリックします</t>
+    <t>次章からは、各設定値を説明します。必要に応じて設定してください。</t>
     <rPh sb="0" eb="2">
       <t>ジショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>小テストの編集項目「タイミング」の設定できる内容について説明します。</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セツメイ</t>
-    </rPh>
+    <t>設定完了後、［保存して表示する］をクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>開いている受験は自動的に提出されます：制限時間になった時点での解答が自動的に提出されます。
-開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答で
-きません：送信するためだけの猶予期間が与えられますが、制限時間後に問題を
-解くことはできません。提出できる答案は制限時間内に解いたもののみです。
-受験は制限時間内に提出される必要がありますが、そうでない場合はカウントさ
-れません：小テストは受験したことにはなりません。</t>
+    <t>test1.png</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;評定カテゴリ&lt;/h3&gt;あらかじめ評価カテゴリが登録されている場合は、選択できます。
-&lt;h3&gt;合格点&lt;/h3&gt;このテストの合格点を入力します。
-&lt;h3&gt;受験可能回数&lt;/h3&gt;小テストを受験可能な回数を指定します。「無制限」または「1～10」の範囲から選択することができます。
-&lt;h3&gt;評定方法&lt;/h3&gt;複数回の受験が許可されている場合、異なる方法で学生の最終評点を計算することができます。
-&lt;ul&gt;
-&lt;li&gt;最高評点：すべての回の中で最高（最良）の評点を最終評点とします。&lt;/li&gt;
-&lt;li&gt;平均評点：すべての回の平均評点（単純平均）を最終評点とします。&lt;/li&gt;
-&lt;li&gt;最初の受験：最初の受験で得点した評点を最終評点とします。&lt;/li&gt;
-&lt;li&gt;最近の受験：最後の受験で得点した評点を最終評点とします。&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test-s2.PNG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「すべてを展開する」をクリックするか、「評定」項目を展開してください。</t>
-    <rPh sb="5" eb="7">
-      <t>テンカイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>テンカイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <t>test2.png</t>
+  </si>
+  <si>
+    <t>test3.png</t>
+  </si>
+  <si>
+    <t>test4.png</t>
+  </si>
+  <si>
+    <t>test5.png</t>
+  </si>
+  <si>
+    <t>test6.png</t>
+  </si>
+  <si>
+    <t>test7.png</t>
+  </si>
+  <si>
+    <t>test8.png</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1718,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1731,7 +1730,7 @@
     </row>
     <row r="6" spans="1:2" ht="94.5">
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1768,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1784,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1796,19 +1795,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1816,7 +1815,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1824,19 +1823,19 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1927,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1943,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1955,19 +1954,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1975,7 +1974,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1983,43 +1982,43 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2090,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2118,19 +2117,19 @@
     <row r="7" spans="1:2" ht="40.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2195,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2223,7 +2222,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2247,291 +2246,291 @@
     <row r="11" spans="1:2" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="40.5">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1"/>
       <c r="B16" s="11" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="11" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2565,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2593,7 +2592,7 @@
     <row r="7" spans="1:2" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2663,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2679,7 +2678,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2691,7 +2690,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2791,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2815,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -2835,7 +2834,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2854,13 +2853,13 @@
     </row>
     <row r="7" spans="1:4" ht="40.5">
       <c r="B7" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>48</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -2869,18 +2868,18 @@
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27">
       <c r="B9" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -2891,7 +2890,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>51</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -2902,36 +2901,42 @@
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="54">
       <c r="B12" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
       <c r="B13" s="12" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="8"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8"/>
@@ -3027,7 +3032,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3046,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3062,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3071,13 +3076,13 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="94.5">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3085,28 +3090,26 @@
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="40.5">
+    <row r="9" spans="1:4" ht="121.5">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="81">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
-        <v>223</v>
-      </c>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
@@ -3139,9 +3142,146 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCC51EA-F7EF-4B13-8E46-8FB3FD467ED9}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="206.25">
+      <c r="B7" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F89477-4C4E-4C63-80A9-01FAEFED0D86}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="37.5">
+      <c r="B8" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFAE51F-FED0-4874-AF7D-55D82F0F534B}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3160,8 +3300,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>219</v>
+      <c r="B2" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3177,7 +3317,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3185,190 +3325,23 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="206.25">
-      <c r="B8" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F89477-4C4E-4C63-80A9-01FAEFED0D86}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="37.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFAE51F-FED0-4874-AF7D-55D82F0F534B}">
-  <dimension ref="A1:D35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>102</v>
+      <c r="B7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3376,7 +3349,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3384,144 +3357,144 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="11" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="10" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="11" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1"/>
       <c r="B23" s="11" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1"/>
       <c r="B24" s="11" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1"/>
       <c r="B25" s="11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1"/>
       <c r="B26" s="11" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3555,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3571,7 +3544,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3583,19 +3556,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3603,7 +3576,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3611,55 +3584,55 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3727,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3743,7 +3716,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3755,64 +3728,64 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -3822,12 +3795,12 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3861,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3877,7 +3850,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3889,94 +3862,94 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479B860B-D346-49BE-9D08-0AEB3C06B4AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818660C6-00CF-427B-A82C-A305E8DEEA31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="1" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -313,10 +313,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>&lt;h3&gt;レビューオプション：学生が確認できる情報を設定をする&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;アピアランス：小テストの表示に関する設定をする&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -446,15 +442,6 @@
     <t>問題の登録</t>
     <rPh sb="3" eb="5">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;小テストとは&lt;/h4&gt;&lt;br&gt;
-moodle では小テストを実施することができます。小テストを作成する時は、最初に小テストの動作設定を行い、そのあとで問題を登録します。&lt;br &gt;
-&lt;a href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -600,14 +587,6 @@
   </si>
   <si>
     <t>アダプティブモード：学生は、1 つの問題に対して複数回の解答を行うことがで</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>設定値（レビューオプション）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test-s1.PNG</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -994,14 +973,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;制限時間&lt;/h3&gt;解答の制限時間を設けたい場合は、［有効にする］のチェックボックスをチェッ
-クして、時間と単位を設定します。</t>
-    <rPh sb="30" eb="32">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>小テストの設定項目「タイミング」で設定できる内容について説明します。</t>
     <rPh sb="0" eb="1">
       <t>ショウ</t>
@@ -1093,18 +1064,6 @@
     <rPh sb="28" eb="30">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;新しいページ&lt;/h3&gt;１ページあたりに表示する問題数を指定することができます。
-「すべての問題を１ページに表示する｣では、すべての問題は同一ページに表示されます。
-問題数が多い場合、1 ページあたりの問題数を制限して複数のページに分けることができます。
-後から、小テストの編集ページで、手動で改ページの位置を変更することもできます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;ナビゲーションメソッド&lt;/h3&gt;「順次」を指定すると、学生は小テストを順番に受験する必要があります。
-前のページに戻ったり、先にスキップすることはできません。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1216,6 +1175,62 @@
   </si>
   <si>
     <t>test8.png</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;制限時間&lt;/h3&gt;解答の制限時間を設けたい場合は、［有効にする］のチェックボックスをチェックして、時間と単位を設定します。</t>
+    <rPh sb="30" eb="32">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test-s1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;小テストとは&lt;/h4&gt;&lt;br&gt;
+moodle では小テストを実施することができます。小テストを作成する時は、最初に小テストの動作設定を行い、そのあとで問題を登録します。&lt;br &gt;
+&lt;a href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="311" eb="312">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビューオプション：学生が確認できる情報を設定をする</t>
+  </si>
+  <si>
+    <t>小テストの設定項目「レビューオプション」で設定できる内容について説明します。</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;新しいページ&lt;/h3&gt;１ページあたりに表示する問題数を指定することができます。&lt;br&gt;「すべての問題を１ページに表示する｣では、すべての問題は同一ページに表示されます。問題数が多い場合、1 ページあたりの問題数を制限して複数のページに分けることができます。後から、小テストの編集ページで、手動で改ページの位置を変更することもできます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ナビゲーションメソッド&lt;/h3&gt;「順次」を指定すると、学生は小テストを順番に受験する必要があります。&lt;br&gt;前のページに戻ったり、先にスキップすることはできません。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1728,9 +1743,9 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="94.5">
+    <row r="6" spans="1:2" ht="135">
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1767,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1783,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1795,19 +1810,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1815,7 +1830,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1823,19 +1838,19 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1926,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1942,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1954,19 +1969,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1974,7 +1989,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1982,43 +1997,43 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2089,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2117,19 +2132,19 @@
     <row r="7" spans="1:2" ht="40.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2194,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2222,7 +2237,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2246,291 +2261,291 @@
     <row r="11" spans="1:2" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="40.5">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1"/>
       <c r="B16" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2564,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2592,7 +2607,7 @@
     <row r="7" spans="1:2" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2662,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2678,7 +2693,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2690,7 +2705,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2790,7 +2805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2814,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -2859,7 +2874,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -2868,7 +2883,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27">
@@ -2879,7 +2894,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -2890,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -2901,7 +2916,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="54">
@@ -2912,30 +2927,30 @@
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
       <c r="B13" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3032,7 +3047,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3051,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3076,21 +3091,21 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="94.5">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="27">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3098,13 +3113,13 @@
     <row r="9" spans="1:4" ht="121.5">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3143,73 +3158,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCC51EA-F7EF-4B13-8E46-8FB3FD467ED9}">
   <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="206.25">
-      <c r="B7" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F89477-4C4E-4C63-80A9-01FAEFED0D86}">
-  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -3230,8 +3178,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>205</v>
+      <c r="B2" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3247,7 +3195,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3256,18 +3204,85 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="75">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="206.25">
+      <c r="B7" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F89477-4C4E-4C63-80A9-01FAEFED0D86}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="56.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3282,7 +3297,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3301,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3329,19 +3344,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3349,7 +3364,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3357,144 +3372,144 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1"/>
       <c r="B23" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1"/>
       <c r="B24" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1"/>
       <c r="B25" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1"/>
       <c r="B26" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3506,10 +3521,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF158CDD-1C37-4D6B-B010-BB7EF83F2F8E}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3528,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3552,23 +3567,28 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>30</v>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="B8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3576,72 +3596,68 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
-        <v>81</v>
+      <c r="B12" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
-        <v>82</v>
+      <c r="B13" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="6" t="s">
-        <v>85</v>
+      <c r="B16" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="10" t="s">
-        <v>86</v>
+      <c r="B17" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
-      <c r="B19" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" s="11"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
@@ -3661,13 +3677,9 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3700,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3716,7 +3728,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3728,64 +3740,64 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -3795,12 +3807,12 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3834,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3850,7 +3862,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3862,94 +3874,94 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4209,15 +4221,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -4233,6 +4236,15 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4255,14 +4267,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4271,4 +4275,12 @@
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818660C6-00CF-427B-A82C-A305E8DEEA31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3762F23-552F-4BCC-B9F7-1031886DCC43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="10" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="225">
   <si>
     <t>header1</t>
   </si>
@@ -313,10 +313,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>&lt;h3&gt;アピアランス：小テストの表示に関する設定をする&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>広大moodle 教職員向けマニュアル _小テスト7</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
@@ -330,26 +326,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>アピアランス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;受験に関する特別制限：パスワードやアドレスなどを設定する&lt;/3&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セイゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>広大moodle 教職員向けマニュアル _小テスト8</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
@@ -363,14 +339,8 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>受験に関する特別制限</t>
-  </si>
-  <si>
     <t>&lt;h3&gt;全体のフィードバック：小テストのフィードバックの設定をする&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全体のフィードバック</t>
   </si>
   <si>
     <t>広大moodle 教職員向けマニュアル _小テスト9</t>
@@ -388,9 +358,6 @@
   <si>
     <t>&lt;h3&gt;モジュール共通の設定をする&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モジュール共通の設定</t>
   </si>
   <si>
     <t>広大moodle 教職員向けマニュアル _小テスト10</t>
@@ -1141,13 +1108,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>次章からは、各設定値を説明します。必要に応じて設定してください。</t>
-    <rPh sb="0" eb="2">
-      <t>ジショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>設定完了後、［保存して表示する］をクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1188,15 +1148,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h4&gt;小テストとは&lt;/h4&gt;&lt;br&gt;
-moodle では小テストを実施することができます。小テストを作成する時は、最初に小テストの動作設定を行い、そのあとで問題を登録します。&lt;br &gt;
-&lt;a href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="311" eb="312">
-      <t>モド</t>
-    </rPh>
+    <t>&lt;h3&gt;&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1230,6 +1182,154 @@
   </si>
   <si>
     <t>&lt;h3&gt;ナビゲーションメソッド&lt;/h3&gt;「順次」を指定すると、学生は小テストを順番に受験する必要があります。&lt;br&gt;前のページに戻ったり、先にスキップすることはできません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;小テストとは&lt;/h4&gt;&lt;br&gt;
+moodle では小テストを実施することができます。小テストを作成する時は、最初に小テストの動作設定を行い、そのあとで問題を登録します。&lt;br &gt;
+&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アピアランス：小テストの表示に関する設定をする</t>
+  </si>
+  <si>
+    <t>小テストの設定項目「アピアランス」で設定できる内容について説明します。</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;/3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受験に関する特別制限：パスワードやアドレスなどを設定する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストの設定項目「受験に関する特別制限」で設定できる内容について説明します。</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体のフィードバック：小テストのフィードバックの設定をする</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">次章からは、各設定値を説明します。必要に応じて設定してください。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;ul&gt;
+&lt;li&gt;&lt;a herf="//man/guide41_test/p02.html"&gt;タイミング&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="//man/guide41_test/p03.html"&gt;評定&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="//man/guide41_test/p04.html"&gt;レイアウト&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="//man/guide41_test/p05.html"&gt;問題の挙動&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="//man/guide41_test/p06.html"&gt;レビューオプション&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="//man/guide41_test/p07.html"&gt;アピアランス&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="//man/guide41_test/p08.html"&gt;受験に関する特別制限&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="//man/guide41_test/p09.html"&gt;全体フィードバック&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="//man/guide41_test/p10.html"&gt;モジュール共通設定&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;利用制限&lt;/li&gt;
+&lt;li&gt;活動完了&lt;/li&gt;
+&lt;ul&gt;</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="251" eb="253">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="424" eb="426">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="427" eb="428">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="430" eb="434">
+      <t>トクベツセイゲン</t>
+    </rPh>
+    <rPh sb="486" eb="488">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="552" eb="554">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="554" eb="556">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="570" eb="574">
+      <t>リヨウセイゲン</t>
+    </rPh>
+    <rPh sb="584" eb="586">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="586" eb="588">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モジュール共通設定：モジュール共通の設定をする</t>
+    <rPh sb="5" eb="7">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1702,7 +1802,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1743,9 +1843,9 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="135">
+    <row r="6" spans="1:2" ht="108">
       <c r="B6" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1763,7 +1863,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1782,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1798,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1810,19 +1910,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1830,7 +1930,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1838,19 +1938,19 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1921,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923E4C24-3B05-4188-877B-21A1660FB07B}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1941,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1957,7 +2057,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1969,19 +2069,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1989,7 +2089,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1997,43 +2097,43 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2104,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2132,19 +2232,19 @@
     <row r="7" spans="1:2" ht="40.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2209,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2237,7 +2337,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2261,291 +2361,291 @@
     <row r="11" spans="1:2" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="40.5">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1"/>
       <c r="B16" s="11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2579,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2607,7 +2707,7 @@
     <row r="7" spans="1:2" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2677,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2693,7 +2793,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2705,7 +2805,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2805,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2829,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -2874,7 +2974,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -2883,7 +2983,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27">
@@ -2894,7 +2994,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -2905,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -2916,7 +3016,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="54">
@@ -2927,30 +3027,30 @@
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="257.25">
       <c r="B13" s="12" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3066,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3091,13 +3191,13 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="94.5">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3105,7 +3205,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3113,13 +3213,13 @@
     <row r="9" spans="1:4" ht="121.5">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3179,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3204,12 +3304,12 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="206.25">
       <c r="B7" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3226,7 +3326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F89477-4C4E-4C63-80A9-01FAEFED0D86}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3246,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3271,18 +3371,18 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="56.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3316,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3344,19 +3444,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3364,7 +3464,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3372,144 +3472,144 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1"/>
       <c r="B23" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1"/>
       <c r="B24" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1"/>
       <c r="B25" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1"/>
       <c r="B26" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +3624,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3543,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3568,19 +3668,19 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3588,7 +3688,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3596,55 +3696,55 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3693,7 +3793,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3712,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3728,7 +3828,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3736,68 +3836,71 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -3807,12 +3910,12 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3827,7 +3930,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3846,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3862,7 +3965,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3870,104 +3973,107 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3762F23-552F-4BCC-B9F7-1031886DCC43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B15935B-D44A-4BC5-97F5-5D0E36078852}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="10" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="3" activeTab="5" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="214">
   <si>
     <t>header1</t>
   </si>
@@ -339,10 +339,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>&lt;h3&gt;全体のフィードバック：小テストのフィードバックの設定をする&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>広大moodle 教職員向けマニュアル _小テスト9</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
@@ -439,84 +435,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>するたびに、個々の問題の構成要素がランダムにシャッフルされます。この場合、</t>
-  </si>
-  <si>
-    <t>各問題の設定にあるシャッフルオプションも「Yes」にする必要があります。</t>
-  </si>
-  <si>
-    <t>問題動作：小テスト内の問題の動作を指定します。</t>
-  </si>
-  <si>
-    <t>きます。このモードでは、答えを間違えた場合の動作を次から選べます。</t>
-  </si>
-  <si>
-    <t>・解答が間違っていた場合、メッセージを表示して、同じ問題をもう一度表示し</t>
-  </si>
-  <si>
-    <t>ます。学生は解答し直すことができます。通常は、間違った解答ごとに評点にペ</t>
-  </si>
-  <si>
-    <t>ナルティを課すように設定します。</t>
-  </si>
-  <si>
-    <t>・解答が間違っていた場合、メッセージを表示し、別な問題を表示します。</t>
-  </si>
-  <si>
-    <t>アダプティブモード（ペナルティなし）：アダプティブモードと同じで、誤答の場</t>
-  </si>
-  <si>
-    <t>合でもペナルティがないものです。</t>
-  </si>
-  <si>
-    <t>即時フィードバック：小テスト内のそれぞれの問題に解答する都度、すぐに正解</t>
-  </si>
-  <si>
-    <t>やフィードバックが表示されます。なお、解答内容は変更できません。</t>
-  </si>
-  <si>
-    <t>即時フィードバック（CBM）：CBM（Certainty-based marking）機能を使った</t>
-  </si>
-  <si>
-    <t>即時フィードバックです。このモードの問題では、学生は問題に解答するだけで</t>
-  </si>
-  <si>
-    <t>はなく、その解答に対する確信度(自信)も回答します。評点は正誤と確信度によっ</t>
-  </si>
-  <si>
-    <t>て決まります。自信をもって正解すると最も評点が高く、自信を持って間違える</t>
-  </si>
-  <si>
-    <t>と最も評点が低くなります。</t>
-  </si>
-  <si>
-    <t>遅延フィードバック：小テスト内のすべての問題が解答されてから、正解やフィー</t>
-  </si>
-  <si>
-    <t>ドバックが表示されます。</t>
-  </si>
-  <si>
-    <t>遅延フィードバック（CBM）：CBM（Certainty-based marking）機能を使った</t>
-  </si>
-  <si>
-    <t>遅延フィードバックです。</t>
-  </si>
-  <si>
-    <t>複数受験インタラクティブ：学生は、解答を提出し、間違えた場合はフィードバッ</t>
-  </si>
-  <si>
-    <t>クを読んだ後で再度解答しなければなりません。間違える回数が多いと評点は低</t>
-  </si>
-  <si>
-    <t>くなります。</t>
-  </si>
-  <si>
-    <t>直近の解答内容を反映させる：複数回の受験を許可している場合、ここで「Yes」を</t>
-  </si>
-  <si>
-    <t>選択していると、次回の受験のときには直前に解答した内容が表示されます。</t>
-  </si>
-  <si>
     <t>学生が小テストの受験結果のうちのどの情報を確認できるか、またいつ確認できる</t>
   </si>
   <si>
@@ -553,10 +471,6 @@
     <t>と、これを防ぐことができます。</t>
   </si>
   <si>
-    <t>アダプティブモード：学生は、1 つの問題に対して複数回の解答を行うことがで</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>表示に関する設定を行います。</t>
   </si>
   <si>
@@ -590,12 +504,6 @@
     <t>いうことができます。</t>
   </si>
   <si>
-    <t>小テスト受験中にブロックを表示する：有効にした場合、小テストの受験中に通常</t>
-  </si>
-  <si>
-    <t>のブロックを表示します。</t>
-  </si>
-  <si>
     <t>パスワードやネットワークアドレスなどによる制限を行います。</t>
   </si>
   <si>
@@ -663,9 +571,6 @@
   </si>
   <si>
     <t>クの文言を入力します。</t>
-  </si>
-  <si>
-    <t>利用：［学生から隠す］を選択すると、学生は見ることが出来ません。</t>
   </si>
   <si>
     <t>ID ナンバー：評定計算の目的で活動を識別します。評定計算に活動が含まれていな</t>
@@ -888,9 +793,6 @@
   <si>
     <t>小テストを作成する</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイミング：日時制限を設定する</t>
   </si>
   <si>
     <r>
@@ -921,25 +823,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;小テスト受験可能期間の開始日時&lt;/h3&gt;小テストを受験させる日時を指定します。
-&lt;h3&gt;小テスト受験可能期間の終了日時&lt;/h3&gt;小テストを終了させる日時を指定します。
-※ 開始日時、終了日時は［有効にする］のチェックボックスをチェックした場合のみ入力でき、有効になり
-ます。
-※ 開始日時を指定していない場合、学生はすぐに小テストを受験できます。設定した場合は、設定日
-時より前にテストを受験できません。
-※ 終了日時を指定した場合は、設定日時を超えて受験することは出来ません。</t>
-    <rPh sb="90" eb="92">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>小テストの設定項目「タイミング」で設定できる内容について説明します。</t>
     <rPh sb="0" eb="1">
       <t>ショウ</t>
@@ -959,19 +842,6 @@
     <rPh sb="28" eb="30">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;評定カテゴリ&lt;/h3&gt;あらかじめ評価カテゴリが登録されている場合は、選択できます。
-&lt;h3&gt;合格点&lt;/h3&gt;このテストの合格点を入力します。
-&lt;h3&gt;受験可能回数&lt;/h3&gt;小テストを受験可能な回数を指定します。「無制限」または「1～10」の範囲から選択することができます。
-&lt;h3&gt;評定方法&lt;/h3&gt;複数回の受験が許可されている場合、異なる方法で学生の最終評点を計算することができます。
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;最高評点&lt;/b&gt;：すべての回の中で最高（最良）の評点を最終評点とします。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;平均評点&lt;/b&gt;：すべての回の平均評点（単純平均）を最終評点とします。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;最初の受験&lt;/b&gt;：最初の受験で得点した評点を最終評点とします。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;最近の受験&lt;/b&gt;：最後の受験で得点した評点を最終評点とします。&lt;/li&gt;
-&lt;/ul&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1032,6 +902,375 @@
       <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題の挙動：問題のシャッフルや複数回解答などを設定する</t>
+  </si>
+  <si>
+    <t>小テストの設定項目「問題の挙動」で設定できる内容について説明します。</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定完了後、［保存して表示する］をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test2.png</t>
+  </si>
+  <si>
+    <t>test3.png</t>
+  </si>
+  <si>
+    <t>test4.png</t>
+  </si>
+  <si>
+    <t>test5.png</t>
+  </si>
+  <si>
+    <t>test6.png</t>
+  </si>
+  <si>
+    <t>test7.png</t>
+  </si>
+  <si>
+    <t>test8.png</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;制限時間&lt;/h3&gt;解答の制限時間を設けたい場合は、［有効にする］のチェックボックスをチェックして、時間と単位を設定します。</t>
+    <rPh sb="30" eb="32">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビューオプション：学生が確認できる情報を設定をする</t>
+  </si>
+  <si>
+    <t>小テストの設定項目「レビューオプション」で設定できる内容について説明します。</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;新しいページ&lt;/h3&gt;１ページあたりに表示する問題数を指定することができます。&lt;br&gt;「すべての問題を１ページに表示する｣では、すべての問題は同一ページに表示されます。問題数が多い場合、1 ページあたりの問題数を制限して複数のページに分けることができます。後から、小テストの編集ページで、手動で改ページの位置を変更することもできます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ナビゲーションメソッド&lt;/h3&gt;「順次」を指定すると、学生は小テストを順番に受験する必要があります。&lt;br&gt;前のページに戻ったり、先にスキップすることはできません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アピアランス：小テストの表示に関する設定をする</t>
+  </si>
+  <si>
+    <t>小テストの設定項目「アピアランス」で設定できる内容について説明します。</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;/3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストの設定項目「受験に関する特別制限」で設定できる内容について説明します。</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">次章からは、各設定値を説明します。必要に応じて設定してください。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;ul&gt;
+&lt;li&gt;&lt;a herf="p02.html"&gt;タイミング&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="p03.html"&gt;評定&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="p04.html"&gt;レイアウト&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="p05.html"&gt;問題の挙動&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="p06.html"&gt;レビューオプション&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="p07.html"&gt;アピアランス&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="p08.html"&gt;受験に関する特別制限&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="p09.html"&gt;全体フィードバック&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="p10.html"&gt;モジュール共通設定&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;利用制限&lt;/li&gt;
+&lt;li&gt;活動完了&lt;/li&gt;
+&lt;ul&gt;</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="291" eb="293">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="294" eb="295">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="297" eb="301">
+      <t>トクベツセイゲン</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="381" eb="383">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="383" eb="385">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="399" eb="403">
+      <t>リヨウセイゲン</t>
+    </rPh>
+    <rPh sb="413" eb="415">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="415" eb="417">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test-s1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テスト受験可能期間の開始日時&lt;/h3&gt;小テストを受験させる日時を指定します。
+&lt;h3&gt;小テスト受験可能期間の終了日時&lt;/h3&gt;小テストを終了させる日時を指定します。
+※ 開始日時、終了日時は［有効にする］のチェックボックスをチェックした場合のみ入力でき、有効になります。
+※ 開始日時を指定していない場合、学生はすぐに小テストを受験できます。設定した場合は、設定日時より前にテストを受験できません。
+※ 終了日時を指定した場合は、設定日時を超えて受験することは出来ません。</t>
+    <rPh sb="90" eb="92">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;小テストとは&lt;/h3&gt;&lt;br&gt;
+moodle では小テストを実施することができます。小テストを作成する時は、最初に小テストの動作設定を行い、そのあとで問題を登録します。&lt;br &gt;
+</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用：［学生から隠す］を選択すると、学生は見ることが出来ません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストの設定項目「全体フィードバック」で設定できる内容について説明します。</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストの設定項目「モジュール共通設定」で設定できる内容について説明します。</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モジュール共通設定：学生またはグループの閲覧制限を設定する</t>
+    <rPh sb="5" eb="7">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイミング：日時制限を設定する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テスト受験中にブロックを表示する：有効にした場合、小テストの受験中に通常のブロックを表示します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>既存のQA追加（受験後の正解非表示）</t>
+  </si>
+  <si>
+    <t>受験に関する特別制限：パスワードやアドレスによる制限を設定する</t>
+    <rPh sb="24" eb="26">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体フィードバック：評点で表示するテキスト内容を変える</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. テストをひらきます</t>
+  </si>
+  <si>
+    <t>2. 右上の歯車マークをクリックします</t>
+  </si>
+  <si>
+    <t>3. 「受験結果」の「解答」を選択します</t>
+  </si>
+  <si>
+    <t>この表はダウンロードすることも可能です。「テーブルデータをダウンロードする」で形式を選択し、「ダウンロード」をクリックしてください。</t>
   </si>
   <si>
     <r>
@@ -1072,192 +1311,134 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>：「Yes」にした場合、学生がこの小テストの受験を開始</t>
+      <t>「Yes」にした場合、学生がこの小テストの受験を開始するたびに、個々の問題の構成要素がランダムにシャッフルされます。
+この場合、</t>
     </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>問題の挙動：問題のシャッフルや複数回解答などを設定する</t>
-  </si>
-  <si>
-    <t>小テストの設定項目「問題の挙動」で設定できる内容について説明します。</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>設定完了後、［保存して表示する］をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test1.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test2.png</t>
-  </si>
-  <si>
-    <t>test3.png</t>
-  </si>
-  <si>
-    <t>test4.png</t>
-  </si>
-  <si>
-    <t>test5.png</t>
-  </si>
-  <si>
-    <t>test6.png</t>
-  </si>
-  <si>
-    <t>test7.png</t>
-  </si>
-  <si>
-    <t>test8.png</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;制限時間&lt;/h3&gt;解答の制限時間を設けたい場合は、［有効にする］のチェックボックスをチェックして、時間と単位を設定します。</t>
-    <rPh sb="30" eb="32">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test-s1.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レビューオプション：学生が確認できる情報を設定をする</t>
-  </si>
-  <si>
-    <t>小テストの設定項目「レビューオプション」で設定できる内容について説明します。</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;新しいページ&lt;/h3&gt;１ページあたりに表示する問題数を指定することができます。&lt;br&gt;「すべての問題を１ページに表示する｣では、すべての問題は同一ページに表示されます。問題数が多い場合、1 ページあたりの問題数を制限して複数のページに分けることができます。後から、小テストの編集ページで、手動で改ページの位置を変更することもできます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;ナビゲーションメソッド&lt;/h3&gt;「順次」を指定すると、学生は小テストを順番に受験する必要があります。&lt;br&gt;前のページに戻ったり、先にスキップすることはできません。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;小テストとは&lt;/h4&gt;&lt;br&gt;
-moodle では小テストを実施することができます。小テストを作成する時は、最初に小テストの動作設定を行い、そのあとで問題を登録します。&lt;br &gt;
-&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="231" eb="232">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アピアランス：小テストの表示に関する設定をする</t>
-  </si>
-  <si>
-    <t>小テストの設定項目「アピアランス」で設定できる内容について説明します。</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;/3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>受験に関する特別制限：パスワードやアドレスなどを設定する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テストの設定項目「受験に関する特別制限」で設定できる内容について説明します。</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全体のフィードバック：小テストのフィードバックの設定をする</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">次章からは、各設定値を説明します。必要に応じて設定してください。
-</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>各問題の設定にあるシャッフルオプションも「Yes」にする必要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>があります。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;問題動作&lt;/h3&gt;小テスト内の問題の動作を指定します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評定カテゴリ&lt;/h3&gt;あらかじめ評価カテゴリが登録されている場合は、選択できます。
+&lt;h3&gt;合格点&lt;/h3&gt;このテストの合格点を入力します。
+&lt;h3&gt;受験可能回数&lt;/h3&gt;小テストを受験可能な回数を指定します。「無制限」または「1～10」の範囲から選択することができます。
+&lt;h3&gt;評定方法&lt;/h3&gt;複数回の受験が許可されている場合、異なる方法で学生の最終評点を計算することができます。
+&lt;h4&gt;最高評点&lt;/h4&gt;すべての回の中で最高（最良）の評点を最終評点とします。
+&lt;h4&gt;平均評点&lt;/h4&gt;：すべての回の平均評点（単純平均）を最終評点とします。
+&lt;h4&gt;最初の受験&lt;/h4&gt;：最初の受験で得点した評点を最終評点とします。
+&lt;h4&gt;最近の受験&lt;/h4&gt;：最後の受験で得点した評点を最終評点とします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;アダプティブモード&lt;/h4&gt;学生は、1 つの問題に対して複数回の解答を行うことができます。
+このモードでは、答えを間違えた場合の動作を次から選べます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アダプティブモード（ペナルティなし）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アダプティブモードと同じで、誤答の場合でもペナルティがないものです。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>即時フィードバック</t>
     </r>
     <r>
       <rPr>
@@ -1267,69 +1448,84 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&lt;ul&gt;
-&lt;li&gt;&lt;a herf="//man/guide41_test/p02.html"&gt;タイミング&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="//man/guide41_test/p03.html"&gt;評定&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="//man/guide41_test/p04.html"&gt;レイアウト&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="//man/guide41_test/p05.html"&gt;問題の挙動&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="//man/guide41_test/p06.html"&gt;レビューオプション&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="//man/guide41_test/p07.html"&gt;アピアランス&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="//man/guide41_test/p08.html"&gt;受験に関する特別制限&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="//man/guide41_test/p09.html"&gt;全体フィードバック&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="//man/guide41_test/p10.html"&gt;モジュール共通設定&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;利用制限&lt;/li&gt;
-&lt;li&gt;活動完了&lt;/li&gt;
-&lt;ul&gt;</t>
+      <t>&lt;/h4&gt;</t>
     </r>
-    <rPh sb="0" eb="2">
-      <t>ジショウ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="248" eb="250">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="251" eb="253">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="424" eb="426">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="427" eb="428">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="430" eb="434">
-      <t>トクベツセイゲン</t>
-    </rPh>
-    <rPh sb="486" eb="488">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="552" eb="554">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="554" eb="556">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="570" eb="574">
-      <t>リヨウセイゲン</t>
-    </rPh>
-    <rPh sb="584" eb="586">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="586" eb="588">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モジュール共通設定：モジュール共通の設定をする</t>
-    <rPh sb="5" eb="7">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セッテイ</t>
-    </rPh>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小テスト内のそれぞれの問題に解答する都度、すぐに正解やフィードバックが表示されます。
+なお、解答内容は変更できません。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>即時フィードバック（CBM）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CBM（Certainty-based marking）機能を使った即時フィードバックです。
+このモードの問題では、学生は問題に解答するだけではなく、その解答に対する確信度(自信)も回答します。評点は正誤と確信度によって決まります。自信をもって正解すると最も評点が高く、自信を持って間違えると最も評点が低くなります。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;遅延フィードバック&lt;/h4&gt;小テスト内のすべての問題が解答されてから、正解やフィードバックが表示されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;遅延フィードバック（CBM）&lt;/h4&gt;CBM（Certainty-based marking）機能を使った遅延フィードバックです。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;複数受験インタラクティブ&lt;/h4&gt;学生は、解答を提出し、間違えた場合はフィードバックを読んだ後で再度解答しなければなりません。間違える回数が多いと評点は低くなります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;直近の解答内容を反映させる&lt;/h4&gt;複数回の受験を許可している場合、ここで「Yes」を選択していると、次回の受験のときには直前に解答した内容が表示されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示して、同じ問題をもう一度表示します。学生は解答し直すことができます。通常は、間違った解答ごとに評点にペナルティを課すように設定します。&lt;/li&gt;
+&lt;/li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示し、別な問題を表示します。&lt;/li&gt;&lt;/ul&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1337,7 +1533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1415,6 +1611,12 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1438,7 +1640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1484,6 +1686,9 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1802,7 +2007,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1841,11 +2046,13 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" ht="108">
+      <c r="B5" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="67.5">
       <c r="B6" s="2" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1860,10 +2067,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF1CF46-BDBD-415B-8CA7-3A5C33EB6352}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1882,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1898,7 +2108,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1906,23 +2116,26 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1930,7 +2143,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1938,19 +2151,19 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2019,10 +2232,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923E4C24-3B05-4188-877B-21A1660FB07B}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2041,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2057,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2065,23 +2281,26 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2089,7 +2308,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2097,43 +2316,43 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2182,10 +2401,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C14D5B5-F3EA-4DED-9CCC-03E88187AA16}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2204,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2232,19 +2454,19 @@
     <row r="7" spans="1:2" ht="40.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2287,10 +2509,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E9B584-E692-492C-9839-3FDF3D30AC5F}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2309,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2337,7 +2562,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2361,291 +2586,291 @@
     <row r="11" spans="1:2" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="40.5">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1"/>
       <c r="B16" s="11" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="11" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2657,10 +2882,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C9D162-AE1E-4BB2-8338-0F4343F26286}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2679,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2707,7 +2935,7 @@
     <row r="7" spans="1:2" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2755,10 +2983,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D74EA5C-7B08-4867-A177-C840850BD429}">
-  <dimension ref="A1:D28"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2777,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2793,7 +3024,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2805,36 +3036,44 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>200</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -2846,11 +3085,11 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
@@ -2862,11 +3101,11 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" s="11"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
@@ -2886,13 +3125,9 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2905,8 +3140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2929,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -2974,7 +3209,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -2983,7 +3218,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27">
@@ -2994,7 +3229,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -3005,7 +3240,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -3016,7 +3251,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="54">
@@ -3027,30 +3262,30 @@
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="257.25">
       <c r="B13" s="12" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3146,8 +3381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7222B16B-225E-40F6-B25E-FF1AF04CA1BC}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3166,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3191,13 +3426,13 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="94.5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="81">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3205,7 +3440,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3213,13 +3448,13 @@
     <row r="9" spans="1:4" ht="121.5">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3259,8 +3494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCC51EA-F7EF-4B13-8E46-8FB3FD467ED9}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3279,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3304,12 +3539,12 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="206.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="168.75">
       <c r="B7" s="3" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3346,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3371,18 +3606,18 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="56.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3394,10 +3629,138 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFAE51F-FED0-4874-AF7D-55D82F0F534B}">
-  <dimension ref="A1:D35"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="51">
+      <c r="A7" s="1"/>
+      <c r="B7" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="40.5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="32.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="1"/>
+      <c r="B12" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="59.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="37.5">
+      <c r="B16" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF158CDD-1C37-4D6B-B010-BB7EF83F2F8E}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3416,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3432,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3440,23 +3803,28 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>199</v>
+      <c r="B7" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
-        <v>197</v>
-      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3464,287 +3832,55 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
-        <v>81</v>
+      <c r="B12" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
-        <v>46</v>
+      <c r="B13" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="6" t="s">
-        <v>49</v>
+      <c r="B16" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="10" t="s">
-        <v>50</v>
+      <c r="B17" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="11" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF158CDD-1C37-4D6B-B010-BB7EF83F2F8E}">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3753,7 +3889,9 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="16" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
@@ -3790,10 +3928,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8111656-CDEF-4100-95C0-BB00970C3293}">
-  <dimension ref="A1:B21"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3812,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3837,85 +3978,75 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>94</v>
+      <c r="B19" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3927,10 +4058,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F341564-8B67-45AF-A172-BC5E94ADC7AB}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3949,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3974,100 +4108,100 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B15935B-D44A-4BC5-97F5-5D0E36078852}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920027BD-B04B-4DCB-9BDA-A3D694952AF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="3" activeTab="5" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="1" activeTab="11" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="194">
   <si>
     <t>header1</t>
   </si>
@@ -350,10 +350,6 @@
       <t>ショウ</t>
     </rPh>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;モジュール共通の設定をする&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>広大moodle 教職員向けマニュアル _小テスト10</t>
@@ -435,175 +431,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>学生が小テストの受験結果のうちのどの情報を確認できるか、またいつ確認できる</t>
-  </si>
-  <si>
-    <t>かを指定します。チェックボックスにチェックされている項目が表示されます。</t>
-  </si>
-  <si>
-    <t>受験中：「複数受験インタラクティブ」のような、特定の挙動のみに関連します。</t>
-  </si>
-  <si>
-    <t>受験後すぐに：学生が小テストを終えて「すべてを送信して終了する」ボタンをク</t>
-  </si>
-  <si>
-    <t>リックしてから 2 分以内です。</t>
-  </si>
-  <si>
-    <t>後で、小テスト実施中：受験を終了した後でかつ小テスト終了日時より前です。</t>
-  </si>
-  <si>
-    <t>小テスト終了後：小テスト終了日時を経過した後です。小テストに終了日時が設定</t>
-  </si>
-  <si>
-    <t>されていない場合は無視されます。</t>
-  </si>
-  <si>
-    <t>例えば、「受験後すぐに」の「正解」をチェックしておくと、受験を終わった学生は</t>
-  </si>
-  <si>
-    <t>すぐに正解を知ることができます。この場合、他の学生がその学生から正解を教わ</t>
-  </si>
-  <si>
-    <t>ることができてしまいます。「正解」のチェックを、「小テスト終了後」のみにする</t>
-  </si>
-  <si>
-    <t>と、これを防ぐことができます。</t>
-  </si>
-  <si>
-    <t>表示に関する設定を行います。</t>
-  </si>
-  <si>
-    <t>ユーザ画像を表示する：、受験中およびレビュー時、画面に学生の氏名および写真</t>
-  </si>
-  <si>
-    <t>が表示されます。例えば、試験監督が、受験者がユーザ本人かどうかを確認するた</t>
-  </si>
-  <si>
-    <t>めに利用できます。</t>
-  </si>
-  <si>
-    <t>評点の小数位：受講者の得点や評点を表示するときに、小数点以下を何桁表示する</t>
-  </si>
-  <si>
-    <t>かを指定します。この設定は、画面表示にのみ有効です。データベースに保存され</t>
-  </si>
-  <si>
-    <t>るデータや内部計算には使用されません。</t>
-  </si>
-  <si>
-    <t>問題評点の小数位：個々の問題の評点を表示する場合、小テスト全体の評点とは異</t>
-  </si>
-  <si>
-    <t>なる精度を選択することができます。例えば、個々の問題では小数点以下を含めた</t>
-  </si>
-  <si>
-    <t>評点を使用するが、小テストの最終評点では最も近い整数に丸めた値を採用すると</t>
-  </si>
-  <si>
-    <t>いうことができます。</t>
-  </si>
-  <si>
-    <t>パスワードやネットワークアドレスなどによる制限を行います。</t>
-  </si>
-  <si>
-    <t>パスワード：ここにパスワードを設定すると、学生は、同じパスワードを入力して</t>
-  </si>
-  <si>
-    <t>から受験する必要があります。</t>
-  </si>
-  <si>
-    <t>ネットワークアドレス：特定の IP アドレスの端末のみ、受験できるようになります。</t>
-  </si>
-  <si>
-    <t>許可する IP アドレスを入力してください。「192.168」とだけ入力すれば「192.168」</t>
-  </si>
-  <si>
-    <t>から始まるすべてのアドレスを許可します。</t>
-  </si>
-  <si>
-    <t>最初と 2 回目の受験の強制待ち時間：学生が 2 回目の受験をする前に、待たなけれ</t>
-  </si>
-  <si>
-    <t>ばいけない時間を設定できます。設定する場合は、［Yes］をチェックしてから時間</t>
-  </si>
-  <si>
-    <t>と単位を入力してください。</t>
-  </si>
-  <si>
-    <t>2 回目以降の受験の強制待ち時間：学生が 3 回目以降の受験をする前に、待たなけ</t>
-  </si>
-  <si>
-    <t>ればいけない時間を設定できます。設定する場合は、［Yes］をチェックしてから時</t>
-  </si>
-  <si>
-    <t>間と単位を入力してください。</t>
-  </si>
-  <si>
-    <t>ブラウザセキュリティ：学生が Web ブラウザを使ってできることを制限して、小テ</t>
-  </si>
-  <si>
-    <t>ストを受験する際のコピーや不正行為の実行を難しくします。学生が Javascript の</t>
-  </si>
-  <si>
-    <t>利用を有効にしているブラウザのみ、小テスト受験を開始することができます。小</t>
-  </si>
-  <si>
-    <t>テストはフルスクリーン画面となり、ブラウザのツールバーなどは非表示になりま</t>
-  </si>
-  <si>
-    <t>す。</t>
-  </si>
-  <si>
-    <t>小テストの受験終了後、受講者に表示されるテキストを指定します。受講者の獲得</t>
-  </si>
-  <si>
-    <t>した評点によって表示内容を変えることができます。</t>
-  </si>
-  <si>
-    <t>評点境界：表示するフィードバックを切り替える評点を入力します。パーセンテー</t>
-  </si>
-  <si>
-    <t>ジまたは数値で入力します。</t>
-  </si>
-  <si>
-    <t>フィードバック：［評点境界］に設定した得点を取った学生に表示する、フィードバッ</t>
-  </si>
-  <si>
-    <t>クの文言を入力します。</t>
-  </si>
-  <si>
-    <t>ID ナンバー：評定計算の目的で活動を識別します。評定計算に活動が含まれていな</t>
-  </si>
-  <si>
-    <t>い場合、ID ナンバーフィールドは空白のままにすることができます。</t>
-  </si>
-  <si>
-    <t>グループモード：下記の 3 つのグループモードから選択することができます。</t>
-  </si>
-  <si>
-    <t>グループなし：サブグループはありません。全員が、1 つの大きなコミュニティ</t>
-  </si>
-  <si>
-    <t>の一員です。</t>
-  </si>
-  <si>
-    <t>分離グループ：それぞれのグループメンバーは、そのグループ内のみ閲覧できま</t>
-  </si>
-  <si>
-    <t>す。他のグループを閲覧することはできません。</t>
-  </si>
-  <si>
-    <t>可視グループ：それぞれのグループメンバーは、そのグループ内で作業しますが、</t>
-  </si>
-  <si>
-    <t>他のグループを閲覧することもできます。</t>
-  </si>
-  <si>
     <t>多肢選択肢問題</t>
-  </si>
-  <si>
-    <t>複数の選択肢の中から、1 つもしくは複数の正解を選択する問題です。</t>
   </si>
   <si>
     <t>(1) ［追加する問題タイプを選択する］ダイアログで、［多肢選択問題］を選択して、［追</t>
@@ -778,19 +606,6 @@
     <t>小テストに追加できる問題の種類</t>
   </si>
   <si>
-    <t>&lt;h3&gt;多肢選択肢問題&lt;/h3&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>タシ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>小テストを作成する</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -845,15 +660,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;制限を経過した場合&lt;/h3&gt;問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します。学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます。
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;
-&lt;ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>レイアウト：表示する問題数や問題のスキップ禁止を設定する</t>
   </si>
   <si>
@@ -971,13 +777,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レビューオプション：学生が確認できる情報を設定をする</t>
-  </si>
-  <si>
     <t>小テストの設定項目「レビューオプション」で設定できる内容について説明します。</t>
     <rPh sb="0" eb="1">
       <t>ショウ</t>
@@ -1030,10 +829,6 @@
     <rPh sb="29" eb="31">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;/3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1131,23 +926,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;小テスト受験可能期間の開始日時&lt;/h3&gt;小テストを受験させる日時を指定します。
-&lt;h3&gt;小テスト受験可能期間の終了日時&lt;/h3&gt;小テストを終了させる日時を指定します。
-※ 開始日時、終了日時は［有効にする］のチェックボックスをチェックした場合のみ入力でき、有効になります。
-※ 開始日時を指定していない場合、学生はすぐに小テストを受験できます。設定した場合は、設定日時より前にテストを受験できません。
-※ 終了日時を指定した場合は、設定日時を超えて受験することは出来ません。</t>
-    <rPh sb="90" eb="92">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
   </si>
   <si>
@@ -1160,10 +938,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>利用：［学生から隠す］を選択すると、学生は見ることが出来ません。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>小テストの設定項目「全体フィードバック」で設定できる内容について説明します。</t>
     <rPh sb="0" eb="1">
       <t>ショウ</t>
@@ -1231,10 +1005,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>小テスト受験中にブロックを表示する：有効にした場合、小テストの受験中に通常のブロックを表示します。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>既存のQA追加（受験後の正解非表示）</t>
   </si>
   <si>
@@ -1358,6 +1128,105 @@
   </si>
   <si>
     <t>&lt;h3&gt;問題動作&lt;/h3&gt;小テスト内の問題の動作を指定します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アダプティブモード（ペナルティなし）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アダプティブモードと同じで、誤答の場合でもペナルティがないものです。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>即時フィードバック</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小テスト内のそれぞれの問題に解答する都度、すぐに正解やフィードバックが表示されます。
+なお、解答内容は変更できません。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;遅延フィードバック&lt;/h4&gt;小テスト内のすべての問題が解答されてから、正解やフィードバックが表示されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;遅延フィードバック（CBM）&lt;/h4&gt;CBM（Certainty-based marking）機能を使った遅延フィードバックです。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;複数受験インタラクティブ&lt;/h4&gt;学生は、解答を提出し、間違えた場合はフィードバックを読んだ後で再度解答しなければなりません。間違える回数が多いと評点は低くなります。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1366,57 +1235,40 @@
 &lt;h3&gt;受験可能回数&lt;/h3&gt;小テストを受験可能な回数を指定します。「無制限」または「1～10」の範囲から選択することができます。
 &lt;h3&gt;評定方法&lt;/h3&gt;複数回の受験が許可されている場合、異なる方法で学生の最終評点を計算することができます。
 &lt;h4&gt;最高評点&lt;/h4&gt;すべての回の中で最高（最良）の評点を最終評点とします。
-&lt;h4&gt;平均評点&lt;/h4&gt;：すべての回の平均評点（単純平均）を最終評点とします。
-&lt;h4&gt;最初の受験&lt;/h4&gt;：最初の受験で得点した評点を最終評点とします。
-&lt;h4&gt;最近の受験&lt;/h4&gt;：最後の受験で得点した評点を最終評点とします。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;アダプティブモード&lt;/h4&gt;学生は、1 つの問題に対して複数回の解答を行うことができます。
-このモードでは、答えを間違えた場合の動作を次から選べます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アダプティブモード（ペナルティなし）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アダプティブモードと同じで、誤答の場合でもペナルティがないものです。</t>
-    </r>
+&lt;h4&gt;平均評点&lt;/h4&gt;すべての回の平均評点（単純平均）を最終評点とします。
+&lt;h4&gt;最初の受験&lt;/h4&gt;最初の受験で得点した評点を最終評点とします。
+&lt;h4&gt;最近の受験&lt;/h4&gt;最後の受験で得点した評点を最終評点とします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テスト受験可能期間の開始日時&lt;/h3&gt;小テストを受験させる日時を指定します。
+&lt;h3&gt;小テスト受験可能期間の終了日時&lt;/h3&gt;小テストを終了させる日時を指定します。&lt;br&gt;※ 開始日時、終了日時は［有効にする］のチェックボックスをチェックした場合のみ入力でき、有効になります。&lt;br&gt;※ 開始日時を指定していない場合、学生はすぐに小テストを受験できます。設定した場合は、設定日時より前にテストを受験できません。&lt;br&gt;※ 終了日時を指定した場合は、設定日時を超えて受験することは出来ません。</t>
+    <rPh sb="93" eb="95">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;制限を経過した場合&lt;/h3&gt;問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します。学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます。&lt;br&gt;&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;
+&lt;ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示して、同じ問題をもう一度表示します。学生は解答し直すことができます。通常は、間違った解答ごとに評点にペナルティを課すように設定します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示し、別な問題を表示します。&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;アダプティブモード&lt;/h4&gt;学生は、1 つの問題に対して複数回の解答を行うことができます。&lt;br&gt;このモードでは、答えを間違えた場合の動作を次から選べます。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1438,7 +1290,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>即時フィードバック</t>
+      <t>即時フィードバック（CBM）</t>
     </r>
     <r>
       <rPr>
@@ -1458,12 +1310,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>小テスト内のそれぞれの問題に解答する都度、すぐに正解やフィードバックが表示されます。
-なお、解答内容は変更できません。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
+      <t>CBM（Certainty-based marking）機能を使った即時フィードバックです。</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1472,7 +1320,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&lt;h4&gt;</t>
+      <t>&lt;br&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1482,7 +1330,427 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>即時フィードバック（CBM）</t>
+      <t>このモードの問題では、学生は問題に解答するだけではなく、その解答に対する確信度(自信)も回答します。評点は正誤と確信度によって決まります。自信をもって正解すると最も評点が高く、自信を持って間違えると最も評点が低くなります。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;直近の解答内容を反映させる&lt;/h3&gt;複数回の受験を許可している場合、ここで「Yes」を選択していると、次回の受験のときには直前に解答した内容が表示されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>学生が小テストの受験結果のうちのどの情報を確認できるか、またいつ確認できるかを指定します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>チェックボックスにチェックされている項目が表示されます。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test-s2.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;受験中&lt;/h4&gt;「複数受験インタラクティブ」のような、特定の挙動のみに関連します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;受験後すぐに&lt;/h4&gt;学生が小テストを終えて「すべてを送信して終了する」ボタンをクリックしてから 2 分以内です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>後で、小テスト実施中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>受験を終了した後でかつ小テスト終了日時より前です。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;小テスト終了後&lt;/h4&gt;小テスト終了日時を経過した後です。小テストに終了日時が設定されていない場合は無視されます。&lt;br&gt;例えば、「受験後すぐに」の「正解」をチェックしておくと、受験を終わった学生はすぐに正解を知ることができます。&lt;br&gt;この場合、他の学生がその学生から正解を教わることができてしまいます。&lt;br&gt;「正解」のチェックを、「小テスト終了後」のみにすると、これを防ぐことができます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビューオプション：学生に公開する結果情報とタイミングを設定</t>
+    <rPh sb="10" eb="12">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ユーザ画像を表示する&lt;/h3&gt;受験中およびレビュー時、画面に学生の氏名および写真が表示されます。例えば、試験監督が、受験者がユーザ本人かどうかを確認するために利用できます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評点の小数位&lt;/h3&gt;受講者の得点や評点を表示するときに、小数点以下を何桁表示するかを指定します。この設定は、画面表示にのみ有効です。データベースに保存されるデータや内部計算には使用されません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;問題評点の小数位&lt;/h3&gt;個々の問題の評点を表示する場合、小テスト全体の評点とは異なる精度を選択することができます。例えば、個々の問題では小数点以下を含めた評点を使用するが、小テストの最終評点では最も近い整数に丸めた値を採用するということができます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テスト受験中にブロックを表示する&lt;/h3&gt;有効にした場合、小テストの受験中に通常のブロックを表示します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;パスワード&lt;/h3&gt;ここにパスワードを設定すると、学生は、同じパスワードを入力してから受験する必要があります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ネットワークアドレス&lt;/h3&gt;特定の IP アドレスの端末のみ、受験できるようになります。&lt;br&gt;許可する IP アドレスを入力してください。「192.168」とだけ入力すれば「192.168」から始まるすべてのアドレスを許可します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;最初と 2 回目の受験の強制待ち時間&lt;/h3&gt;学生が 2 回目の受験をする前に、待たなければいけない時間を設定できます。設定する場合は、［Yes］をチェックしてから時間と単位を入力してください。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;2 回目以降の受験の強制待ち時間&lt;/h3&gt;学生が 3 回目以降の受験をする前に、待たなければいけない時間を設定できます。設定する場合は、［Yes］をチェックしてから時間と単位を入力してください。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ブラウザセキュリティ&lt;/h3&gt;学生が Web ブラウザを使ってできることを制限して、小テストを受験する際のコピーや不正行為の実行を難しくします。学生が Javascript の利用を有効にしているブラウザのみ、小テスト受験を開始することができます。小テストはフルスクリーン画面となり、ブラウザのツールバーなどは非表示になります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストの受験終了後、受講者に表示されるテキストを指定します。受講者の獲得した評点によって表示内容を変えることができます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評点境界&lt;/h3&gt;表示するフィードバックを切り替える評点を入力します。パーセンテージまたは数値で入力します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;フィードバック&lt;/h3&gt;［評点境界］に設定した得点を取った学生に表示する、フィードバックの文言を入力します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>［学生から隠す］を選択すると、学生は見ることが出来ません。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ID ナンバー&lt;/h3&gt;評定計算の目的で活動を識別します。評定計算に活動が含まれていない場合、ID ナンバーフィールドは空白のままにすることができます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;グループモード&lt;/h3&gt;下記の 3 つのグループモードから選択することができます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;グループなし&lt;/h3&gt;サブグループはありません。全員が、1 つの大きなコミュニティの一員です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;分離グループ&lt;/h4&gt;それぞれのグループメンバーは、そのグループ内のみ閲覧できます。他のグループを閲覧することはできません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>可視グループ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>それぞれのグループメンバーは、そのグループ内で作業しますが、他のグループを閲覧することもできます。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストに追加できる問題の種類を紹介します。&lt;br&gt;</t>
+    <rPh sb="16" eb="18">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test-q1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test-q2.png</t>
+  </si>
+  <si>
+    <t>test-q3.png</t>
+  </si>
+  <si>
+    <t>test-q4.png</t>
+  </si>
+  <si>
+    <t>test-q5.png</t>
+  </si>
+  <si>
+    <t>test-q6.png</t>
+  </si>
+  <si>
+    <t>test-q7.png</t>
+  </si>
+  <si>
+    <t>test-q8.png</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>quiz1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;多肢選択肢問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;複数の選択肢の中から、1 つもしくは複数の正解を選択する問題です。
+詳しい設定方法は&lt;a herf="p12.html"&gt;こちら&lt;/a&gt;</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>タシ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;〇／</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <rPh sb="23" eb="25">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="quiz</t>
     </r>
     <r>
       <rPr>
@@ -1492,7 +1760,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>&lt;/h4&gt;</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1502,30 +1770,491 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>CBM（Certainty-based marking）機能を使った即時フィードバックです。
-このモードの問題では、学生は問題に解答するだけではなく、その解答に対する確信度(自信)も回答します。評点は正誤と確信度によって決まります。自信をもって正解すると最も評点が高く、自信を持って間違えると最も評点が低くなります。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;遅延フィードバック&lt;/h4&gt;小テスト内のすべての問題が解答されてから、正解やフィードバックが表示されます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;遅延フィードバック（CBM）&lt;/h4&gt;CBM（Certainty-based marking）機能を使った遅延フィードバックです。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;複数受験インタラクティブ&lt;/h4&gt;学生は、解答を提出し、間違えた場合はフィードバックを読んだ後で再度解答しなければなりません。間違える回数が多いと評点は低くなります。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;直近の解答内容を反映させる&lt;/h4&gt;複数回の受験を許可している場合、ここで「Yes」を選択していると、次回の受験のときには直前に解答した内容が表示されます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示して、同じ問題をもう一度表示します。学生は解答し直すことができます。通常は、間違った解答ごとに評点にペナルティを課すように設定します。&lt;/li&gt;
-&lt;/li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示し、別な問題を表示します。&lt;/li&gt;&lt;/ul&gt;</t>
+      <t>"&gt;組み合わせ問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;記述問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;数値問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;作文問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;ドラッグ＆ドロップ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="quiz8"&gt;穴埋め問題(Cloze)&lt;/a&gt;&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;ul&gt;
+&lt;li&gt;&lt;a href="#quiz1"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>多肢選択肢問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;a href="#quiz2"&gt;〇／</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>問題&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;a href="#quiz3"&gt;組み合わせ問題&lt;/a&gt;&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;a href="#quiz4"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>記述問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;a href="#quiz5"&gt;数値問題&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#quiz6"&gt;作文問題&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="#quiz7"&gt;ドラッグ＆ドロップ&lt;/a&gt;&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;a href="#quiz8"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>穴埋め問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(Cloze)&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+    </r>
+    <rPh sb="67" eb="69">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>サクブン</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>モンダイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1533,7 +2262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1616,6 +2345,19 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2044,15 +2786,15 @@
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="54">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
       <c r="B6" s="2" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2067,13 +2809,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF1CF46-BDBD-415B-8CA7-3A5C33EB6352}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2092,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2117,74 +2856,64 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>175</v>
+      <c r="B7" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="B8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+        <v>169</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
-        <v>87</v>
-      </c>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-      <c r="B18" s="11"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
@@ -2196,7 +2925,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
@@ -2208,21 +2937,9 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1"/>
-      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1"/>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2232,13 +2949,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923E4C24-3B05-4188-877B-21A1660FB07B}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2257,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2273,7 +2987,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2282,78 +2996,66 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27">
       <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
-        <v>189</v>
-      </c>
+      <c r="B8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+        <v>172</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
-        <v>91</v>
+      <c r="B12" s="10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="11" t="s">
-        <v>96</v>
-      </c>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
@@ -2365,7 +3067,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
@@ -2373,25 +3075,9 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
-      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1"/>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2404,10 +3090,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2415,21 +3101,21 @@
     <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2437,7 +3123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2445,60 +3131,116 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" ht="40.5">
+      <c r="B6" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="177">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45.75">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>185</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
+      <c r="B15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2534,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2562,7 +3304,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2586,291 +3328,291 @@
     <row r="11" spans="1:2" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="40.5">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1"/>
       <c r="B16" s="11" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="11" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2907,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2935,7 +3677,7 @@
     <row r="7" spans="1:2" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3008,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3024,7 +3766,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3036,19 +3778,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3056,7 +3798,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3064,7 +3806,7 @@
     <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3140,8 +3882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3164,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -3209,7 +3951,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -3218,7 +3960,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27">
@@ -3229,7 +3971,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -3240,7 +3982,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -3251,7 +3993,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="54">
@@ -3262,30 +4004,30 @@
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="257.25">
       <c r="B13" s="12" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3382,7 +4124,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3401,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3426,13 +4168,13 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3440,21 +4182,21 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="121.5">
+    <row r="9" spans="1:4" ht="108">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3494,7 +4236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCC51EA-F7EF-4B13-8E46-8FB3FD467ED9}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3514,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3539,12 +4281,12 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="168.75">
       <c r="B7" s="3" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3581,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3606,18 +4348,18 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="56.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3629,13 +4371,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFAE51F-FED0-4874-AF7D-55D82F0F534B}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3654,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3679,70 +4418,70 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="32.25">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="59.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="64.5">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="3" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="37.5">
       <c r="B16" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>212</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="37.5">
+      <c r="B17" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3754,13 +4493,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF158CDD-1C37-4D6B-B010-BB7EF83F2F8E}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3779,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3804,19 +4540,25 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>42</v>
+        <v>151</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3824,63 +4566,49 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+        <v>154</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="54">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-      <c r="B18" s="11" t="s">
-        <v>53</v>
+      <c r="B18" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3889,9 +4617,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" s="16" t="s">
-        <v>195</v>
-      </c>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
@@ -3907,17 +4633,9 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1"/>
-      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1"/>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3928,13 +4646,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8111656-CDEF-4100-95C0-BB00970C3293}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3953,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3978,93 +4693,55 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="37.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
-        <v>55</v>
+      <c r="B7" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="37.5">
+      <c r="B8" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="56.25">
+      <c r="B9" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>57</v>
+      <c r="B10" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>194</v>
-      </c>
+      <c r="B15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F341564-8B67-45AF-A172-BC5E94ADC7AB}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4083,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4108,100 +4785,33 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>81</v>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="37.5">
+      <c r="B8" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="37.5">
+      <c r="B9" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="37.5">
+      <c r="B10" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="56.25">
+      <c r="B11" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920027BD-B04B-4DCB-9BDA-A3D694952AF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8837C81B-9435-4547-B41B-4CBE5B95FB38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="1" activeTab="11" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="1" activeTab="12" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="169">
   <si>
     <t>header1</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>テストアイコンをクリックします。［小テストを編集する］をクリックします</t>
-  </si>
-  <si>
-    <t>追加▼をクリックしメニューから［新しい問題］をクリックします</t>
   </si>
   <si>
     <t>［追加する問題タイプを選択する］ダイアログで、追加する問題の種類を選択し、［追加］をクリックします</t>
@@ -428,174 +425,6 @@
   </si>
   <si>
     <t>&lt;h3&gt;小テストに問題を登録する&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>多肢選択肢問題</t>
-  </si>
-  <si>
-    <t>(1) ［追加する問題タイプを選択する］ダイアログで、［多肢選択問題］を選択して、［追</t>
-  </si>
-  <si>
-    <t>加］ボタンをクリックします</t>
-  </si>
-  <si>
-    <t>(2) ［多肢選択問題追加］画面で問題の内容を入力します</t>
-  </si>
-  <si>
-    <t>問題名：問題の名称を入力します。</t>
-  </si>
-  <si>
-    <t>問題テキスト：「次のうち、正しいものを選びなさい。」などの問題文を入力します。</t>
-  </si>
-  <si>
-    <t>デフォルト評点：この問題に正解したときに得られる得点を入力します。</t>
-  </si>
-  <si>
-    <t>全体に対するフィードバック：解答後に表示されるフィードバックを入力します。</t>
-  </si>
-  <si>
-    <t>単一または複数解答？：答えを 1 つだけ選べるようにするか、複数の答えを選べる</t>
-  </si>
-  <si>
-    <t>ようにするかを選択します。</t>
-  </si>
-  <si>
-    <t>複数回答を許可する：選択肢はチェックボックスの形式です。複数の選択肢にチェッ</t>
-  </si>
-  <si>
-    <t>クをつけて選択できます。</t>
-  </si>
-  <si>
-    <t>単一の回答のみ：選択肢はオプションボタン（ラジオボタン）の形式です。1 つの</t>
-  </si>
-  <si>
-    <t>選択肢だけを選択できます。</t>
-  </si>
-  <si>
-    <t>選択肢をシャッフルしますか？：チェックすると、受験のたびに選択肢の順番を並</t>
-  </si>
-  <si>
-    <t>べ替えます。</t>
-  </si>
-  <si>
-    <t>※小テスト全体の設定をしたとき、［問題の挙動］の［問題内部をシャッフルする］</t>
-  </si>
-  <si>
-    <t>で「Yes」を選択した場合に、チェックが可能です。</t>
-  </si>
-  <si>
-    <t>選択肢に番号付けしますか？：好みの形式を選択してください。</t>
-  </si>
-  <si>
-    <t>標準インストラクションを表示する：多肢選択解答の前に「1 つを選択する」また</t>
-  </si>
-  <si>
-    <t>は「１つまたはそれ以上を選択する」のインストラクションを表示するか選択でき</t>
-  </si>
-  <si>
-    <t>ます。</t>
-  </si>
-  <si>
-    <t>例）標準インストラクションを表示するを「Yes」にした場合</t>
-  </si>
-  <si>
-    <t>(3) 解答の選択肢を入力します</t>
-  </si>
-  <si>
-    <t>選択肢：選択肢の内容を入力します。</t>
-  </si>
-  <si>
-    <t>評点：この選択肢を選んだときに得られる得点を、［デフォルト評点］に対するパー</t>
-  </si>
-  <si>
-    <t>セントで入力します。</t>
-  </si>
-  <si>
-    <t>例えば、［デフォルト評点］が 1 点の場合、ここを「50％」にしておくと、この選択</t>
-  </si>
-  <si>
-    <t>肢を選んだときには 0.5 点になります。</t>
-  </si>
-  <si>
-    <t>フィードバック：この選択肢を選んだ場合に表示するフィードバックを入力します。</t>
-  </si>
-  <si>
-    <t>※ 選択肢の入力欄が足りない場合は、［さらに 3 件の選択肢入力欄を追加する］ボタンをクリックして</t>
-  </si>
-  <si>
-    <t>ください。</t>
-  </si>
-  <si>
-    <t>(4) 総合フィードバックを入力します</t>
-  </si>
-  <si>
-    <t>すべての正答：正解の場合に表示するフィードバックを入力します。</t>
-  </si>
-  <si>
-    <t>すべての部分的に正しい解答：部分的に正解だった時に表示するフィードバックを</t>
-  </si>
-  <si>
-    <t>入力します。</t>
-  </si>
-  <si>
-    <t>オプション：回答後に正答数を表示する場合はチェックします。</t>
-  </si>
-  <si>
-    <t>すべての不正解：不正解の場合に表示するフィードバックを入力します。</t>
-  </si>
-  <si>
-    <t>(5) 必要に応じて複数受験を設定します</t>
-  </si>
-  <si>
-    <t>それぞれの不正解に対するペナルティ：小テスト全体の設定をしたとき、［問題の挙</t>
-  </si>
-  <si>
-    <t>動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解</t>
-  </si>
-  <si>
-    <t>に対する減点の割合をパーセントで設定します。</t>
-  </si>
-  <si>
-    <t>※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。</t>
-  </si>
-  <si>
-    <t>ヒント：小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受</t>
-  </si>
-  <si>
-    <t>験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力</t>
-  </si>
-  <si>
-    <t>します。学生は入力したヒントの数と同じ回数まで再受験できます。</t>
-  </si>
-  <si>
-    <t>※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。</t>
-  </si>
-  <si>
-    <t>ヒントオプション：</t>
-  </si>
-  <si>
-    <t>正しくない解答をクリアする：再受験のとき、前回の解答を表示させないときは</t>
-  </si>
-  <si>
-    <t>チェックします。</t>
-  </si>
-  <si>
-    <t>正答数を表示する：回答後に、正答数を表示する場合はチェックします。</t>
-  </si>
-  <si>
-    <t>(6) 必要な設定が完了したら、［変更を保存する］をクリックします</t>
-  </si>
-  <si>
-    <t>(7) ［小テストの編集］画面で、問題が追加されていることを確認しま</t>
-  </si>
-  <si>
-    <t>記述問題</t>
-  </si>
-  <si>
-    <t>多肢選択肢問題
-記述問題
-穴埋め問題</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1626,364 +1455,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;h3&gt;&lt;a name="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>quiz1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;多肢選択肢問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;複数の選択肢の中から、1 つもしくは複数の正解を選択する問題です。
-詳しい設定方法は&lt;a herf="p12.html"&gt;こちら&lt;/a&gt;</t>
-    </r>
-    <rPh sb="20" eb="22">
-      <t>タシ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h3&gt;&lt;a name="quiz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;〇／</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;</t>
-    </r>
-    <rPh sb="23" eb="25">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h3&gt;&lt;a name="quiz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;組み合わせ問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h3&gt;&lt;a name="quiz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;記述問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h3&gt;&lt;a name="quiz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;数値問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h3&gt;&lt;a name="quiz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;作文問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h3&gt;&lt;a name="quiz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;ドラッグ＆ドロップ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="quiz8"&gt;穴埋め問題(Cloze)&lt;/a&gt;&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -2255,6 +1726,815 @@
     <rPh sb="210" eb="212">
       <t>モンダイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>quiz1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;多肢選択肢問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;複数の選択肢の中から、1 つもしくは複数の正解を選択する問題です。
+詳しい設定方法は&lt;a href="p12.html"&gt;こちら&lt;/a&gt;</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>タシ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;〇／</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>問題 ( イメージを含む場合もあります ) に対して、解答者は2つの選択肢 ( ○または× ) から答えを選択します。
+フィードバックを有効にした場合、解答後に適切なフィードバックが表示されます。例えば正答が「×」の場合で「○」 ( 不正解 ) と答えた場合、「○」を選択した場合のフィードバックが表示されます。</t>
+    </r>
+    <rPh sb="23" eb="25">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;組み合わせ問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;組み合わせ問題では、コンテンツエリアおよび名称または説明文が正確に合致すべき、別のコンテンツエリアおよび名称または説明文の一覧を持つことができます。
+例えば、「カナダ、イタリア、日本」「オタワ、ローマ、東京」の2つのリストを持った、「次の国の首都を選択してください。」という問題を作成することができます。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>▼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリックしメニューから［新しい問題］をクリックします</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;記述問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;記述問題では、学生は問題 (画像を含む場合もある) に答えるために単語やフレーズを入力します。解答は大文字と小文字を区別することも、しないこともできます。答えは単語でもフレーズでもかまいませんが、許容される答えの1つと正確に一致する必要があります。異なる言い回しで書かれた正解を見逃さないよう、必要な答えはできるだけ短くするのがよいでしょう。
+詳しい設定方法は&lt;a href="p12.html"&gt;こちら&lt;/a&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;作文問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;作文問題タイプには、1つ以上のファイルをアップロードしたり、オンラインでテキストを入力したりして解答するオプションがあります。 （より長い作文、テキスト、またはファイルのアップロードについては、この問題タイプではなく、課題活動の使用を検討することをお勧めします。）
+作文問題は、他の小テストの問題タイプと同じ方法で作成されます。違いは、作文問題には手動で評点を付ける必要があり、教師が作文に評点を付けるまで、学生は最終評定を取得しないことです。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="quiz8"&gt;穴埋め問題(Cloze)&lt;/a&gt;&lt;/h3&gt;穴埋め問題は、テキスト内に多肢選択問題、記述問題、数値問題を挿入することができる
+非常に柔軟な問題形式です。ただし、問題を作成するためのグラフィカルインターフェー
+スは用意されていません。テキストボックスを使用するか、外部ファイルから問題をインポートして、問題の形式を指定する必要がありました。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;ドラッグ＆ドロップ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h3&gt;リストからドラッグして、問題分にドロップすることができます。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;ul&gt;&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ドラッグ＆ドロップテキスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>:欠落している単語をテキストの段落のギャップにドラッグする必要があるドラッグ＆ドロップの問題タイプ&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ドラッグ＆ドロップマーカー：生徒は背景画像の領域にマーカーをドロップできます。マーカーの質問をドラッグアンドドロップすることは、ドラッグ＆ドロップイメージ問題タイプとは異なり、基礎となる画像上に学生に表示される定義済みの領域がありません。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ドラッグ＆ドロップイメージ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>:学生がテキスト、イメージ、またはその両方をリストからドラッグして、ベース画像の事前定義されたギャップにドロップできます&lt;/li&gt;&lt;ul&gt;</t>
+    </r>
+    <rPh sb="50" eb="52">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;記述問題&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;数値問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;学生の観点から、数値問題は記述問題のように見えます。両者の違いは、数値問題がエラーを受け付けることにあります。このことにより、連続的な答えの幅を設定することができます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例えば、答えが「30」、認められるエラーが「5」の場合、25から35の間の数値が正しい解答として認められます。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>［追加する問題タイプを選択する］ダイアログで、［多肢選択問題］を選択して、［追加］ボタンをクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>［多肢選択問題追加］画面で問題の内容を入力します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解答の選択肢を入力します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 総合フィードバックを入力します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;問題名：&lt;/b&gt;問題の名称を入力します。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;問題テキスト：&lt;/b&gt;「次のうち、正しいものを選びなさい。」などの問題文を入力します。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;デフォルト評点：&lt;/b&gt;この問題に正解したときに得られる得点を入力します。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;全体に対するフィードバック：&lt;/b&gt;解答後に表示されるフィードバックを入力します。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;単一または複数解答？：&lt;/b&gt;答えを 1 つだけ選べるようにするか、複数の答えを選べるようにするかを選択します。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;複数回答を許可する：&lt;/b&gt;選択肢はチェックボックスの形式です。複数の選択肢にチェックをつけて選択できます。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;単一の回答のみ：&lt;/b&gt;選択肢はオプションボタン（ラジオボタン）の形式です。1 つの選択肢だけを選択できます。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;選択肢をシャッフルしますか？：&lt;/b&gt;チェックすると、受験のたびに選択肢の順番を並べ替えます。
+※小テスト全体の設定をしたとき、［問題の挙動］の［問題内部をシャッフルする］で「Yes」を選択した場合に、チェックが可能です。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;選択肢に番号付けしますか？：&lt;/b&gt;好みの形式を選択してください。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;標準インストラクションを表示する：&lt;/b&gt;多肢選択解答の前に「1 つを選択する」または「１つまたはそれ以上を選択する」のインストラクションを表示するか選択できます。
+例）標準インストラクションを表示するを「Yes」にした場合&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;選択肢：&lt;/b&gt;選択肢の内容を入力します。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;評点：&lt;/b&gt;この選択肢を選んだときに得られる得点を、［デフォルト評点］に対するパーセントで入力します。
+例えば、［デフォルト評点］が 1 点の場合、ここを「50％」にしておくと、この選択肢を選んだときには 0.5 点になります。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;フィードバック：&lt;/b&gt;この選択肢を選んだ場合に表示するフィードバックを入力します。
+※ 選択肢の入力欄が足りない場合は、［さらに 3 件の選択肢入力欄を追加する］ボタンをクリックしてください。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要に応じて複数受験を設定します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;すべての正答：&lt;/b&gt;正解の場合に表示するフィードバックを入力します。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;すべての不正解：&lt;/b&gt;不正解の場合に表示するフィードバックを入力します。&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;オプション：&lt;/b&gt;回答後に正答数を表示する場合はチェックします。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;すべての部分的に正しい解答：&lt;/b&gt;部分的に正解だった時に表示するフィードバックを入力します。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要な設定が完了したら、［変更を保存する］をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>［小テストの編集］画面で、問題が追加されていることを確認しま</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;正しくない解答をクリアする：&lt;/b&gt;再受験のとき、前回の解答を表示させないときはチェックします。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;正答数を表示する：回答後に、正答数を表示する場合はチェックします。&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それぞれの不正解に対するペナルティ：小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解に対する減点の割合をパーセントで設定します。
+&lt;small&gt;※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。&lt;/small&gt;
+&lt;b&gt;ヒント：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力します。
+学生は入力したヒントの数と同じ回数まで再受験できます。
+&lt;small&gt;※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。&lt;/small&gt;
+&lt;b&gt;ヒントオプション：&lt;/b&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;&lt;a name="quiz_taki"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>多肢選択肢問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;&lt;/h4&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;ul&gt;
+&lt;li&gt;&lt;a href="#quiz_taki"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>多肢選択肢問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>記述問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>穴埋め問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;
+&lt;/ul&gt;</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2262,7 +2542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2358,6 +2638,12 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2763,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2779,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2789,12 +3075,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
       <c r="B6" s="2" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2831,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2847,7 +3133,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2856,19 +3142,19 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2876,7 +3162,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2971,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2987,7 +3273,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2996,19 +3282,19 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3016,25 +3302,25 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3092,8 +3378,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3112,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3128,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3137,109 +3423,109 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="177">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45.75">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="59.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="11" t="s">
-        <v>187</v>
+      <c r="B10" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="72.75">
       <c r="A11" s="1"/>
-      <c r="B11" s="11" t="s">
-        <v>188</v>
+      <c r="B11" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="64.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="11" t="s">
-        <v>189</v>
+      <c r="B12" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="72.75">
       <c r="A13" s="1"/>
-      <c r="B13" s="11" t="s">
-        <v>190</v>
+      <c r="B13" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="158.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="11" t="s">
-        <v>191</v>
+      <c r="B14" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="93.75">
       <c r="A15" s="1"/>
-      <c r="B15" t="s">
-        <v>192</v>
+      <c r="B15" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3254,10 +3540,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3276,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3292,7 +3578,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3304,7 +3590,7 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3316,303 +3602,177 @@
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="40.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="93.75">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1"/>
-      <c r="B15" s="10" t="s">
-        <v>43</v>
+      <c r="B15" s="11" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1"/>
       <c r="B16" s="11" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="11" t="s">
-        <v>48</v>
+      <c r="B20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>51</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="56.25">
+      <c r="B23" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>53</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="56.25">
+      <c r="B25" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" t="s">
-        <v>57</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="56.25">
+      <c r="B28" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="37.5">
+      <c r="B29" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>64</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="150">
+      <c r="B36" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3649,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3665,7 +3825,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3677,37 +3837,37 @@
     <row r="7" spans="1:2" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3750,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3766,7 +3926,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3778,19 +3938,19 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3798,7 +3958,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3806,7 +3966,7 @@
     <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3906,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -3926,7 +4086,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3945,13 +4105,13 @@
     </row>
     <row r="7" spans="1:4" ht="40.5">
       <c r="B7" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -3960,18 +4120,18 @@
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27">
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -3982,7 +4142,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -3993,41 +4153,41 @@
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="54">
       <c r="B12" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="257.25">
       <c r="B13" s="12" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4143,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4159,7 +4319,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4168,13 +4328,13 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4182,7 +4342,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4190,13 +4350,13 @@
     <row r="9" spans="1:4" ht="108">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4256,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4272,7 +4432,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4281,12 +4441,12 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="168.75">
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4323,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4339,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4348,18 +4508,18 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="56.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4393,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4409,7 +4569,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4418,70 +4578,70 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="32.25">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="64.5">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="37.5">
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="37.5">
       <c r="B17" s="3" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4515,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4531,7 +4691,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4540,25 +4700,25 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4566,19 +4726,19 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="54">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4608,7 +4768,7 @@
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4668,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4684,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4693,28 +4853,28 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="37.5">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="56.25">
       <c r="B9" s="3" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4760,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4776,7 +4936,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4785,33 +4945,33 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="37.5">
       <c r="B9" s="3" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="37.5">
       <c r="B10" s="3" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="56.25">
       <c r="B11" s="3" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5071,6 +5231,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -5086,15 +5255,6 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5117,6 +5277,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5125,12 +5293,4 @@
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8837C81B-9435-4547-B41B-4CBE5B95FB38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEE3E23-6406-4573-8727-C9B0EA93169E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="1" activeTab="12" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="5" activeTab="12" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="165">
   <si>
     <t>header1</t>
   </si>
@@ -425,10 +425,6 @@
   </si>
   <si>
     <t>&lt;h3&gt;小テストに問題を登録する&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以降、具体的に問題を作成していきます。 この資料では、次項より、多肢選択問題、記述問題、穴埋め問題の作成方法をご紹介します</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2047,6 +2043,129 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;数値問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;学生の観点から、数値問題は記述問題のように見えます。両者の違いは、数値問題がエラーを受け付けることにあります。このことにより、連続的な答えの幅を設定することができます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例えば、答えが「30」、認められるエラーが「5」の場合、25から35の間の数値が正しい解答として認められます。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>［追加する問題タイプを選択する］ダイアログで、［多肢選択問題］を選択して、［追加］ボタンをクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>［多肢選択問題追加］画面で問題の内容を入力します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解答の選択肢を入力します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 総合フィードバックを入力します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要に応じて複数受験を設定します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要な設定が完了したら、［変更を保存する］をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;&lt;a name="quiz_taki"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>多肢選択肢問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;&lt;/h4&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>7</t>
     </r>
     <r>
@@ -2077,7 +2196,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">&lt;/h3&gt;リストからドラッグして、問題分にドロップすることができます。
+      <t xml:space="preserve">&lt;/h3&gt;リストからドラッグして、問題文にドロップすることができます。
 </t>
     </r>
     <r>
@@ -2195,267 +2314,219 @@
     <rPh sb="50" eb="52">
       <t>モンダイ</t>
     </rPh>
-    <rPh sb="52" eb="53">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;記述問題&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h3&gt;&lt;a name="quiz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;数値問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;学生の観点から、数値問題は記述問題のように見えます。両者の違いは、数値問題がエラーを受け付けることにあります。このことにより、連続的な答えの幅を設定することができます。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>例えば、答えが「30」、認められるエラーが「5」の場合、25から35の間の数値が正しい解答として認められます。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>［追加する問題タイプを選択する］ダイアログで、［多肢選択問題］を選択して、［追加］ボタンをクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>［多肢選択問題追加］画面で問題の内容を入力します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>解答の選択肢を入力します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 総合フィードバックを入力します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;問題名：&lt;/b&gt;問題の名称を入力します。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;問題テキスト：&lt;/b&gt;「次のうち、正しいものを選びなさい。」などの問題文を入力します。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;デフォルト評点：&lt;/b&gt;この問題に正解したときに得られる得点を入力します。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;全体に対するフィードバック：&lt;/b&gt;解答後に表示されるフィードバックを入力します。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;単一または複数解答？：&lt;/b&gt;答えを 1 つだけ選べるようにするか、複数の答えを選べるようにするかを選択します。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;複数回答を許可する：&lt;/b&gt;選択肢はチェックボックスの形式です。複数の選択肢にチェックをつけて選択できます。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;単一の回答のみ：&lt;/b&gt;選択肢はオプションボタン（ラジオボタン）の形式です。1 つの選択肢だけを選択できます。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;選択肢をシャッフルしますか？：&lt;/b&gt;チェックすると、受験のたびに選択肢の順番を並べ替えます。
-※小テスト全体の設定をしたとき、［問題の挙動］の［問題内部をシャッフルする］で「Yes」を選択した場合に、チェックが可能です。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;選択肢に番号付けしますか？：&lt;/b&gt;好みの形式を選択してください。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;標準インストラクションを表示する：&lt;/b&gt;多肢選択解答の前に「1 つを選択する」または「１つまたはそれ以上を選択する」のインストラクションを表示するか選択できます。
-例）標準インストラクションを表示するを「Yes」にした場合&lt;/li&gt;&lt;/ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;選択肢：&lt;/b&gt;選択肢の内容を入力します。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;評点：&lt;/b&gt;この選択肢を選んだときに得られる得点を、［デフォルト評点］に対するパーセントで入力します。
-例えば、［デフォルト評点］が 1 点の場合、ここを「50％」にしておくと、この選択肢を選んだときには 0.5 点になります。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;フィードバック：&lt;/b&gt;この選択肢を選んだ場合に表示するフィードバックを入力します。
-※ 選択肢の入力欄が足りない場合は、［さらに 3 件の選択肢入力欄を追加する］ボタンをクリックしてください。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>必要に応じて複数受験を設定します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;すべての正答：&lt;/b&gt;正解の場合に表示するフィードバックを入力します。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;すべての不正解：&lt;/b&gt;不正解の場合に表示するフィードバックを入力します。&lt;/li&gt;&lt;/ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;オプション：&lt;/b&gt;回答後に正答数を表示する場合はチェックします。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;すべての部分的に正しい解答：&lt;/b&gt;部分的に正解だった時に表示するフィードバックを入力します。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>必要な設定が完了したら、［変更を保存する］をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>［小テストの編集］画面で、問題が追加されていることを確認しま</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;正しくない解答をクリアする：&lt;/b&gt;再受験のとき、前回の解答を表示させないときはチェックします。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;正答数を表示する：回答後に、正答数を表示する場合はチェックします。&lt;/li&gt;&lt;/ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>それぞれの不正解に対するペナルティ：小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解に対する減点の割合をパーセントで設定します。
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;ul&gt;
+&lt;li&gt;&lt;a href="#quiz_taki"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>多肢選択肢問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;a href="#quiz_kizyutu"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>記述問題&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;a href="#quiz_ana"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>穴埋め問題&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/li&gt;
+&lt;/ul&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="quiz_kizyutu"&gt;記述問題&lt;/a&gt;&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="quiz_ana"&gt;穴埋め問題&lt;/a&gt;&lt;/h4&gt;</t>
+    <rPh sb="23" eb="25">
+      <t>アナウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">それぞれの不正解に対するペナルティ：小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解に対する減点の割合をパーセントで設定します。
 &lt;small&gt;※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。&lt;/small&gt;
 &lt;b&gt;ヒント：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力します。
 学生は入力したヒントの数と同じ回数まで再受験できます。
 &lt;small&gt;※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。&lt;/small&gt;
-&lt;b&gt;ヒントオプション：&lt;/b&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h4&gt;&lt;a name="quiz_taki"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>多肢選択肢問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;&lt;/h4&gt;</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;ul&gt;
-&lt;li&gt;&lt;a href="#quiz_taki"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>多肢選択肢問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;&lt;/li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;ヒントオプション：&lt;/b&gt;
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;正しくない解答をクリアする：&lt;/b&gt;再受験のとき、前回の解答を表示させないときはチェックします。&lt;/li&gt;
+&lt;li&gt;正答数を表示する：回答後に、正答数を表示する場合はチェックします。&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以降、具体的に問題を作成していきます。 このページでは多肢選択問題、記述問題、穴埋め問題の作成方法をご紹介します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;ul&gt;&lt;li&gt;&lt;b&gt;問題名：&lt;/b&gt;問題の名称を入力します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;問題テキスト：&lt;/b&gt;「次のうち、正しいものを選びなさい。」などの問題文を入力します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;デフォルト評点：&lt;/b&gt;この問題に正解したときに得られる得点を入力します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;全体に対するフィードバック：&lt;/b&gt;解答後に表示されるフィードバックを入力します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;単一または複数解答？：&lt;/b&gt;答えを 1 つだけ選べるようにするか、複数の答えを選べるようにするかを選択します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;複数回答を許可する：&lt;/b&gt;選択肢はチェックボックスの形式です。複数の選択肢にチェックをつけて選択できます。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;単一の回答のみ：&lt;/b&gt;選択肢はオプションボタン（ラジオボタン）の形式です。1 つの選択肢だけを選択できます。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;選択肢をシャッフルしますか？：&lt;/b&gt;チェックすると、受験のたびに選択肢の順番を並べ替えます。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小テスト全体の設定をしたとき、［問題の挙動］の［問題内部をシャッフルする］で「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」を選択した場合に、チェックが可能です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック "/>
         <family val="3"/>
         <charset val="128"/>
@@ -2466,75 +2537,143 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>記述問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>選択肢に番号付けしますか？：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>好みの形式を選択してください。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/li&gt;
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>穴埋め問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/li&gt;
-&lt;/ul&gt;</t>
-    </r>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;li&gt;&lt;b&gt;標準インストラクションを表示する：&lt;/b&gt;多肢選択解答の前に「1 つを選択する」または「１つまたはそれ以上を選択する」のインストラクションを表示するか選択できます。
+例）標準インストラクションを表示するを「Yes」にした場合&lt;/li&gt;&lt;/ul&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;選択肢：&lt;/b&gt;選択肢の内容を入力します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;評点：&lt;/b&gt;この選択肢を選んだときに得られる得点を、［デフォルト評点］に対するパーセントで入力します。
+例えば、［デフォルト評点］が 1 点の場合、ここを「50％」にしておくと、この選択肢を選んだときには 0.5 点になります。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;フィードバック：&lt;/b&gt;この選択肢を選んだ場合に表示するフィードバックを入力します。&lt;/li&gt;&lt;/ul&gt;
+&lt;small&gt;※ 選択肢の入力欄が足りない場合は、［さらに 3 件の選択肢入力欄を追加する］ボタンをクリックしてください。&lt;/small&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;すべての正答：&lt;/b&gt;正解の場合に表示するフィードバックを入力します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;すべての部分的に正しい解答：&lt;/b&gt;部分的に正解だった時に表示するフィードバックを入力します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;オプション：&lt;/b&gt;回答後に正答数を表示する場合はチェックします。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;すべての不正解：&lt;/b&gt;不正解の場合に表示するフィードバックを入力します。&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>［小テストの編集］画面で、問題が追加されていることを確認します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ［追加する問題タイプを選択する］ダイアログボックスで、［記述問題］を選択肢、
+［追加］ボタンをクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定項目を入力します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;small&gt;※ 穴埋め問題フォーマットで使用する記号は以下となります。&lt;/small&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;問題名：&lt;/b&gt;問題の名称を入力します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;問題テキスト：&lt;/b&gt;「次のうち、正しいものを選びなさい。」などの、問題文を入力しま
+す。&lt;li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;table border="1" width="200"&gt;
+    &lt;tr&gt;
+      &lt;td&gt;{}&lt;/td&gt;&lt;td&gt;問題となる部分全体をくくります&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt;｛1 (フォーマット先頭の数字)&lt;/td&gt;&lt;td&gt;問題の比重（配点）を表します&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt;: （半角コロン） &lt;/td&gt;&lt;td&gt;問題形式をくくります&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt;~&lt;/td&gt;&lt;td&gt;答と答の区切り記号です&lt;/td&gt;
+   &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt;# &lt;/td&gt;&lt;td&gt;答とフィードバックの間を区切ります&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt;= &lt;/td&gt;&lt;td&gt;以下に続く答えが正答であることを示します&lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/table&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;全体に対するフィードバック：&lt;/b&gt;解答後に表示されるフィードバックを入力します。&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 問題入力後、各空欄に登録した正解や配点の確認のために［問題テキストをデコードおよび確認する］ボタンをクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正解や配点の内容が誤っていれば、(2)に戻ってやり直します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要に応じて複数受験を設定します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>［小テストの編集］画面で、問題が追加されていることを確認します。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2542,7 +2681,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2643,6 +2782,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -3075,12 +3227,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3117,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3142,19 +3294,19 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3162,7 +3314,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3257,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3282,19 +3434,19 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3302,25 +3454,25 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3378,8 +3530,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3398,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3423,109 +3575,109 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="177">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45.75">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="75">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="59.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72.75">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="64.5">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="72.75">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="158.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="93.75">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3540,24 +3692,24 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
+    <col min="2" max="2" width="107.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3565,7 +3717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3573,7 +3725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3581,204 +3733,211 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>132</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="27">
+      <c r="C10" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="93.75">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="93.75">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>137</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="226.5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="131.25">
+      <c r="B18" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="75">
+      <c r="B20" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="11" t="s">
+    <row r="22" spans="2:3" ht="150">
+      <c r="B22" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="56.25">
+      <c r="B23" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="11" t="s">
+    <row r="27" spans="2:3" ht="37.5">
+      <c r="B27" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="56.25">
+      <c r="B29" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="375">
+      <c r="B31" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="37.5">
+      <c r="B33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="56.25">
-      <c r="B23" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="56.25">
-      <c r="B25" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="56.25">
-      <c r="B28" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="37.5">
-      <c r="B29" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="150">
-      <c r="B36" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3944,13 +4103,13 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3958,7 +4117,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3966,7 +4125,7 @@
     <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4066,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -4111,7 +4270,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -4120,7 +4279,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27">
@@ -4131,7 +4290,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -4142,7 +4301,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -4153,7 +4312,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="54">
@@ -4164,30 +4323,30 @@
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="257.25">
       <c r="B13" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4303,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4328,13 +4487,13 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4342,7 +4501,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4350,13 +4509,13 @@
     <row r="9" spans="1:4" ht="108">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4416,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4441,12 +4600,12 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="168.75">
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4483,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4508,18 +4667,18 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="56.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4553,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4578,70 +4737,70 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="32.25">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="64.5">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="37.5">
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="37.5">
       <c r="B17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4675,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4700,25 +4859,25 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4726,19 +4885,19 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="54">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4768,7 +4927,7 @@
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4828,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4853,28 +5012,28 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="37.5">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="56.25">
       <c r="B9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4920,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4945,33 +5104,33 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="37.5">
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="37.5">
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="56.25">
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5231,15 +5390,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -5255,6 +5405,15 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5277,14 +5436,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5293,4 +5444,12 @@
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEE3E23-6406-4573-8727-C9B0EA93169E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A67F4F-5A4D-40FE-BD53-BA0E38820696}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="5" activeTab="12" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="162">
   <si>
     <t>header1</t>
   </si>
@@ -389,24 +389,6 @@
       <t>ショウ</t>
     </rPh>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>問題バンク</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>問題の登録</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>答案の一覧表示</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">&lt;h3&gt;問題バンク：小テストの問題を再利用する&lt;/h3&gt;
@@ -428,9 +410,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>小テストに追加できる問題の種類</t>
-  </si>
-  <si>
     <t>小テストを作成する</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -679,79 +658,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">次章からは、各設定値を説明します。必要に応じて設定してください。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;ul&gt;
-&lt;li&gt;&lt;a herf="p02.html"&gt;タイミング&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="p03.html"&gt;評定&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="p04.html"&gt;レイアウト&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="p05.html"&gt;問題の挙動&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="p06.html"&gt;レビューオプション&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="p07.html"&gt;アピアランス&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="p08.html"&gt;受験に関する特別制限&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="p09.html"&gt;全体フィードバック&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="p10.html"&gt;モジュール共通設定&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;利用制限&lt;/li&gt;
-&lt;li&gt;活動完了&lt;/li&gt;
-&lt;ul&gt;</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ジショウ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="291" eb="293">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="294" eb="295">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="297" eb="301">
-      <t>トクベツセイゲン</t>
-    </rPh>
-    <rPh sb="334" eb="336">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="381" eb="383">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="383" eb="385">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="399" eb="403">
-      <t>リヨウセイゲン</t>
-    </rPh>
-    <rPh sb="413" eb="415">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="415" eb="417">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>test-s1.png</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;h3&gt;小テストとは&lt;/h3&gt;&lt;br&gt;
@@ -2106,15 +2014,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>解答の選択肢を入力します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 総合フィードバックを入力します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>必要に応じて複数受験を設定します</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2442,21 +2342,6 @@
     <rPh sb="23" eb="25">
       <t>アナウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">それぞれの不正解に対するペナルティ：小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解に対する減点の割合をパーセントで設定します。
-&lt;small&gt;※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。&lt;/small&gt;
-&lt;b&gt;ヒント：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力します。
-学生は入力したヒントの数と同じ回数まで再受験できます。
-&lt;small&gt;※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。&lt;/small&gt;
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;ヒントオプション：&lt;/b&gt;
-&lt;ul&gt;&lt;li&gt;&lt;b&gt;正しくない解答をクリアする：&lt;/b&gt;再受験のとき、前回の解答を表示させないときはチェックします。&lt;/li&gt;
-&lt;li&gt;正答数を表示する：回答後に、正答数を表示する場合はチェックします。&lt;/li&gt;&lt;/ul&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2596,7 +2481,52 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;選択肢：&lt;/b&gt;選択肢の内容を入力します。&lt;/li&gt;
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;すべての正答：&lt;/b&gt;正解の場合に表示するフィードバックを入力します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;すべての部分的に正しい解答：&lt;/b&gt;部分的に正解だった時に表示するフィードバックを入力します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;オプション：&lt;/b&gt;回答後に正答数を表示する場合はチェックします。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;すべての不正解：&lt;/b&gt;不正解の場合に表示するフィードバックを入力します。&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>［小テストの編集］画面で、問題が追加されていることを確認します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ［追加する問題タイプを選択する］ダイアログボックスで、［記述問題］を選択肢、
+［追加］ボタンをクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定項目を入力します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;small&gt;※ 穴埋め問題フォーマットで使用する記号は以下となります。&lt;/small&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;全体に対するフィードバック：&lt;/b&gt;解答後に表示されるフィードバックを入力します。&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 問題入力後、各空欄に登録した正解や配点の確認のために［問題テキストをデコードおよび確認する］ボタンをクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正解や配点の内容が誤っていれば、(2)に戻ってやり直します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要に応じて複数受験を設定します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>［小テストの編集］画面で、問題が追加されていることを確認します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解答の選択肢を入力します
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;選択肢：&lt;/b&gt;選択肢の内容を入力します。&lt;/li&gt;
 &lt;li&gt;&lt;b&gt;評点：&lt;/b&gt;この選択肢を選んだときに得られる得点を、［デフォルト評点］に対するパーセントで入力します。
 例えば、［デフォルト評点］が 1 点の場合、ここを「50％」にしておくと、この選択肢を選んだときには 0.5 点になります。&lt;/li&gt;
 &lt;li&gt;&lt;b&gt;フィードバック：&lt;/b&gt;この選択肢を選んだ場合に表示するフィードバックを入力します。&lt;/li&gt;&lt;/ul&gt;
@@ -2604,37 +2534,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;すべての正答：&lt;/b&gt;正解の場合に表示するフィードバックを入力します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;すべての部分的に正しい解答：&lt;/b&gt;部分的に正解だった時に表示するフィードバックを入力します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;オプション：&lt;/b&gt;回答後に正答数を表示する場合はチェックします。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;すべての不正解：&lt;/b&gt;不正解の場合に表示するフィードバックを入力します。&lt;/li&gt;&lt;/ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>［小テストの編集］画面で、問題が追加されていることを確認します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ［追加する問題タイプを選択する］ダイアログボックスで、［記述問題］を選択肢、
-［追加］ボタンをクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>設定項目を入力します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;small&gt;※ 穴埋め問題フォーマットで使用する記号は以下となります。&lt;/small&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;問題名：&lt;/b&gt;問題の名称を入力します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;問題テキスト：&lt;/b&gt;「次のうち、正しいものを選びなさい。」などの、問題文を入力しま
-す。&lt;li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;table border="1" width="200"&gt;
+    <t>必要に応じて複数受験を設定します&lt;br&gt;
+&lt;b&gt;それぞれの不正解に対するペナルティ：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解に対する減点の割合をパーセントで設定します。
+&lt;small&gt;※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。&lt;/small&gt;&lt;br&gt;
+&lt;b&gt;ヒント：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力します。
+学生は入力したヒントの数と同じ回数まで再受験できます。
+&lt;small&gt;※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。&lt;/small&gt;&lt;br&gt;
+&lt;b&gt;ヒントオプション：&lt;/b&gt;
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;正しくない解答をクリアする：&lt;/b&gt;再受験のとき、前回の解答を表示させないときはチェックします。&lt;/li&gt;
+&lt;li&gt;正答数を表示する：回答後に、正答数を表示する場合はチェックします。&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;table border="1" width="400"&gt;
     &lt;tr&gt;
       &lt;td&gt;{}&lt;/td&gt;&lt;td&gt;問題となる部分全体をくくります&lt;/td&gt;
     &lt;/tr&gt;
@@ -2657,23 +2569,106 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;b&gt;全体に対するフィードバック：&lt;/b&gt;解答後に表示されるフィードバックを入力します。&lt;/li&gt;&lt;/ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 問題入力後、各空欄に登録した正解や配点の確認のために［問題テキストをデコードおよび確認する］ボタンをクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>正解や配点の内容が誤っていれば、(2)に戻ってやり直します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>必要に応じて複数受験を設定します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>［小テストの編集］画面で、問題が追加されていることを確認します。</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;問題名：&lt;/b&gt;問題の名称を入力します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;問題テキスト：&lt;/b&gt;「次のうち、正しいものを選びなさい。」などの、問題文を入力しま
+す。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">次章からは、各設定値を説明します。必要に応じて設定してください。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;ul&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p02.html"&gt;タイミング&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p03.html"&gt;評定&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p04.html"&gt;レイアウト&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p05.html"&gt;問題の挙動&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p06.html"&gt;レビューオプション&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p07.html"&gt;アピアランス&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p08.html"&gt;受験に関する特別制限&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p09.html"&gt;全体フィードバック&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p10.html"&gt;モジュール共通設定&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;利用制限&lt;/li&gt;
+&lt;li&gt;活動完了&lt;/li&gt;
+&lt;ul&gt;</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="392" eb="394">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="395" eb="397">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="676" eb="678">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="679" eb="680">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="682" eb="686">
+      <t>トクベツセイゲン</t>
+    </rPh>
+    <rPh sb="774" eb="776">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="876" eb="878">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="878" eb="880">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="894" eb="898">
+      <t>リヨウセイゲン</t>
+    </rPh>
+    <rPh sb="908" eb="910">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="910" eb="912">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストに追加できる問題の種類(編集中）</t>
+    <rPh sb="16" eb="19">
+      <t>ヘンシュウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題の登録(編集中）</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題バンク(編集中）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>答案の一覧表示(編集中）</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3186,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D0ECD8-2CAD-49B7-B2DF-5D7100C10246}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3227,12 +3222,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3269,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3294,19 +3289,19 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3314,7 +3309,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3409,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3434,19 +3429,19 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3454,25 +3449,25 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3530,8 +3525,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3550,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3575,109 +3570,109 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="177">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45.75">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="75">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="59.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72.75">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="64.5">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="72.75">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="158.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="93.75">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3692,10 +3687,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3714,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3742,7 +3737,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3757,7 +3752,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -3775,25 +3770,25 @@
     <row r="11" spans="1:3" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="93.75">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -3802,7 +3797,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
@@ -3811,127 +3806,106 @@
     <row r="16" spans="1:3" ht="226.5">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="131.25">
-      <c r="B18" s="3" t="s">
+    <row r="17" spans="2:3" ht="150">
+      <c r="B17" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="75">
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="75">
+      <c r="B19" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="206.25">
       <c r="B20" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="150">
-      <c r="B22" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="56.25">
-      <c r="B23" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
-        <v>142</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="37.5">
+      <c r="B24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="56.25">
+      <c r="B26" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="375">
+      <c r="B28" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="37.5">
-      <c r="B27" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="14" t="s">
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="37.5">
+      <c r="B30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="B28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="56.25">
-      <c r="B29" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="375">
-      <c r="B31" s="3" t="s">
-        <v>159</v>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="37.5">
+      <c r="B32" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
       <c r="B33" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3949,7 +3923,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3968,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3996,7 +3970,7 @@
     <row r="7" spans="1:2" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4050,7 +4024,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4069,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4103,13 +4077,13 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4117,7 +4091,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4125,7 +4099,7 @@
     <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4201,8 +4175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4225,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -4270,7 +4244,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -4279,7 +4253,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27">
@@ -4290,7 +4264,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -4301,7 +4275,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -4312,7 +4286,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="54">
@@ -4323,30 +4297,30 @@
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="257.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="407.25">
       <c r="B13" s="12" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4462,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4487,13 +4461,13 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4501,7 +4475,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4509,13 +4483,13 @@
     <row r="9" spans="1:4" ht="108">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4575,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4600,12 +4574,12 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="168.75">
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4642,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4667,18 +4641,18 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="56.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4712,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4737,70 +4711,70 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="32.25">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="64.5">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="37.5">
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="37.5">
       <c r="B17" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4834,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4859,25 +4833,25 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4885,19 +4859,19 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="54">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4927,7 +4901,7 @@
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4987,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5012,28 +4986,28 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="37.5">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="56.25">
       <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5079,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5104,33 +5078,33 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="37.5">
       <c r="B9" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="37.5">
       <c r="B10" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="56.25">
       <c r="B11" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5390,6 +5364,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -5405,15 +5388,6 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5436,6 +5410,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5444,12 +5426,4 @@
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A67F4F-5A4D-40FE-BD53-BA0E38820696}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1195BFA9-B23D-48C2-8C6B-ADBB49C3F6D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="3" activeTab="12" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="169">
   <si>
     <t>header1</t>
   </si>
@@ -1931,12 +1931,6 @@
       <t>&lt;/h3&gt;作文問題タイプには、1つ以上のファイルをアップロードしたり、オンラインでテキストを入力したりして解答するオプションがあります。 （より長い作文、テキスト、またはファイルのアップロードについては、この問題タイプではなく、課題活動の使用を検討することをお勧めします。）
 作文問題は、他の小テストの問題タイプと同じ方法で作成されます。違いは、作文問題には手動で評点を付ける必要があり、教師が作文に評点を付けるまで、学生は最終評定を取得しないことです。</t>
     </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="quiz8"&gt;穴埋め問題(Cloze)&lt;/a&gt;&lt;/h3&gt;穴埋め問題は、テキスト内に多肢選択問題、記述問題、数値問題を挿入することができる
-非常に柔軟な問題形式です。ただし、問題を作成するためのグラフィカルインターフェー
-スは用意されていません。テキストボックスを使用するか、外部ファイルから問題をインポートして、問題の形式を指定する必要がありました。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2492,11 +2486,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve"> ［追加する問題タイプを選択する］ダイアログボックスで、［記述問題］を選択肢、
-［追加］ボタンをクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>設定項目を入力します</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2514,10 +2503,6 @@
   </si>
   <si>
     <t>正解や配点の内容が誤っていれば、(2)に戻ってやり直します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>必要に応じて複数受験を設定します</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2534,19 +2519,110 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>必要に応じて複数受験を設定します&lt;br&gt;
-&lt;b&gt;それぞれの不正解に対するペナルティ：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解に対する減点の割合をパーセントで設定します。
-&lt;small&gt;※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。&lt;/small&gt;&lt;br&gt;
-&lt;b&gt;ヒント：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力します。
-学生は入力したヒントの数と同じ回数まで再受験できます。
-&lt;small&gt;※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。&lt;/small&gt;&lt;br&gt;
-&lt;b&gt;ヒントオプション：&lt;/b&gt;
-&lt;ul&gt;&lt;li&gt;&lt;b&gt;正しくない解答をクリアする：&lt;/b&gt;再受験のとき、前回の解答を表示させないときはチェックします。&lt;/li&gt;
-&lt;li&gt;正答数を表示する：回答後に、正答数を表示する場合はチェックします。&lt;/li&gt;&lt;/ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;table border="1" width="400"&gt;
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;問題名：&lt;/b&gt;問題の名称を入力します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;問題テキスト：&lt;/b&gt;「次のうち、正しいものを選びなさい。」などの、問題文を入力しま
+す。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">次章からは、各設定値を説明します。必要に応じて設定してください。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;ul&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p02.html"&gt;タイミング&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p03.html"&gt;評定&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p04.html"&gt;レイアウト&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p05.html"&gt;問題の挙動&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p06.html"&gt;レビューオプション&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p07.html"&gt;アピアランス&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p08.html"&gt;受験に関する特別制限&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p09.html"&gt;全体フィードバック&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p10.html"&gt;モジュール共通設定&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;利用制限&lt;/li&gt;
+&lt;li&gt;活動完了&lt;/li&gt;
+&lt;ul&gt;</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="392" eb="394">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="395" eb="397">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="676" eb="678">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="679" eb="680">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="682" eb="686">
+      <t>トクベツセイゲン</t>
+    </rPh>
+    <rPh sb="774" eb="776">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="876" eb="878">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="878" eb="880">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="894" eb="898">
+      <t>リヨウセイゲン</t>
+    </rPh>
+    <rPh sb="908" eb="910">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="910" eb="912">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストに追加できる問題の種類(編集中）</t>
+    <rPh sb="16" eb="19">
+      <t>ヘンシュウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題の登録(編集中）</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題バンク(編集中）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>答案の一覧表示(編集中）</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;table border="1" width="500"&gt;
     &lt;tr&gt;
       &lt;td&gt;{}&lt;/td&gt;&lt;td&gt;問題となる部分全体をくくります&lt;/td&gt;
     &lt;/tr&gt;
@@ -2569,106 +2645,92 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;問題名：&lt;/b&gt;問題の名称を入力します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;問題テキスト：&lt;/b&gt;「次のうち、正しいものを選びなさい。」などの、問題文を入力しま
-す。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">次章からは、各設定値を説明します。必要に応じて設定してください。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;ul&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p02.html"&gt;タイミング&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p03.html"&gt;評定&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p04.html"&gt;レイアウト&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p05.html"&gt;問題の挙動&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p06.html"&gt;レビューオプション&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p07.html"&gt;アピアランス&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p08.html"&gt;受験に関する特別制限&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p09.html"&gt;全体フィードバック&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p10.html"&gt;モジュール共通設定&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;利用制限&lt;/li&gt;
-&lt;li&gt;活動完了&lt;/li&gt;
-&lt;ul&gt;</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ジショウ</t>
-    </rPh>
-    <rPh sb="209" eb="211">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="392" eb="394">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="395" eb="397">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="676" eb="678">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="679" eb="680">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="682" eb="686">
-      <t>トクベツセイゲン</t>
-    </rPh>
-    <rPh sb="774" eb="776">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="876" eb="878">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="878" eb="880">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="894" eb="898">
-      <t>リヨウセイゲン</t>
-    </rPh>
-    <rPh sb="908" eb="910">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="910" eb="912">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テストに追加できる問題の種類(編集中）</t>
-    <rPh sb="16" eb="19">
-      <t>ヘンシュウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>問題の登録(編集中）</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>問題バンク(編集中）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>答案の一覧表示(編集中）</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
+    <t>&lt;h3&gt;&lt;a name="quiz8"&gt;穴埋め問題(Cloze)&lt;/a&gt;&lt;/h3&gt;穴埋め問題は、テキスト内に多肢選択問題、記述問題、数値問題を挿入することができる
+非常に柔軟な問題形式です。ただし、問題を作成するためのグラフィカルインターフェースは用意されていません。
+テキストボックスを使用するか、外部ファイルから問題をインポートして、問題の形式を指定する必要がありました。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>［追加する問題タイプを選択する］ダイアログボックスで、［穴埋め問題］を選択し、［追加］ボタンをクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ［追加する問題タイプを選択する］ダイアログボックスで、［記述問題］を選択し、［追加］ボタンをクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要に応じて複数受験を設定します
+それぞれの不正解に対するペナルティ：小テスト全体の設定をしたとき、［問題の挙
+動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解
+に対する減点の割合をパーセントで設定します。
+※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。
+ヒント：小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受
+験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力
+します。学生は入力したヒントの数と同じ回数まで再受験できます。
+※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。
+ヒントオプション：
+正しくない解答をクリアする：再受験のとき、前回の解答を表示させないときは
+チェックします。
+正答数を表示する：回答後に、正答数を表示する場合はチェックします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要な設定が完了したら、［変更を保存する］をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要な設定が完了したら、［変更を保存する］ボタンをクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>［小テストの編集］画面で、問題が追加されていることを確認します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定項目を入力します
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;問題名：&lt;/b&gt;問題の名称を入力します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;問題テキスト：&lt;/b&gt;「次のうち、正しいものを選びなさい。」などの、問題文を入力します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;デフォルト評点：&lt;/b&gt;この問題に正解したときに得られる得点を入力します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;全体に対するフィードバック：&lt;/b&gt;解答後に表示されるフィードバックを入力します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;大文字小文字の区別：&lt;/b&gt;解答欄に入力された文字の、大文字小文字の区別をするかどうかを選択します&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要に応じて複数受験を設定します&lt;br&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;それぞれの不正解に対するペナルティ：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解に対する減点の割合をパーセントで設定します。&lt;/li&gt;
+&lt;small&gt;※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。&lt;/small&gt;&lt;br&gt;
+&lt;li&gt;&lt;b&gt;ヒント：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力します。
+学生は入力したヒントの数と同じ回数まで再受験できます。&lt;/li&gt;
+&lt;small&gt;※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。&lt;/small&gt;&lt;br&gt;
+&lt;li&gt;&lt;b&gt;ヒントオプション：&lt;/b&gt;
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;正しくない解答をクリアする：&lt;/b&gt;再受験のとき、前回の解答を表示させないときはチェックします。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;正答数を表示する：&lt;/b&gt;回答後に、正答数を表示する場合はチェックします。&lt;/li&gt;&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 必要に応じて複数受験を設定します
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;それぞれの不正解に対するペナルティ：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解に対する減点の割合をパーセントで設定します。&lt;/li&gt;
+&lt;small&gt;※不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。&lt;/small&gt;
+&lt;li&gt;&lt;b&gt;ヒント：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力します。学生は入力したヒントの数と同じ回数まで再受験できます。&lt;/li&gt;
+&lt;small&gt;※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。&lt;/small&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正解を入力します
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;答え：&lt;/b&gt;正解の文章を入力します。文章が複数パターン考えられる場合には、［答え 2］や［答え 3］など、複数の欄に分けて入力してください。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;評点：&lt;/b&gt;この選択肢を選んだ時に得られる評点を［デフォルト評点］に対するパーセントで指定します。
+例えば、［デフォルト評点］が 1 点の場合、ここを「100％」にしておくと、この選択肢を選んだときには 1 点になります&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;フィードバッグ：&lt;/b&gt;この選択肢を選んだ場合に表示するフィードバックを入力します。&lt;/li&gt;
+&lt;small&gt;※ 入力欄が足りない場合は、［さらに 3 個の答え入力欄を追加する］をクリックしてください。&lt;/small&gt;
+&lt;/ul&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3181,7 +3243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D0ECD8-2CAD-49B7-B2DF-5D7100C10246}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3222,7 +3284,7 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
@@ -3525,8 +3587,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3545,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3630,7 +3692,7 @@
     <row r="12" spans="1:4" ht="64.5">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
@@ -3654,7 +3716,7 @@
     <row r="14" spans="1:4" ht="158.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -3663,10 +3725,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="93.75">
+    <row r="15" spans="1:4" ht="75">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
@@ -3687,10 +3749,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3709,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3770,25 +3832,25 @@
     <row r="11" spans="1:3" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="93.75">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -3797,7 +3859,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
@@ -3806,7 +3868,7 @@
     <row r="16" spans="1:3" ht="226.5">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>6</v>
@@ -3814,98 +3876,141 @@
     </row>
     <row r="17" spans="2:3" ht="150">
       <c r="B17" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="75">
       <c r="B19" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="206.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="262.5">
       <c r="B20" s="3" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="37.5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24" s="3" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
+    <row r="25" spans="2:3" ht="150">
+      <c r="B25" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="2:3" ht="187.5">
+      <c r="B26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="2:3" ht="187.5">
+      <c r="B27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="56.25">
+      <c r="B33" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="375">
+      <c r="B35" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="56.25">
-      <c r="B26" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" t="s">
+    <row r="37" spans="2:3" ht="37.5">
+      <c r="B37" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" ht="375">
-      <c r="B28" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" t="s">
+      <c r="C37" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="37.5">
-      <c r="B30" s="3" t="s">
+    <row r="39" spans="2:3" ht="243.75">
+      <c r="B39" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3942,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4043,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4302,7 +4407,7 @@
     </row>
     <row r="13" spans="1:4" ht="407.25">
       <c r="B13" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
@@ -5364,15 +5469,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -5388,6 +5484,15 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5410,14 +5515,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5426,4 +5523,12 @@
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1195BFA9-B23D-48C2-8C6B-ADBB49C3F6D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08251B1F-D6D7-4B1C-82A7-8EC70DA31B0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="3" activeTab="12" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="170">
   <si>
     <t>header1</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>問題バンクの［問題］をクリックします</t>
-  </si>
-  <si>
-    <t>［新しい問題を作成する］をクリックします</t>
-  </si>
-  <si>
-    <t>問題はカテゴリに分類することができます。カテゴリを利用している場合は、問題を登録するカテゴリに注意してください。</t>
   </si>
   <si>
     <t>［追加する問題タイプを選択する］ダイアログボックスで登録したい問題の形式を選択して問題を作成します</t>
@@ -738,9 +732,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>既存のQA追加（受験後の正解非表示）</t>
-  </si>
-  <si>
     <t>受験に関する特別制限：パスワードやアドレスによる制限を設定する</t>
     <rPh sb="24" eb="26">
       <t>セイゲン</t>
@@ -762,18 +753,6 @@
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. テストをひらきます</t>
-  </si>
-  <si>
-    <t>2. 右上の歯車マークをクリックします</t>
-  </si>
-  <si>
-    <t>3. 「受験結果」の「解答」を選択します</t>
-  </si>
-  <si>
-    <t>この表はダウンロードすることも可能です。「テーブルデータをダウンロードする」で形式を選択し、「ダウンロード」をクリックしてください。</t>
   </si>
   <si>
     <r>
@@ -1099,61 +1078,6 @@
   </si>
   <si>
     <t>test-s2.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;受験中&lt;/h4&gt;「複数受験インタラクティブ」のような、特定の挙動のみに関連します。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;受験後すぐに&lt;/h4&gt;学生が小テストを終えて「すべてを送信して終了する」ボタンをクリックしてから 2 分以内です。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>後で、小テスト実施中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>受験を終了した後でかつ小テスト終了日時より前です。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;小テスト終了後&lt;/h4&gt;小テスト終了日時を経過した後です。小テストに終了日時が設定されていない場合は無視されます。&lt;br&gt;例えば、「受験後すぐに」の「正解」をチェックしておくと、受験を終わった学生はすぐに正解を知ることができます。&lt;br&gt;この場合、他の学生がその学生から正解を教わることができてしまいます。&lt;br&gt;「正解」のチェックを、「小テスト終了後」のみにすると、これを防ぐことができます。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2507,15 +2431,6 @@
   </si>
   <si>
     <t>［小テストの編集］画面で、問題が追加されていることを確認します。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>解答の選択肢を入力します
-&lt;ul&gt;&lt;li&gt;&lt;b&gt;選択肢：&lt;/b&gt;選択肢の内容を入力します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;評点：&lt;/b&gt;この選択肢を選んだときに得られる得点を、［デフォルト評点］に対するパーセントで入力します。
-例えば、［デフォルト評点］が 1 点の場合、ここを「50％」にしておくと、この選択肢を選んだときには 0.5 点になります。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;フィードバック：&lt;/b&gt;この選択肢を選んだ場合に表示するフィードバックを入力します。&lt;/li&gt;&lt;/ul&gt;
-&lt;small&gt;※ 選択肢の入力欄が足りない場合は、［さらに 3 件の選択肢入力欄を追加する］ボタンをクリックしてください。&lt;/small&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2659,22 +2574,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>必要に応じて複数受験を設定します
-それぞれの不正解に対するペナルティ：小テスト全体の設定をしたとき、［問題の挙
-動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解
-に対する減点の割合をパーセントで設定します。
-※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。
-ヒント：小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受
-験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力
-します。学生は入力したヒントの数と同じ回数まで再受験できます。
-※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。
-ヒントオプション：
-正しくない解答をクリアする：再受験のとき、前回の解答を表示させないときは
-チェックします。
-正答数を表示する：回答後に、正答数を表示する場合はチェックします。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>必要な設定が完了したら、［変更を保存する］をクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2731,6 +2630,123 @@
 &lt;li&gt;&lt;b&gt;フィードバッグ：&lt;/b&gt;この選択肢を選んだ場合に表示するフィードバックを入力します。&lt;/li&gt;
 &lt;small&gt;※ 入力欄が足りない場合は、［さらに 3 個の答え入力欄を追加する］をクリックしてください。&lt;/small&gt;
 &lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解答の選択肢を入力します
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;選択肢：&lt;/b&gt;選択肢の内容を入力します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;評点：&lt;/b&gt;この選択肢を選んだときに得られる得点を、［デフォルト評点］に対するパーセントで入力します。
+例えば、［デフォルト評点］が 1 点の場合、ここを「50％」にしておくと、この選択肢を選んだときには 0.5 点になります。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;フィードバック：&lt;/b&gt;この選択肢を選んだ場合に表示するフィードバックを入力します。&lt;/li&gt;
+&lt;small&gt;※ 選択肢の入力欄が足りない場合は、［さらに 3 件の選択肢入力欄を追加する］ボタンをクリックしてください。&lt;/small&gt;
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要に応じて複数受験を設定します
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;それぞれの不正解に対するペナルティ：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解に対する減点の割合をパーセントで設定します。&lt;/li&gt;
+&lt;small&gt;※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。&lt;/small&gt;
+&lt;li&gt;&lt;b&gt;ヒント：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力します。学生は入力したヒントの数と同じ回数まで再受験できます。&lt;li&gt;
+&lt;small&gt;※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。&lt;/small&gt;
+&lt;li&gt;&lt;b&gt;ヒントオプション：&lt;/b&gt;
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;正しくない解答をクリアする：&lt;/b&gt;再受験のとき、前回の解答を表示させないときはチェックします。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;正答数を表示する：&lt;/b&gt;回答後に、正答数を表示する場合はチェックします。&lt;/li&gt;&lt;/ul&gt;
+&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>［新しい問題を作成する］をクリックします
+問題はカテゴリに分類することができます。カテゴリを利用している場合は、問題を登録するカテゴリに注意してください。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テストをひらきます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上の歯車マークをクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「受験結果」の「解答」を選択します
+この表はダウンロードすることも可能です。「テーブルデータをダウンロードする」で形式を選択し、「ダウンロード」をクリックしてください。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例えばグループごとに受験時期をずらしてテストを課す場合など、受験後の学生にテストの正解を見せたくない時は、「答えの正誤」や「正解」のチェックを外すとテストの正解を隠すことができます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、テストの正解だけでなく、問題や評点も見せたくない場合は、すべてのチェックを外したください。
+そうすると「評定」にも評点が表示されなくなります。この場合、学生がテストを開いた場合に表示されるのは、受験回数と受験日時のみです。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;受験中&lt;/h3&gt;「複数受験インタラクティブ」のような、特定の挙動のみに関連します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;受験後すぐに&lt;/h3&gt;学生が小テストを終えて「すべてを送信して終了する」ボタンをクリックしてから 2 分以内です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>後で、小テスト実施中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>受験を終了した後でかつ小テスト終了日時より前です。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テスト終了後&lt;/h3&gt;小テスト終了日時を経過した後です。小テストに終了日時が設定されていない場合は無視されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;オススメの設定：受験後の正解非表示&lt;/h4&gt;</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デフォルトの状態では、テストの問題、学生の解答、解答の正誤などが表示されるようになっています。
+受験を終わった学生はすぐに正解を知ることができます</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2818,12 +2834,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="3"/>
@@ -2853,6 +2863,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2924,7 +2941,7 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3243,9 +3260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D0ECD8-2CAD-49B7-B2DF-5D7100C10246}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -3258,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3274,7 +3289,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3284,12 +3299,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3326,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3342,7 +3357,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3351,19 +3366,19 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3371,7 +3386,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3466,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3482,7 +3497,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3491,19 +3506,19 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3511,25 +3526,25 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3607,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3623,7 +3638,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3632,109 +3647,109 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="177">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45.75">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="75">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="59.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72.75">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="64.5">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="72.75">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="158.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="75">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3751,8 +3766,8 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3771,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3787,7 +3802,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3799,7 +3814,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3814,7 +3829,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -3832,25 +3847,25 @@
     <row r="11" spans="1:3" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="93.75">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -3859,7 +3874,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="11" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
@@ -3868,50 +3883,50 @@
     <row r="16" spans="1:3" ht="226.5">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="150">
+    <row r="17" spans="2:3" ht="168.75">
       <c r="B17" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="75">
       <c r="B19" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="262.5">
       <c r="B20" s="3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>6</v>
@@ -3919,42 +3934,42 @@
     </row>
     <row r="25" spans="2:3" ht="150">
       <c r="B25" s="3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C25" s="14"/>
     </row>
     <row r="26" spans="2:3" ht="187.5">
       <c r="B26" s="3" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C26" s="14"/>
     </row>
     <row r="27" spans="2:3" ht="187.5">
       <c r="B27" s="3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="3" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C28" s="14"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C29" s="14"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>6</v>
@@ -3962,32 +3977,32 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="56.25">
       <c r="B33" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="375">
       <c r="B35" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="37.5">
       <c r="B37" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>6</v>
@@ -3995,22 +4010,22 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="243.75">
       <c r="B39" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4025,10 +4040,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4036,21 +4051,21 @@
     <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4058,61 +4073,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" ht="67.5">
+    <row r="7" spans="1:3" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="40.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1"/>
-      <c r="B12" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4129,7 +4147,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4148,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4164,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4176,36 +4194,36 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="27">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
@@ -4304,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -4324,7 +4342,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4343,13 +4361,13 @@
     </row>
     <row r="7" spans="1:4" ht="40.5">
       <c r="B7" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -4358,18 +4376,18 @@
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27">
       <c r="B9" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -4380,7 +4398,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -4391,41 +4409,41 @@
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="54">
       <c r="B12" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="407.25">
       <c r="B13" s="12" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4541,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4557,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4566,13 +4584,13 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4580,7 +4598,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4588,13 +4606,13 @@
     <row r="9" spans="1:4" ht="108">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4654,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4670,7 +4688,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4679,12 +4697,12 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="168.75">
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4721,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4737,7 +4755,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4746,18 +4764,18 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="56.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4791,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4807,7 +4825,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4816,70 +4834,70 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="32.25">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="64.5">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="37.5">
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="37.5">
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4894,7 +4912,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4913,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4929,7 +4947,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4938,25 +4956,25 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4964,36 +4982,53 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="54">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="11"/>
+      <c r="B15" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
@@ -5005,9 +5040,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-      <c r="B18" s="16" t="s">
-        <v>67</v>
-      </c>
+      <c r="B18" s="16"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
@@ -5066,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5082,7 +5115,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5091,28 +5124,28 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="37.5">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="56.25">
       <c r="B9" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5158,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5174,7 +5207,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5183,33 +5216,33 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="37.5">
       <c r="B9" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="37.5">
       <c r="B10" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="56.25">
       <c r="B11" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5469,6 +5502,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
@@ -5484,15 +5526,6 @@
     <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5515,6 +5548,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5523,12 +5564,4 @@
     <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08251B1F-D6D7-4B1C-82A7-8EC70DA31B0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9112409-8DA7-4967-8461-E507F47551DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -28,6 +28,7 @@
     <sheet name="p12" sheetId="2" r:id="rId13"/>
     <sheet name="p13" sheetId="30" r:id="rId14"/>
     <sheet name="p14" sheetId="27" r:id="rId15"/>
+    <sheet name="p15" sheetId="32" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="173">
   <si>
     <t>header1</t>
   </si>
@@ -709,49 +710,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>モジュール共通設定：学生またはグループの閲覧制限を設定する</t>
-    <rPh sb="5" eb="7">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セイゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タイミング：日時制限を設定する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>受験に関する特別制限：パスワードやアドレスによる制限を設定する</t>
-    <rPh sb="24" eb="26">
-      <t>セイゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全体フィードバック：評点で表示するテキスト内容を変える</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1807,53 +1766,6 @@
       </rPr>
       <t>&lt;/h3&gt;記述問題では、学生は問題 (画像を含む場合もある) に答えるために単語やフレーズを入力します。解答は大文字と小文字を区別することも、しないこともできます。答えは単語でもフレーズでもかまいませんが、許容される答えの1つと正確に一致する必要があります。異なる言い回しで書かれた正解を見逃さないよう、必要な答えはできるだけ短くするのがよいでしょう。
 詳しい設定方法は&lt;a href="p12.html"&gt;こちら&lt;/a&gt;</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h3&gt;&lt;a name="quiz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;作文問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;作文問題タイプには、1つ以上のファイルをアップロードしたり、オンラインでテキストを入力したりして解答するオプションがあります。 （より長い作文、テキスト、またはファイルのアップロードについては、この問題タイプではなく、課題活動の使用を検討することをお勧めします。）
-作文問題は、他の小テストの問題タイプと同じ方法で作成されます。違いは、作文問題には手動で評点を付ける必要があり、教師が作文に評点を付けるまで、学生は最終評定を取得しないことです。</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -2441,74 +2353,6 @@
   </si>
   <si>
     <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">次章からは、各設定値を説明します。必要に応じて設定してください。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;ul&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p02.html"&gt;タイミング&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p03.html"&gt;評定&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p04.html"&gt;レイアウト&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p05.html"&gt;問題の挙動&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p06.html"&gt;レビューオプション&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p07.html"&gt;アピアランス&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p08.html"&gt;受験に関する特別制限&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p09.html"&gt;全体フィードバック&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p10.html"&gt;モジュール共通設定&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;利用制限&lt;/li&gt;
-&lt;li&gt;活動完了&lt;/li&gt;
-&lt;ul&gt;</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ジショウ</t>
-    </rPh>
-    <rPh sb="209" eb="211">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="392" eb="394">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="395" eb="397">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="676" eb="678">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="679" eb="680">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="682" eb="686">
-      <t>トクベツセイゲン</t>
-    </rPh>
-    <rPh sb="774" eb="776">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="876" eb="878">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="878" eb="880">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="894" eb="898">
-      <t>リヨウセイゲン</t>
-    </rPh>
-    <rPh sb="908" eb="910">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="910" eb="912">
-      <t>カンリョウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2747,6 +2591,243 @@
   <si>
     <t>デフォルトの状態では、テストの問題、学生の解答、解答の正誤などが表示されるようになっています。
 受験を終わった学生はすぐに正解を知ることができます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受験に関する特別制限：パスワードやIPアドレスによる制限を設定する</t>
+    <rPh sb="26" eb="28">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体フィードバック：受験終了後に表示するテキストを指定する</t>
+    <rPh sb="10" eb="15">
+      <t>ジュケンシュウリョウゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作文問題を評定する(編集中）</t>
+    <rPh sb="0" eb="4">
+      <t>サクブンモンダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _小テスト15</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;作文問題を評定する&lt;/h3&gt;</t>
+    <rPh sb="4" eb="8">
+      <t>サクブンモンダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モジュール共通設定：利用状態の設定やIDナンバーを設定</t>
+    <rPh sb="5" eb="7">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">次章からは、各設定値を説明します。必要に応じて設定してください。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;ul&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p02.html"&gt;タイミング&lt;/a&gt;：日時制限を設定する&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p03.html"&gt;評定&lt;/a&gt;：合格点や受験回数等 評定に関する設定をする&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p04.html"&gt;レイアウト&lt;/a&gt;：表示する問題数や問題のスキップ禁止を設定&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p05.html"&gt;問題の挙動&lt;/a&gt;：問題のシャッフルや複数回解答等を設定する&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p06.html"&gt;レビューオプション&lt;/a&gt;：学生に公開する結果情報とタイミングを設定&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p07.html"&gt;アピアランス&lt;/a&gt;：小テストの表示に関する設定をする&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p08.html"&gt;受験に関する特別制限&lt;/a&gt;：パスワードやIPアドレスによる制限を設定&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p09.html"&gt;全体フィードバック&lt;/a&gt;：受験終了後に表示するテキストを指定&lt;/li&gt;
+&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p10.html"&gt;モジュール共通設定&lt;/a&gt;：利用状態の設定やIDナンバーを設定&lt;/li&gt;
+&lt;li&gt;利用制限&lt;/li&gt;
+&lt;li&gt;活動完了&lt;/li&gt;
+&lt;ul&gt;</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="445" eb="447">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="448" eb="450">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="788" eb="790">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="791" eb="792">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="794" eb="798">
+      <t>トクベツセイゲン</t>
+    </rPh>
+    <rPh sb="907" eb="909">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="1027" eb="1029">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="1029" eb="1031">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1063" eb="1067">
+      <t>リヨウセイゲン</t>
+    </rPh>
+    <rPh sb="1077" eb="1079">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="1079" eb="1081">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;作文問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;作文問題タイプには、1つ以上のファイルをアップロードしたり、オンラインでテキストを入力したりして解答するオプションがあります。 （より長い作文、テキスト、またはファイルのアップロードについては、この問題タイプではなく、課題活動の使用を検討することをお勧めします。）
+作文問題は、他の小テストの問題タイプと同じ方法で作成されます。違いは、作文問題には手動で評点を付ける必要があり、教師が作文に評点を付けるまで、学生は最終評定を取得しないことです。
+作文問題を評定する手順は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p15.html"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>こちら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を参照してください。</t>
+    </r>
+    <rPh sb="256" eb="260">
+      <t>サクブンモンダイ</t>
+    </rPh>
+    <rPh sb="261" eb="263">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="350" eb="352">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3260,7 +3341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D0ECD8-2CAD-49B7-B2DF-5D7100C10246}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -3299,7 +3382,7 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
@@ -3322,7 +3405,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3341,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3372,13 +3455,13 @@
     <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3386,7 +3469,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3462,7 +3545,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3481,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3512,13 +3595,13 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3526,25 +3609,25 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3602,8 +3685,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3622,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3647,109 +3730,109 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="177">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45.75">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="75">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="59.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72.75">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="64.5">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="72.75">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="105">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="158.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="75">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3786,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3829,7 +3912,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -3847,25 +3930,25 @@
     <row r="11" spans="1:3" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="93.75">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -3874,7 +3957,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
@@ -3883,7 +3966,7 @@
     <row r="16" spans="1:3" ht="226.5">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>6</v>
@@ -3891,42 +3974,42 @@
     </row>
     <row r="17" spans="2:3" ht="168.75">
       <c r="B17" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="75">
       <c r="B19" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="262.5">
       <c r="B20" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>6</v>
@@ -3934,42 +4017,42 @@
     </row>
     <row r="25" spans="2:3" ht="150">
       <c r="B25" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C25" s="14"/>
     </row>
     <row r="26" spans="2:3" ht="187.5">
       <c r="B26" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C26" s="14"/>
     </row>
     <row r="27" spans="2:3" ht="187.5">
       <c r="B27" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C28" s="14"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C29" s="14"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>6</v>
@@ -3977,32 +4060,32 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="56.25">
       <c r="B33" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="375">
       <c r="B35" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="37.5">
       <c r="B37" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>6</v>
@@ -4010,22 +4093,22 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="243.75">
       <c r="B39" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4062,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4114,7 +4197,7 @@
     <row r="10" spans="1:3" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
@@ -4166,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4200,13 +4283,13 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4214,11 +4297,158 @@
     <row r="10" spans="1:4" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C6417B-4811-4EA6-BE6A-55E11301011C}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
@@ -4299,13 +4529,13 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="90" style="11" customWidth="1"/>
+    <col min="2" max="2" width="109.375" style="11" customWidth="1"/>
     <col min="3" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -4412,7 +4642,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="54">
+    <row r="12" spans="1:4" ht="40.5">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
@@ -4425,7 +4655,7 @@
     </row>
     <row r="13" spans="1:4" ht="407.25">
       <c r="B13" s="12" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
@@ -4559,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4590,7 +4820,7 @@
     <row r="7" spans="1:4" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4606,7 +4836,7 @@
     <row r="9" spans="1:4" ht="108">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -4702,7 +4932,7 @@
     </row>
     <row r="7" spans="1:2" ht="168.75">
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4840,64 +5070,64 @@
     <row r="7" spans="1:2" ht="51">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="32.25">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="64.5">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="37.5">
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="37.5">
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4931,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4962,19 +5192,19 @@
     <row r="7" spans="1:4" ht="32.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4982,31 +5212,31 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
@@ -5015,7 +5245,7 @@
     <row r="14" spans="1:4" ht="27">
       <c r="A14" s="1"/>
       <c r="B14" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -5024,7 +5254,7 @@
     <row r="15" spans="1:4" ht="40.5">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
@@ -5130,22 +5360,22 @@
     <row r="7" spans="1:2" ht="37.5">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="56.25">
       <c r="B9" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5171,8 +5401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F341564-8B67-45AF-A172-BC5E94ADC7AB}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5191,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5222,27 +5452,27 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="37.5">
       <c r="B9" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="37.5">
       <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="56.25">
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5253,6 +5483,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5501,7 +5749,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5510,25 +5758,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5547,21 +5788,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9112409-8DA7-4967-8461-E507F47551DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB91258-8088-4A2E-99B2-74FDE2C325BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -2505,14 +2505,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テストをひらきます</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>右上の歯車マークをクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「受験結果」の「解答」を選択します
 この表はダウンロードすることも可能です。「テーブルデータをダウンロードする」で形式を選択し、「ダウンロード」をクリックしてください。</t>
     <phoneticPr fontId="2"/>
@@ -2663,32 +2655,20 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">次章からは、各設定値を説明します。必要に応じて設定してください。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;ul&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p02.html"&gt;タイミング&lt;/a&gt;：日時制限を設定する&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p03.html"&gt;評定&lt;/a&gt;：合格点や受験回数等 評定に関する設定をする&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p04.html"&gt;レイアウト&lt;/a&gt;：表示する問題数や問題のスキップ禁止を設定&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p05.html"&gt;問題の挙動&lt;/a&gt;：問題のシャッフルや複数回解答等を設定する&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p06.html"&gt;レビューオプション&lt;/a&gt;：学生に公開する結果情報とタイミングを設定&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p07.html"&gt;アピアランス&lt;/a&gt;：小テストの表示に関する設定をする&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p08.html"&gt;受験に関する特別制限&lt;/a&gt;：パスワードやIPアドレスによる制限を設定&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p09.html"&gt;全体フィードバック&lt;/a&gt;：受験終了後に表示するテキストを指定&lt;/li&gt;
-&lt;li&gt;&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p10.html"&gt;モジュール共通設定&lt;/a&gt;：利用状態の設定やIDナンバーを設定&lt;/li&gt;
+    <t>次章からは、各設定値を説明します。必要に応じて設定してください。
+&lt;ul&gt;
+&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p02.html"&gt;タイミング&lt;/a&gt;：日時制限を設定する&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p03.html"&gt;評定&lt;/a&gt;：合格点や受験回数等 評定に関する設定をする&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p04.html"&gt;レイアウト&lt;/a&gt;：表示する問題数や問題のスキップ禁止を設定&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p05.html"&gt;問題の挙動&lt;/a&gt;：問題のシャッフルや複数回解答等を設定する&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p06.html"&gt;レビューオプション&lt;/a&gt;：学生に公開する結果情報とタイミングを設定&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p07.html"&gt;アピアランス&lt;/a&gt;：小テストの表示に関する設定をする&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p08.html"&gt;受験に関する特別制限&lt;/a&gt;：パスワードやIPアドレスによる制限を設定&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p09.html"&gt;全体フィードバック&lt;/a&gt;：受験終了後に表示するテキストを指定&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p10.html"&gt;モジュール共通設定&lt;/a&gt;：利用状態の設定やIDナンバーを設定&lt;/li&gt;
 &lt;li&gt;利用制限&lt;/li&gt;
 &lt;li&gt;活動完了&lt;/li&gt;
 &lt;ul&gt;</t>
-    </r>
     <rPh sb="0" eb="2">
       <t>ジショウ</t>
     </rPh>
@@ -2731,91 +2711,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>&lt;h3&gt;&lt;a name="quiz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;作文問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;作文問題タイプには、1つ以上のファイルをアップロードしたり、オンラインでテキストを入力したりして解答するオプションがあります。 （より長い作文、テキスト、またはファイルのアップロードについては、この問題タイプではなく、課題活動の使用を検討することをお勧めします。）
+    <t>&lt;h3&gt;&lt;a name="quiz6"&gt;作文問題&lt;/a&gt;&lt;/h3&gt;作文問題タイプには、1つ以上のファイルをアップロードしたり、オンラインでテキストを入力したりして解答するオプションがあります。 （より長い作文、テキスト、またはファイルのアップロードについては、この問題タイプではなく、課題活動の使用を検討することをお勧めします。）
 作文問題は、他の小テストの問題タイプと同じ方法で作成されます。違いは、作文問題には手動で評点を付ける必要があり、教師が作文に評点を付けるまで、学生は最終評定を取得しないことです。
-作文問題を評定する手順は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;a herf="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p15.html"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>こちら</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を参照してください。</t>
-    </r>
+作文問題を評定する手順は&lt;a href="https://support.vle.hiroshima-u.ac.jp/man/guide41_test/p15.html"&gt;こちら&lt;/a&gt;を参照してください。</t>
     <rPh sb="256" eb="260">
       <t>サクブンモンダイ</t>
     </rPh>
@@ -2827,6 +2725,32 @@
     </rPh>
     <rPh sb="350" eb="352">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースから対象の小テストをクリックします</t>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に表示されているメニューの「受験結果」をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ジュケンケッカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3342,7 +3266,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3424,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3564,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3686,7 +3610,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3799,10 +3723,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="105">
+    <row r="13" spans="1:4" ht="94.5">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
@@ -3849,7 +3773,7 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -4230,7 +4154,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4283,13 +4207,13 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4297,7 +4221,7 @@
     <row r="10" spans="1:4" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
@@ -4404,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4420,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4432,7 +4356,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4529,7 +4453,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4653,9 +4577,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="407.25">
+    <row r="13" spans="1:4" ht="310.5">
       <c r="B13" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
@@ -5204,7 +5128,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5212,31 +5136,31 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
@@ -5245,7 +5169,7 @@
     <row r="14" spans="1:4" ht="27">
       <c r="A14" s="1"/>
       <c r="B14" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -5254,7 +5178,7 @@
     <row r="15" spans="1:4" ht="40.5">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
@@ -5421,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB91258-8088-4A2E-99B2-74FDE2C325BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB16B9FC-6B7A-427E-AA50-38D81FAFEC5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="1" activeTab="6" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="172">
   <si>
     <t>header1</t>
   </si>
@@ -598,10 +598,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;新しいページ&lt;/h3&gt;１ページあたりに表示する問題数を指定することができます。&lt;br&gt;「すべての問題を１ページに表示する｣では、すべての問題は同一ページに表示されます。問題数が多い場合、1 ページあたりの問題数を制限して複数のページに分けることができます。後から、小テストの編集ページで、手動で改ページの位置を変更することもできます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;ナビゲーションメソッド&lt;/h3&gt;「順次」を指定すると、学生は小テストを順番に受験する必要があります。&lt;br&gt;前のページに戻ったり、先にスキップすることはできません。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -841,50 +837,6 @@
         <charset val="128"/>
       </rPr>
       <t>アダプティブモードと同じで、誤答の場合でもペナルティがないものです。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>即時フィードバック</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>小テスト内のそれぞれの問題に解答する都度、すぐに正解やフィードバックが表示されます。
-なお、解答内容は変更できません。</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -926,23 +878,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;制限を経過した場合&lt;/h3&gt;問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します。学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます。&lt;br&gt;&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;
-&lt;ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示して、同じ問題をもう一度表示します。学生は解答し直すことができます。通常は、間違った解答ごとに評点にペナルティを課すように設定します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示し、別な問題を表示します。&lt;/li&gt;&lt;/ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;アダプティブモード&lt;/h4&gt;学生は、1 つの問題に対して複数回の解答を行うことができます。&lt;br&gt;このモードでは、答えを間違えた場合の動作を次から選べます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1719,53 +1654,6 @@
         <charset val="128"/>
       </rPr>
       <t>をクリックしメニューから［新しい問題］をクリックします</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h3&gt;&lt;a name="quiz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;記述問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;記述問題では、学生は問題 (画像を含む場合もある) に答えるために単語やフレーズを入力します。解答は大文字と小文字を区別することも、しないこともできます。答えは単語でもフレーズでもかまいませんが、許容される答えの1つと正確に一致する必要があります。異なる言い回しで書かれた正解を見逃さないよう、必要な答えはできるだけ短くするのがよいでしょう。
-詳しい設定方法は&lt;a href="p12.html"&gt;こちら&lt;/a&gt;</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -2346,12 +2234,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;問題名：&lt;/b&gt;問題の名称を入力します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;問題テキスト：&lt;/b&gt;「次のうち、正しいものを選びなさい。」などの、問題文を入力しま
-す。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2378,29 +2260,6 @@
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;table border="1" width="500"&gt;
-    &lt;tr&gt;
-      &lt;td&gt;{}&lt;/td&gt;&lt;td&gt;問題となる部分全体をくくります&lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;td&gt;｛1 (フォーマット先頭の数字)&lt;/td&gt;&lt;td&gt;問題の比重（配点）を表します&lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;td&gt;: （半角コロン） &lt;/td&gt;&lt;td&gt;問題形式をくくります&lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;td&gt;~&lt;/td&gt;&lt;td&gt;答と答の区切り記号です&lt;/td&gt;
-   &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;td&gt;# &lt;/td&gt;&lt;td&gt;答とフィードバックの間を区切ります&lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;td&gt;= &lt;/td&gt;&lt;td&gt;以下に続く答えが正答であることを示します&lt;/td&gt;
-    &lt;/tr&gt;
-  &lt;/table&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2752,6 +2611,160 @@
     <rPh sb="20" eb="24">
       <t>ジュケンケッカ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;h3&gt;&lt;a name="quiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"&gt;記述問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;記述問題では、学生は問題 (画像を含む場合もある) に答えるために単語やフレーズを入力します。解答は大文字と小文字を区別することも、しないこともできます。答えは単語でもフレーズでもかまいませんが、許容される答えの1つと正確に一致する必要があります。異なる言い回しで書かれた正解を見逃さないよう、必要な答えはできるだけ短くするのがよいでしょう。
+詳しい設定方法は&lt;a href="p12.html#quiz_kizyutu"&gt;こちら&lt;/a&gt;</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;table border="1" width="550"&gt;
+    &lt;tr&gt;
+      &lt;td&gt;　{} &lt;/td&gt;&lt;td&gt;問題となる部分全体をくくります&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt;　｛1 (フォーマット先頭の数字) &lt;/td&gt;&lt;td&gt;問題の比重（配点）を表します&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt;　: （半角コロン） &lt;/td&gt;&lt;td&gt;問題形式をくくります&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt;　~ &lt;/td&gt;&lt;td&gt;答と答の区切り記号です&lt;/td&gt;
+   &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt;　# &lt;/td&gt;&lt;td&gt;答とフィードバックの間を区切ります&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt;　=  &lt;/td&gt;&lt;td&gt;以下に続く答えが正答であることを示します&lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/table&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;問題名：&lt;/b&gt;問題の名称を入力します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;問題テキスト：&lt;/b&gt;「次のうち、正しいものを選びなさい。」などの、問題文を入力します。&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>即時フィードバック</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小テスト内のそれぞれの問題に解答する都度、すぐに正解やフィードバックが表示されます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>なお、解答内容は変更できません。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;制限を経過した場合&lt;/h3&gt;問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します。学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;
+&lt;ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;新しいページ&lt;/h3&gt;１ページあたりに表示する問題数を指定することができます。&lt;br&gt;「すべての問題を１ページに表示する｣では、すべての問題は同一ページに表示されます。&lt;br&gt;問題数が多い場合、1 ページあたりの問題数を制限して複数のページに分けることができます。&lt;br&gt;後から、小テストの編集ページで、手動で改ページの位置を変更することもできます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;アダプティブモード&lt;/h4&gt;学生は、1 つの問題に対して複数回の解答を行うことができます。&lt;br&gt;このモードでは、答えを間違えた場合の動作を次から選べます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示して、同じ問題をもう一度表示します。学生は解答し直すことができます。通常は、間違った解答ごとに評点にペナルティを課すように設定します。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示し、別な問題を表示します。&lt;/li&gt;&lt;/ul&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3265,7 +3278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D0ECD8-2CAD-49B7-B2DF-5D7100C10246}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3306,12 +3319,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3348,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3373,19 +3386,19 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3393,7 +3406,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3488,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3513,19 +3526,19 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3533,25 +3546,25 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3609,8 +3622,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3629,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3654,109 +3667,109 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="177">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45.75">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="75">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="59.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72.75">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="64.5">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="94.5">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="158.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="75">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3773,8 +3786,8 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3793,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3836,7 +3849,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -3854,25 +3867,25 @@
     <row r="11" spans="1:3" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="93.75">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -3881,7 +3894,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
@@ -3890,7 +3903,7 @@
     <row r="16" spans="1:3" ht="226.5">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>6</v>
@@ -3898,42 +3911,42 @@
     </row>
     <row r="17" spans="2:3" ht="168.75">
       <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="75">
       <c r="B19" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="262.5">
       <c r="B20" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>6</v>
@@ -3941,42 +3954,42 @@
     </row>
     <row r="25" spans="2:3" ht="150">
       <c r="B25" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C25" s="14"/>
     </row>
     <row r="26" spans="2:3" ht="187.5">
       <c r="B26" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C26" s="14"/>
     </row>
     <row r="27" spans="2:3" ht="187.5">
       <c r="B27" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C28" s="14"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C29" s="14"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>6</v>
@@ -3984,32 +3997,32 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="56.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="37.5">
       <c r="B33" s="3" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="375">
       <c r="B35" s="3" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="37.5">
       <c r="B37" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>6</v>
@@ -4017,22 +4030,22 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="243.75">
       <c r="B39" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4069,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4121,7 +4134,7 @@
     <row r="10" spans="1:3" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
@@ -4173,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4207,13 +4220,13 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4221,7 +4234,7 @@
     <row r="10" spans="1:4" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
@@ -4328,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4344,7 +4357,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4356,7 +4369,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4579,7 +4592,7 @@
     </row>
     <row r="13" spans="1:4" ht="310.5">
       <c r="B13" s="12" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
@@ -4694,7 +4707,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4713,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4744,7 +4757,7 @@
     <row r="7" spans="1:4" ht="67.5">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4760,13 +4773,13 @@
     <row r="9" spans="1:4" ht="108">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4856,7 +4869,7 @@
     </row>
     <row r="7" spans="1:2" ht="168.75">
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4874,7 +4887,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4921,15 +4934,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="56.25">
+    <row r="7" spans="1:2" ht="75">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4941,10 +4954,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFAE51F-FED0-4874-AF7D-55D82F0F534B}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4994,64 +5007,58 @@
     <row r="7" spans="1:2" ht="51">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="54">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="40.5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="32.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="32.25">
+      <c r="B10" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="37.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45.75">
+      <c r="B11" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="64.5">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="64.5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
+    <row r="15" spans="1:2" ht="37.5">
+      <c r="B15" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="37.5">
       <c r="B16" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="37.5">
-      <c r="B17" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5065,9 +5072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF158CDD-1C37-4D6B-B010-BB7EF83F2F8E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -5085,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5116,19 +5121,19 @@
     <row r="7" spans="1:4" ht="32.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5136,31 +5141,31 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
@@ -5169,7 +5174,7 @@
     <row r="14" spans="1:4" ht="27">
       <c r="A14" s="1"/>
       <c r="B14" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -5178,7 +5183,7 @@
     <row r="15" spans="1:4" ht="40.5">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
@@ -5253,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5278,28 +5283,28 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="37.5">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="56.25">
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5345,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5370,33 +5375,33 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="37.5">
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="37.5">
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="56.25">
       <c r="B11" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5407,24 +5412,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5673,6 +5660,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5683,17 +5688,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5712,6 +5706,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB16B9FC-6B7A-427E-AA50-38D81FAFEC5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF8449A-6FEF-4990-9FA3-49A4BA3931BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" firstSheet="1" activeTab="6" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -2752,19 +2752,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>&lt;h3&gt;新しいページ&lt;/h3&gt;１ページあたりに表示する問題数を指定することができます。&lt;br&gt;「すべての問題を１ページに表示する｣では、すべての問題は同一ページに表示されます。&lt;br&gt;問題数が多い場合、1 ページあたりの問題数を制限して複数のページに分けることができます。&lt;br&gt;後から、小テストの編集ページで、手動で改ページの位置を変更することもできます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>&lt;h3&gt;制限を経過した場合&lt;/h3&gt;問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します。学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;
 &lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;
 &lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;
-&lt;ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;新しいページ&lt;/h3&gt;１ページあたりに表示する問題数を指定することができます。&lt;br&gt;「すべての問題を１ページに表示する｣では、すべての問題は同一ページに表示されます。&lt;br&gt;問題数が多い場合、1 ページあたりの問題数を制限して複数のページに分けることができます。&lt;br&gt;後から、小テストの編集ページで、手動で改ページの位置を変更することもできます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;アダプティブモード&lt;/h4&gt;学生は、1 つの問題に対して複数回の解答を行うことができます。&lt;br&gt;このモードでは、答えを間違えた場合の動作を次から選べます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示して、同じ問題をもう一度表示します。学生は解答し直すことができます。通常は、間違った解答ごとに評点にペナルティを課すように設定します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示し、別な問題を表示します。&lt;/li&gt;&lt;/ul&gt;</t>
+&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;アダプティブモード&lt;/h4&gt;学生は、1 つの問題に対して複数回の解答を行うことができます。&lt;br&gt;このモードでは、答えを間違えた場合の動作を次から選べます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示して、同じ問題をもう一度表示します。学生は解答し直すことができます。通常は、間違った解答ごとに評点にペナルティを課すように設定します。&lt;/li&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示し、別な問題を表示します。&lt;/li&gt;&lt;/ul&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4465,8 +4464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4707,7 +4706,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4773,7 +4772,7 @@
     <row r="9" spans="1:4" ht="108">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -4937,7 +4936,7 @@
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
@@ -5072,7 +5071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF158CDD-1C37-4D6B-B010-BB7EF83F2F8E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -5412,6 +5411,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5660,24 +5677,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5688,6 +5687,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5706,17 +5716,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF8449A-6FEF-4990-9FA3-49A4BA3931BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3890975-C750-447D-88E4-29E2F2DD9411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -878,69 +878,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>即時フィードバック（CBM）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>CBM（Certainty-based marking）機能を使った即時フィードバックです。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>このモードの問題では、学生は問題に解答するだけではなく、その解答に対する確信度(自信)も回答します。評点は正誤と確信度によって決まります。自信をもって正解すると最も評点が高く、自信を持って間違えると最も評点が低くなります。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;直近の解答内容を反映させる&lt;/h3&gt;複数回の受験を許可している場合、ここで「Yes」を選択していると、次回の受験のときには直前に解答した内容が表示されます。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2756,14 +2693,95 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;制限を経過した場合&lt;/h3&gt;問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します。学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;
+    <t>&lt;h3&gt;制限を経過した場合&lt;/h3&gt;問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します。学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;&lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;&lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;
 &lt;/ul&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h4&gt;アダプティブモード&lt;/h4&gt;学生は、1 つの問題に対して複数回の解答を行うことができます。&lt;br&gt;このモードでは、答えを間違えた場合の動作を次から選べます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示して、同じ問題をもう一度表示します。学生は解答し直すことができます。通常は、間違った解答ごとに評点にペナルティを課すように設定します。&lt;/li&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示し、別な問題を表示します。&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;h4&gt;アダプティブモード&lt;/h4&gt;学生は、1 つの問題に対して複数回の解答を行うことができます。&lt;br&gt;このモードでは、答えを間違えた場合の動作を次から選べます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示して、同じ問題をもう一度表示します。学生は解答し直すことができます。&lt;br&gt;通常は、間違った解答ごとに評点にペナルティを課すように設定します。&lt;/li&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示し、別な問題を表示します。&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>即時フィードバック（CBM）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CBM（Certainty-based marking）機能を使った即時フィードバックです。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>このモードの問題では、学生は問題に解答するだけではなく、その解答に対する確信度(自信)も回答します。評点は正誤と確信度によって決まります。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自信をもって正解すると最も評点が高く、自信を持って間違えると最も評点が低くなります。</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3318,7 +3336,7 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
@@ -3360,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3391,13 +3409,13 @@
     <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3405,7 +3423,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3500,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3531,13 +3549,13 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3545,25 +3563,25 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3641,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3666,109 +3684,109 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="177">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45.75">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="75">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="59.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72.75">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="64.5">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="94.5">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="158.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="75">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3805,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3848,7 +3866,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -3866,25 +3884,25 @@
     <row r="11" spans="1:3" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="93.75">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -3893,7 +3911,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
@@ -3902,7 +3920,7 @@
     <row r="16" spans="1:3" ht="226.5">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>6</v>
@@ -3910,42 +3928,42 @@
     </row>
     <row r="17" spans="2:3" ht="168.75">
       <c r="B17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="75">
       <c r="B19" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="262.5">
       <c r="B20" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>6</v>
@@ -3953,42 +3971,42 @@
     </row>
     <row r="25" spans="2:3" ht="150">
       <c r="B25" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="14"/>
     </row>
     <row r="26" spans="2:3" ht="187.5">
       <c r="B26" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="14"/>
     </row>
     <row r="27" spans="2:3" ht="187.5">
       <c r="B27" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="14"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="14"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>6</v>
@@ -3996,32 +4014,32 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="37.5">
       <c r="B33" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="375">
       <c r="B35" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="37.5">
       <c r="B37" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>6</v>
@@ -4029,22 +4047,22 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="243.75">
       <c r="B39" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4081,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4133,7 +4151,7 @@
     <row r="10" spans="1:3" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
@@ -4185,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4219,13 +4237,13 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4233,7 +4251,7 @@
     <row r="10" spans="1:4" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
@@ -4340,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4356,7 +4374,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4368,7 +4386,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4464,8 +4482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CED9BC5-84B4-4D12-B0B3-4DC22ED77DC1}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4591,7 +4609,7 @@
     </row>
     <row r="13" spans="1:4" ht="310.5">
       <c r="B13" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
@@ -4772,7 +4790,7 @@
     <row r="9" spans="1:4" ht="108">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -4818,8 +4836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCC51EA-F7EF-4B13-8E46-8FB3FD467ED9}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4936,7 +4954,7 @@
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
@@ -4956,7 +4974,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5018,7 +5036,7 @@
     <row r="9" spans="1:2" ht="54">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="32.25">
@@ -5030,13 +5048,13 @@
     <row r="11" spans="1:2" ht="37.5">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="64.5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="69.75">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5057,7 +5075,7 @@
     </row>
     <row r="16" spans="1:2" ht="37.5">
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -5089,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5120,19 +5138,19 @@
     <row r="7" spans="1:4" ht="32.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5140,31 +5158,31 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
@@ -5173,7 +5191,7 @@
     <row r="14" spans="1:4" ht="27">
       <c r="A14" s="1"/>
       <c r="B14" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -5182,7 +5200,7 @@
     <row r="15" spans="1:4" ht="40.5">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
@@ -5288,22 +5306,22 @@
     <row r="7" spans="1:2" ht="37.5">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="56.25">
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5349,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5380,27 +5398,27 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="37.5">
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="37.5">
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="56.25">
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5411,24 +5429,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5677,6 +5677,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5687,17 +5705,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5716,6 +5723,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3890975-C750-447D-88E4-29E2F2DD9411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E45F956-AFB5-4021-A70A-777D7CEA8D73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -2693,11 +2693,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;制限を経過した場合&lt;/h3&gt;問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します。学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;&lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;&lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h4&gt;アダプティブモード&lt;/h4&gt;学生は、1 つの問題に対して複数回の解答を行うことができます。&lt;br&gt;このモードでは、答えを間違えた場合の動作を次から選べます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示して、同じ問題をもう一度表示します。学生は解答し直すことができます。&lt;br&gt;通常は、間違った解答ごとに評点にペナルティを課すように設定します。&lt;/li&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示し、別な問題を表示します。&lt;/li&gt;&lt;/ul&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2782,6 +2777,10 @@
       </rPr>
       <t>自信をもって正解すると最も評点が高く、自信を持って間違えると最も評点が低くなります。</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;制限を経過した場合&lt;/h3&gt;問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します。学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;&lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;&lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;&lt;/ul&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4723,8 +4722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7222B16B-225E-40F6-B25E-FF1AF04CA1BC}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4787,10 +4786,10 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="108">
+    <row r="9" spans="1:4" ht="94.5">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -4836,7 +4835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCC51EA-F7EF-4B13-8E46-8FB3FD467ED9}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5036,7 +5035,7 @@
     <row r="9" spans="1:2" ht="54">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="32.25">
@@ -5054,7 +5053,7 @@
     <row r="12" spans="1:2" ht="69.75">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5429,6 +5428,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5677,24 +5694,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5705,6 +5704,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5723,17 +5733,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E45F956-AFB5-4021-A70A-777D7CEA8D73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A1A447-0056-450D-9CC6-AF74EB4C485B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="6" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="170">
   <si>
     <t>header1</t>
   </si>
@@ -931,22 +931,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;ユーザ画像を表示する&lt;/h3&gt;受験中およびレビュー時、画面に学生の氏名および写真が表示されます。例えば、試験監督が、受験者がユーザ本人かどうかを確認するために利用できます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;評点の小数位&lt;/h3&gt;受講者の得点や評点を表示するときに、小数点以下を何桁表示するかを指定します。この設定は、画面表示にのみ有効です。データベースに保存されるデータや内部計算には使用されません。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;問題評点の小数位&lt;/h3&gt;個々の問題の評点を表示する場合、小テスト全体の評点とは異なる精度を選択することができます。例えば、個々の問題では小数点以下を含めた評点を使用するが、小テストの最終評点では最も近い整数に丸めた値を採用するということができます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;小テスト受験中にブロックを表示する&lt;/h3&gt;有効にした場合、小テストの受験中に通常のブロックを表示します。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;パスワード&lt;/h3&gt;ここにパスワードを設定すると、学生は、同じパスワードを入力してから受験する必要があります。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1035,49 +1019,6 @@
   </si>
   <si>
     <t>&lt;h4&gt;分離グループ&lt;/h4&gt;それぞれのグループメンバーは、そのグループ内のみ閲覧できます。他のグループを閲覧することはできません。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>可視グループ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>それぞれのグループメンバーは、そのグループ内で作業しますが、他のグループを閲覧することもできます。</t>
-    </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2306,15 +2247,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>例えばグループごとに受験時期をずらしてテストを課す場合など、受験後の学生にテストの正解を見せたくない時は、「答えの正誤」や「正解」のチェックを外すとテストの正解を隠すことができます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、テストの正解だけでなく、問題や評点も見せたくない場合は、すべてのチェックを外したください。
-そうすると「評定」にも評点が表示されなくなります。この場合、学生がテストを開いた場合に表示されるのは、受験回数と受験日時のみです。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;受験中&lt;/h3&gt;「複数受験インタラクティブ」のような、特定の挙動のみに関連します。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2363,22 +2295,6 @@
       </rPr>
       <t>受験を終了した後でかつ小テスト終了日時より前です。</t>
     </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;小テスト終了後&lt;/h3&gt;小テスト終了日時を経過した後です。小テストに終了日時が設定されていない場合は無視されます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;オススメの設定：受験後の正解非表示&lt;/h4&gt;</t>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>デフォルトの状態では、テストの問題、学生の解答、解答の正誤などが表示されるようになっています。
-受験を終わった学生はすぐに正解を知ることができます</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2781,6 +2697,87 @@
   </si>
   <si>
     <t>&lt;h3&gt;制限を経過した場合&lt;/h3&gt;問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します。学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;&lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;&lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>可視グループ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>それぞれのグループメンバーは、そのグループ内で作業しますが、他のグループを閲覧することもできます。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テスト受験中にブロックを表示する&lt;/h3&gt;有効にした場合、小テストの受験中に通常のブロックを表示します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;問題評点の小数位&lt;/h3&gt;個々の問題の評点を表示する場合、小テスト全体の評点とは異なる精度を選択することができます&lt;br&gt;例えば、個々の問題では小数点以下を含めた評点を使用するが、小テストの最終評点では最も近い整数に丸めた値を採用するということができます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ユーザ画像を表示する&lt;/h3&gt;受験中およびレビュー時、画面に学生の氏名および写真が表示されます。例えば、試験監督が、受験者がユーザ本人かどうかを確認するために利用できます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評点の小数位&lt;/h3&gt;受講者の得点や評点を表示するときに、小数点以下を何桁表示するかを指定します&lt;br&gt;この設定は、画面表示にのみ有効です。データベースに保存されるデータや内部計算には使用されません</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テスト終了後&lt;/h3&gt;小テスト終了日時を経過した後です。小テストに終了日時が設定されていない場合は無視されます&lt;br&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;設定例：受験後の正解非表示&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デフォルトの状態では、テストの問題、学生の解答、解答の正誤などが表示されるようになっています
+受験を終わった学生はすぐに正解を知ることができます&lt;br&gt;
+例えばグループごとに受験時期をずらしてテストを課す場合など、受験後の学生にテストの正解を見せたくない時は、&lt;b&gt;「答えの正誤」&lt;/b&gt;や&lt;b&gt;「正解」&lt;/b&gt;のチェックを外すとテストの正解を隠すことができます&lt;br&gt;
+また、テストの正解だけでなく、問題や評点も見せたくない場合は、&lt;b&gt;すべてのチェック&lt;/b&gt;を外したください
+そうすると「評定」にも評点が表示されなくなります。この場合、学生がテストを開いた場合に表示されるのは、受験回数と受験日時のみです</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3335,7 +3332,7 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
@@ -3377,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3408,13 +3405,13 @@
     <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3422,7 +3419,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3498,7 +3495,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3517,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3548,13 +3545,13 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3562,25 +3559,25 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3658,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3683,109 +3680,109 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="177">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45.75">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="75">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="59.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72.75">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="64.5">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="94.5">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="158.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="75">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3865,7 +3862,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -3883,25 +3880,25 @@
     <row r="11" spans="1:3" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="93.75">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -3910,7 +3907,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
@@ -3919,7 +3916,7 @@
     <row r="16" spans="1:3" ht="226.5">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>6</v>
@@ -3927,42 +3924,42 @@
     </row>
     <row r="17" spans="2:3" ht="168.75">
       <c r="B17" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="75">
       <c r="B19" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="262.5">
       <c r="B20" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>6</v>
@@ -3970,42 +3967,42 @@
     </row>
     <row r="25" spans="2:3" ht="150">
       <c r="B25" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C25" s="14"/>
     </row>
     <row r="26" spans="2:3" ht="187.5">
       <c r="B26" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C26" s="14"/>
     </row>
     <row r="27" spans="2:3" ht="187.5">
       <c r="B27" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C28" s="14"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C29" s="14"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>6</v>
@@ -4013,32 +4010,32 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="37.5">
       <c r="B33" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="375">
       <c r="B35" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="37.5">
       <c r="B37" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>6</v>
@@ -4046,22 +4043,22 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="243.75">
       <c r="B39" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4098,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4150,7 +4147,7 @@
     <row r="10" spans="1:3" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
@@ -4202,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4236,13 +4233,13 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4250,7 +4247,7 @@
     <row r="10" spans="1:4" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
@@ -4357,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4373,7 +4370,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4385,7 +4382,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4608,7 +4605,7 @@
     </row>
     <row r="13" spans="1:4" ht="310.5">
       <c r="B13" s="12" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
@@ -4722,7 +4719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7222B16B-225E-40F6-B25E-FF1AF04CA1BC}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4789,7 +4786,7 @@
     <row r="9" spans="1:4" ht="94.5">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -4953,7 +4950,7 @@
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
@@ -5035,7 +5032,7 @@
     <row r="9" spans="1:2" ht="54">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="32.25">
@@ -5047,13 +5044,13 @@
     <row r="11" spans="1:2" ht="37.5">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="69.75">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5088,7 +5085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF158CDD-1C37-4D6B-B010-BB7EF83F2F8E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -5149,7 +5148,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5157,53 +5156,46 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="94.5">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27">
+        <v>169</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="40.5">
+      <c r="B14" s="10"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
@@ -5246,7 +5238,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5255,7 +5247,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5305,22 +5297,22 @@
     <row r="7" spans="1:2" ht="37.5">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="56.25">
       <c r="B9" s="3" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5366,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5397,27 +5389,27 @@
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="37.5">
       <c r="B9" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="37.5">
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="56.25">
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5428,24 +5420,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5694,6 +5668,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5704,17 +5696,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5733,6 +5714,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A1A447-0056-450D-9CC6-AF74EB4C485B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF53565-398D-4E2C-B6AC-8DF55EB6B349}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="6" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="169">
   <si>
     <t>header1</t>
   </si>
@@ -2252,49 +2252,6 @@
   </si>
   <si>
     <t>&lt;h3&gt;受験後すぐに&lt;/h3&gt;学生が小テストを終えて「すべてを送信して終了する」ボタンをクリックしてから 2 分以内です。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h3&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>後で、小テスト実施中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>受験を終了した後でかつ小テスト終了日時より前です。</t>
-    </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2759,25 +2716,64 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;小テスト終了後&lt;/h3&gt;小テスト終了日時を経過した後です。小テストに終了日時が設定されていない場合は無視されます&lt;br&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;設定例：受験後の正解非表示&lt;/h3&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>デフォルトの状態では、テストの問題、学生の解答、解答の正誤などが表示されるようになっています
+    <t>&lt;h3&gt;設定例：受験後の正解非表示&lt;/h3&gt;デフォルトの状態では、テストの問題、学生の解答、解答の正誤などが表示されるようになっています
 受験を終わった学生はすぐに正解を知ることができます&lt;br&gt;
 例えばグループごとに受験時期をずらしてテストを課す場合など、受験後の学生にテストの正解を見せたくない時は、&lt;b&gt;「答えの正誤」&lt;/b&gt;や&lt;b&gt;「正解」&lt;/b&gt;のチェックを外すとテストの正解を隠すことができます&lt;br&gt;
 また、テストの正解だけでなく、問題や評点も見せたくない場合は、&lt;b&gt;すべてのチェック&lt;/b&gt;を外したください
 そうすると「評定」にも評点が表示されなくなります。この場合、学生がテストを開いた場合に表示されるのは、受験回数と受験日時のみです</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>後で、小テスト実施中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>受験を終了した後でかつ小テスト終了日時より前です</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テスト終了後&lt;/h3&gt;小テスト終了日時を経過した後です。小テストに終了日時が設定されていない場合は無視されます&lt;br&gt;&lt;br&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3374,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3514,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3577,7 +3573,7 @@
     <row r="12" spans="1:4" ht="32.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3728,7 +3724,7 @@
     <row r="11" spans="1:4" ht="72.75">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>6</v>
@@ -3752,7 +3748,7 @@
     <row r="13" spans="1:4" ht="94.5">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
@@ -4015,7 +4011,7 @@
     </row>
     <row r="33" spans="2:3" ht="37.5">
       <c r="B33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -4025,7 +4021,7 @@
     </row>
     <row r="35" spans="2:3" ht="375">
       <c r="B35" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -4233,13 +4229,13 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4354,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4370,7 +4366,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4382,7 +4378,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4605,7 +4601,7 @@
     </row>
     <row r="13" spans="1:4" ht="310.5">
       <c r="B13" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
@@ -4786,7 +4782,7 @@
     <row r="9" spans="1:4" ht="94.5">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -4950,7 +4946,7 @@
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
@@ -5032,7 +5028,7 @@
     <row r="9" spans="1:2" ht="54">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="32.25">
@@ -5044,13 +5040,13 @@
     <row r="11" spans="1:2" ht="37.5">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="69.75">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5086,7 +5082,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5162,26 +5158,24 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="108">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="94.5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
-        <v>169</v>
-      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
     </row>
@@ -5297,22 +5291,22 @@
     <row r="7" spans="1:2" ht="37.5">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="56.25">
       <c r="B9" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5358,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5420,6 +5414,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5668,24 +5680,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5696,6 +5690,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5714,17 +5719,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/guide41_test.xlsx
+++ b/guide41_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\60.バージョンアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF53565-398D-4E2C-B6AC-8DF55EB6B349}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10639295-748C-4571-AE01-793D72420713}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="6" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="12" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="160">
   <si>
     <t>header1</t>
   </si>
@@ -1027,31 +1027,6 @@
       <t>ショウカイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test-q1.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test-q2.png</t>
-  </si>
-  <si>
-    <t>test-q3.png</t>
-  </si>
-  <si>
-    <t>test-q4.png</t>
-  </si>
-  <si>
-    <t>test-q5.png</t>
-  </si>
-  <si>
-    <t>test-q6.png</t>
-  </si>
-  <si>
-    <t>test-q7.png</t>
-  </si>
-  <si>
-    <t>test-q8.png</t>
   </si>
   <si>
     <r>
@@ -2089,10 +2064,6 @@
   </si>
   <si>
     <t>設定項目を入力します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;small&gt;※ 穴埋め問題フォーマットで使用する記号は以下となります。&lt;/small&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2221,19 +2192,6 @@
 &lt;li&gt;&lt;b&gt;フィードバック：&lt;/b&gt;この選択肢を選んだ場合に表示するフィードバックを入力します。&lt;/li&gt;
 &lt;small&gt;※ 選択肢の入力欄が足りない場合は、［さらに 3 件の選択肢入力欄を追加する］ボタンをクリックしてください。&lt;/small&gt;
 &lt;/ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>必要に応じて複数受験を設定します
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;それぞれの不正解に対するペナルティ：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解に対する減点の割合をパーセントで設定します。&lt;/li&gt;
-&lt;small&gt;※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。&lt;/small&gt;
-&lt;li&gt;&lt;b&gt;ヒント：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力します。学生は入力したヒントの数と同じ回数まで再受験できます。&lt;li&gt;
-&lt;small&gt;※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。&lt;/small&gt;
-&lt;li&gt;&lt;b&gt;ヒントオプション：&lt;/b&gt;
-&lt;ul&gt;&lt;li&gt;&lt;b&gt;正しくない解答をクリアする：&lt;/b&gt;再受験のとき、前回の解答を表示させないときはチェックします。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;正答数を表示する：&lt;/b&gt;回答後に、正答数を表示する場合はチェックします。&lt;/li&gt;&lt;/ul&gt;
-&lt;/li&gt;&lt;/ul&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2471,309 +2429,319 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>即時フィードバック</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小テスト内のそれぞれの問題に解答する都度、すぐに正解やフィードバックが表示されます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>なお、解答内容は変更できません。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;新しいページ&lt;/h3&gt;１ページあたりに表示する問題数を指定することができます。&lt;br&gt;「すべての問題を１ページに表示する｣では、すべての問題は同一ページに表示されます。&lt;br&gt;問題数が多い場合、1 ページあたりの問題数を制限して複数のページに分けることができます。&lt;br&gt;後から、小テストの編集ページで、手動で改ページの位置を変更することもできます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;アダプティブモード&lt;/h4&gt;学生は、1 つの問題に対して複数回の解答を行うことができます。&lt;br&gt;このモードでは、答えを間違えた場合の動作を次から選べます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示して、同じ問題をもう一度表示します。学生は解答し直すことができます。&lt;br&gt;通常は、間違った解答ごとに評点にペナルティを課すように設定します。&lt;/li&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示し、別な問題を表示します。&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>即時フィードバック（CBM）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CBM（Certainty-based marking）機能を使った即時フィードバックです。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>このモードの問題では、学生は問題に解答するだけではなく、その解答に対する確信度(自信)も回答します。評点は正誤と確信度によって決まります。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自信をもって正解すると最も評点が高く、自信を持って間違えると最も評点が低くなります。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;制限を経過した場合&lt;/h3&gt;問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します。学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;&lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;&lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>可視グループ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>それぞれのグループメンバーは、そのグループ内で作業しますが、他のグループを閲覧することもできます。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テスト受験中にブロックを表示する&lt;/h3&gt;有効にした場合、小テストの受験中に通常のブロックを表示します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;問題評点の小数位&lt;/h3&gt;個々の問題の評点を表示する場合、小テスト全体の評点とは異なる精度を選択することができます&lt;br&gt;例えば、個々の問題では小数点以下を含めた評点を使用するが、小テストの最終評点では最も近い整数に丸めた値を採用するということができます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;ユーザ画像を表示する&lt;/h3&gt;受験中およびレビュー時、画面に学生の氏名および写真が表示されます。例えば、試験監督が、受験者がユーザ本人かどうかを確認するために利用できます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;評点の小数位&lt;/h3&gt;受講者の得点や評点を表示するときに、小数点以下を何桁表示するかを指定します&lt;br&gt;この設定は、画面表示にのみ有効です。データベースに保存されるデータや内部計算には使用されません</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>後で、小テスト実施中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>受験を終了した後でかつ小テスト終了日時より前です</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テスト終了後&lt;/h3&gt;小テスト終了日時を経過した後です。小テストに終了日時が設定されていない場合は無視されます&lt;br&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;設定例：受験後の正解非表示&lt;/h3&gt;デフォルトの状態では、テストの問題、学生の解答、解答の正誤などが表示されるようになっています&lt;br&gt;受験を終わった学生はすぐに正解を知ることができます&lt;br&gt;&lt;br&gt;例えばグループごとに受験時期をずらしてテストを課す場合など、受験後の学生にテストの正解を見せたくない時は、&lt;b&gt;「答えの正誤」&lt;/b&gt;や&lt;b&gt;「正解」&lt;/b&gt;のチェックを外すとテストの正解を隠すことができます&lt;br&gt;&lt;br&gt;また、テストの正解だけでなく、問題や評点も見せたくない場合は、&lt;b&gt;すべてのチェック&lt;/b&gt;を外したください&lt;br&gt;そうすると「評定」にも評点が表示されなくなります。この場合、学生がテストを開いた場合に表示されるのは、受験回数と受験日時のみです</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t xml:space="preserve"> &lt;table border="1" width="550"&gt;
     &lt;tr&gt;
-      &lt;td&gt;　{} &lt;/td&gt;&lt;td&gt;問題となる部分全体をくくります&lt;/td&gt;
+      &lt;td&gt; {} &lt;/td&gt;&lt;td&gt; 問題となる部分全体をくくります&lt;/td&gt;
     &lt;/tr&gt;
     &lt;tr&gt;
-      &lt;td&gt;　｛1 (フォーマット先頭の数字) &lt;/td&gt;&lt;td&gt;問題の比重（配点）を表します&lt;/td&gt;
+      &lt;td&gt; ｛1 (フォーマット先頭の数字) &lt;/td&gt;&lt;td&gt; 問題の比重（配点）を表します&lt;/td&gt;
     &lt;/tr&gt;
     &lt;tr&gt;
-      &lt;td&gt;　: （半角コロン） &lt;/td&gt;&lt;td&gt;問題形式をくくります&lt;/td&gt;
+      &lt;td&gt; : （半角コロン） &lt;/td&gt;&lt;td&gt; 問題形式をくくります&lt;/td&gt;
     &lt;/tr&gt;
     &lt;tr&gt;
-      &lt;td&gt;　~ &lt;/td&gt;&lt;td&gt;答と答の区切り記号です&lt;/td&gt;
+      &lt;td&gt; ~ &lt;/td&gt;&lt;td&gt; 答と答の区切り記号です&lt;/td&gt;
    &lt;/tr&gt;
     &lt;tr&gt;
-      &lt;td&gt;　# &lt;/td&gt;&lt;td&gt;答とフィードバックの間を区切ります&lt;/td&gt;
+      &lt;td&gt; # &lt;/td&gt;&lt;td&gt; 答とフィードバックの間を区切ります&lt;/td&gt;
     &lt;/tr&gt;
     &lt;tr&gt;
-      &lt;td&gt;　=  &lt;/td&gt;&lt;td&gt;以下に続く答えが正答であることを示します&lt;/td&gt;
+      &lt;td&gt; =  &lt;/td&gt;&lt;td&gt; 以下に続く答えが正答であることを示します&lt;/td&gt;
     &lt;/tr&gt;
   &lt;/table&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>必要に応じて複数受験を設定します
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;それぞれの不正解に対するペナルティ：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で複数回の受験ができるようにしていた場合、ここで、不正解に対する減点の割合をパーセントで設定します。&lt;/li&gt;
+&lt;small&gt;※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。&lt;/small&gt;
+&lt;li&gt;&lt;b&gt;ヒント：&lt;/b&gt;小テスト全体の設定をしたとき、［問題の挙動］の［問題動作］で「複数受験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力します。学生は入力したヒントの数と同じ回数まで再受験できます。&lt;/li&gt;
+&lt;small&gt;※ ヒントの入力欄が足りないときは、［別のヒントを追加する］ボタンをクリックしてください。&lt;/small&gt;
+&lt;li&gt;&lt;b&gt;ヒントオプション：&lt;/b&gt;
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;正しくない解答をクリアする：&lt;/b&gt;再受験のとき、前回の解答を表示させないときはチェックします。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;正答数を表示する：&lt;/b&gt;回答後に、正答数を表示する場合はチェックします。&lt;/li&gt;&lt;/ul&gt;
+&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;問題名：&lt;/b&gt;問題の名称を入力します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;問題テキスト：&lt;/b&gt;「次のうち、正しいものを選びなさい。」などの、問題文を入力します。&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>即時フィードバック</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>小テスト内のそれぞれの問題に解答する都度、すぐに正解やフィードバックが表示されます。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>なお、解答内容は変更できません。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;新しいページ&lt;/h3&gt;１ページあたりに表示する問題数を指定することができます。&lt;br&gt;「すべての問題を１ページに表示する｣では、すべての問題は同一ページに表示されます。&lt;br&gt;問題数が多い場合、1 ページあたりの問題数を制限して複数のページに分けることができます。&lt;br&gt;後から、小テストの編集ページで、手動で改ページの位置を変更することもできます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;アダプティブモード&lt;/h4&gt;学生は、1 つの問題に対して複数回の解答を行うことができます。&lt;br&gt;このモードでは、答えを間違えた場合の動作を次から選べます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示して、同じ問題をもう一度表示します。学生は解答し直すことができます。&lt;br&gt;通常は、間違った解答ごとに評点にペナルティを課すように設定します。&lt;/li&gt;&lt;li&gt;&lt;b&gt;解答が間違っていた場合&lt;/b&gt;、メッセージを表示し、別な問題を表示します。&lt;/li&gt;&lt;/ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>即時フィードバック（CBM）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>CBM（Certainty-based marking）機能を使った即時フィードバックです。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>このモードの問題では、学生は問題に解答するだけではなく、その解答に対する確信度(自信)も回答します。評点は正誤と確信度によって決まります。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>自信をもって正解すると最も評点が高く、自信を持って間違えると最も評点が低くなります。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;制限を経過した場合&lt;/h3&gt;問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します。学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます。&lt;br&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;&lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;&lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;&lt;/ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>可視グループ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>それぞれのグループメンバーは、そのグループ内で作業しますが、他のグループを閲覧することもできます。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;小テスト受験中にブロックを表示する&lt;/h3&gt;有効にした場合、小テストの受験中に通常のブロックを表示します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;問題評点の小数位&lt;/h3&gt;個々の問題の評点を表示する場合、小テスト全体の評点とは異なる精度を選択することができます&lt;br&gt;例えば、個々の問題では小数点以下を含めた評点を使用するが、小テストの最終評点では最も近い整数に丸めた値を採用するということができます</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;ユーザ画像を表示する&lt;/h3&gt;受験中およびレビュー時、画面に学生の氏名および写真が表示されます。例えば、試験監督が、受験者がユーザ本人かどうかを確認するために利用できます</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;評点の小数位&lt;/h3&gt;受講者の得点や評点を表示するときに、小数点以下を何桁表示するかを指定します&lt;br&gt;この設定は、画面表示にのみ有効です。データベースに保存されるデータや内部計算には使用されません</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;設定例：受験後の正解非表示&lt;/h3&gt;デフォルトの状態では、テストの問題、学生の解答、解答の正誤などが表示されるようになっています
-受験を終わった学生はすぐに正解を知ることができます&lt;br&gt;
-例えばグループごとに受験時期をずらしてテストを課す場合など、受験後の学生にテストの正解を見せたくない時は、&lt;b&gt;「答えの正誤」&lt;/b&gt;や&lt;b&gt;「正解」&lt;/b&gt;のチェックを外すとテストの正解を隠すことができます&lt;br&gt;
-また、テストの正解だけでなく、問題や評点も見せたくない場合は、&lt;b&gt;すべてのチェック&lt;/b&gt;を外したください
-そうすると「評定」にも評点が表示されなくなります。この場合、学生がテストを開いた場合に表示されるのは、受験回数と受験日時のみです</t>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h3&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>後で、小テスト実施中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>受験を終了した後でかつ小テスト終了日時より前です</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;小テスト終了後&lt;/h3&gt;小テスト終了日時を経過した後です。小テストに終了日時が設定されていない場合は無視されます&lt;br&gt;&lt;br&gt;</t>
+&lt;li&gt;&lt;b&gt;問題テキスト：&lt;/b&gt;「次のうち、正しいものを選びなさい。」などの、問題文を入力します。&lt;/li&gt;
+&lt;small&gt;※ 穴埋め問題フォーマットで使用する記号は以下となります。&lt;/small&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3328,7 +3296,7 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
@@ -3370,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3510,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3573,7 +3541,7 @@
     <row r="12" spans="1:4" ht="32.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3631,8 +3599,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3651,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3682,104 +3650,88 @@
     <row r="7" spans="1:4" ht="177">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45.75">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" ht="75">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>90</v>
-      </c>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" ht="59.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" ht="72.75">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" ht="64.5">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>93</v>
-      </c>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" ht="94.5">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>94</v>
-      </c>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" ht="158.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" ht="75">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>96</v>
-      </c>
+      <c r="D15" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3793,10 +3745,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3815,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3858,7 +3810,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -3876,25 +3828,25 @@
     <row r="11" spans="1:3" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="93.75">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>6</v>
@@ -3903,7 +3855,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>6</v>
@@ -3912,7 +3864,7 @@
     <row r="16" spans="1:3" ht="226.5">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>6</v>
@@ -3920,42 +3872,42 @@
     </row>
     <row r="17" spans="2:3" ht="168.75">
       <c r="B17" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="75">
       <c r="B19" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="262.5">
       <c r="B20" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>6</v>
@@ -3963,42 +3915,42 @@
     </row>
     <row r="25" spans="2:3" ht="150">
       <c r="B25" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C25" s="14"/>
     </row>
     <row r="26" spans="2:3" ht="187.5">
       <c r="B26" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C26" s="14"/>
     </row>
     <row r="27" spans="2:3" ht="187.5">
       <c r="B27" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C28" s="14"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C29" s="14"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>6</v>
@@ -4006,55 +3958,50 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="37.5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="56.25">
       <c r="B33" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="375">
-      <c r="B35" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="37.5">
-      <c r="B37" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="375">
+      <c r="B34" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="37.5">
+      <c r="B36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="243.75">
-      <c r="B39" s="3" t="s">
-        <v>138</v>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="243.75">
+      <c r="B38" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="3" t="s">
-        <v>121</v>
+      <c r="B40" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4091,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4143,7 +4090,7 @@
     <row r="10" spans="1:3" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
@@ -4195,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4229,13 +4176,13 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4243,7 +4190,7 @@
     <row r="10" spans="1:4" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
@@ -4350,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4366,7 +4313,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4378,7 +4325,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4601,7 +4548,7 @@
     </row>
     <row r="13" spans="1:4" ht="310.5">
       <c r="B13" s="12" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>6</v>
@@ -4782,7 +4729,7 @@
     <row r="9" spans="1:4" ht="94.5">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -4946,7 +4893,7 @@
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
@@ -5028,7 +4975,7 @@
     <row r="9" spans="1:2" ht="54">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="32.25">
@@ -5040,13 +4987,13 @@
     <row r="11" spans="1:2" ht="37.5">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="69.75">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5081,7 +5028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF158CDD-1C37-4D6B-B010-BB7EF83F2F8E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -5144,7 +5091,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5152,25 +5099,25 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="108">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="81">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5291,22 +5238,22 @@
     <row r="7" spans="1:2" ht="37.5">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="37.5">
       <c r="B8" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="56.25">
       <c r="B9" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5352,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5414,24 +5361,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -5680,6 +5609,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5690,17 +5637,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5719,6 +5655,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
